--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7811BBD-E146-4862-8271-CFD18C176741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F66D82-7CA2-4C05-9B34-D93093EDE691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -90,9 +79,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -178,9 +164,6 @@
     <t>Tow1_3</t>
   </si>
   <si>
-    <t>Tow1_4</t>
-  </si>
-  <si>
     <t>Tow2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -201,10 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tow2_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Tow3_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -213,10 +192,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tow3_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Tow4_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -225,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tow4_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -270,13 +241,370 @@
   </si>
   <si>
     <t>TowerDefense_Tower1</t>
+  </si>
+  <si>
+    <t>string#ref=AIConfigId@AICfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReclaimTowerCostGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收塔消耗金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScaleTowerCostGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售塔获得金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔Lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾塔Lv2</t>
+  </si>
+  <si>
+    <t>毒雾塔Lv3</t>
+  </si>
+  <si>
+    <t>Unit_Solo2</t>
+  </si>
+  <si>
+    <t>Unit_Solo3</t>
+  </si>
+  <si>
+    <t>Unit_Aoe2</t>
+  </si>
+  <si>
+    <t>Unit_Aoe3</t>
+  </si>
+  <si>
+    <t>Unit_Line2</t>
+  </si>
+  <si>
+    <t>Unit_Line3</t>
+  </si>
+  <si>
+    <t>Unit_Circle2</t>
+  </si>
+  <si>
+    <t>Unit_Circle3</t>
+  </si>
+  <si>
+    <t>弩箭塔Lv1</t>
+  </si>
+  <si>
+    <t>弩箭塔Lv2</t>
+  </si>
+  <si>
+    <t>弩箭塔Lv3</t>
+  </si>
+  <si>
+    <t>加农炮Lv1</t>
+  </si>
+  <si>
+    <t>加农炮Lv2</t>
+  </si>
+  <si>
+    <t>加农炮Lv3</t>
+  </si>
+  <si>
+    <t>火图腾Lv1</t>
+  </si>
+  <si>
+    <t>火图腾Lv2</t>
+  </si>
+  <si>
+    <t>火图腾Lv3</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerDragon2</t>
+  </si>
+  <si>
+    <t>Unit_TowerDragon3</t>
+  </si>
+  <si>
+    <t>Unit_TowerElec2</t>
+  </si>
+  <si>
+    <t>Unit_TowerElec3</t>
+  </si>
+  <si>
+    <t>Unit_TowerIce2</t>
+  </si>
+  <si>
+    <t>Unit_TowerIce3</t>
+  </si>
+  <si>
+    <t>Unit_TowerTime2</t>
+  </si>
+  <si>
+    <t>Unit_TowerTime3</t>
+  </si>
+  <si>
+    <t>Unit_TowerDragon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerElec1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerIce1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerTime1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>龙击炮L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>龙击炮L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>龙击炮L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>雷电塔L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>雷电塔L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>雷电塔L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>冰魔塔L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魔塔LV3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔LV1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔LV2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速塔LV3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +651,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -344,7 +681,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -378,8 +715,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -387,8 +750,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -397,10 +761,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,26 +1053,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="29.375" customWidth="1"/>
+    <col min="11" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="20.125" customWidth="1"/>
+    <col min="17" max="17" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,36 +1083,40 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="P1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -746,8 +1130,12 @@
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,18 +1143,18 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -780,47 +1168,55 @@
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+    </row>
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -834,29 +1230,33 @@
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
-    </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+    </row>
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -870,47 +1270,55 @@
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
-    </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
@@ -924,10 +1332,14 @@
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -939,65 +1351,99 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="F6" t="str">
+        <f>"Text_Key_Name_"&amp;D6</f>
+        <v>Text_Key_Name_Tow1_1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f>"Text_Key_Desc_"&amp;D6</f>
+        <v>Text_Key_Desc_Tow1_1</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
-        <v>50</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="L6" s="6">
-        <v>6</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f>L6*0.5</f>
+        <v>100</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D10" si="1">B7&amp;"_"&amp;C7</f>
+        <f t="shared" ref="D7:D9" si="1">B7&amp;"_"&amp;C7</f>
         <v>Tow1_2</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F29" si="2">"Text_Key_Name_"&amp;D7</f>
+        <v>Text_Key_Name_Tow1_2</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="shared" ref="H7:H29" si="3">"Text_Key_Desc_"&amp;D7</f>
+        <v>Text_Key_Desc_Tow1_2</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
-        <v>60</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="L7" s="6">
-        <v>6</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" ref="N7:N29" si="4">L7*0.5</f>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -1009,469 +1455,1115 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="6">
-        <v>70</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>24</v>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow1_3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow1_3</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
       </c>
       <c r="L8" s="6">
-        <v>6</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v>Tow1_4</v>
+        <v>Tow2_1</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow2_1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow2_1</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="6">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="L9" s="6">
+        <v>160</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>Tow2_1</v>
+        <f t="shared" ref="D10:D29" si="5">B10&amp;"_"&amp;C10</f>
+        <v>Tow2_2</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>50</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>28</v>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow2_2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow2_2</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
       </c>
       <c r="L10" s="6">
-        <v>6</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D21" si="2">B11&amp;"_"&amp;C11</f>
-        <v>Tow2_2</v>
+        <f t="shared" si="5"/>
+        <v>Tow2_3</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow2_3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow2_3</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3</v>
+      </c>
+      <c r="L11" s="6">
+        <v>160</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow3_1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow3_1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow3_1</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>80</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="I11" s="6">
+      <c r="O12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="D13" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow3_2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow3_2</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow3_2</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>80</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow3_3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow3_3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow3_3</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>80</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow4_1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow4_1</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow4_1</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6">
+        <v>120</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="6">
-        <v>6</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="O15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow4_2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v>Tow2_3</v>
-      </c>
-      <c r="E12">
+        <v>Text_Key_Name_Tow4_2</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow4_2</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="L16" s="6">
+        <v>120</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow4_3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow4_3</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow4_3</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="6">
+        <v>3</v>
+      </c>
+      <c r="L17" s="6">
+        <v>120</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="6">
-        <v>6</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>Tow2_4</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="6">
-        <v>4</v>
-      </c>
-      <c r="J13" s="6">
-        <v>80</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>Tow3_1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>50</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="6">
-        <v>6</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>Tow3_2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="6">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6">
-        <v>60</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="6">
-        <v>6</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>Tow3_3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="6">
-        <v>3</v>
-      </c>
-      <c r="J16" s="6">
-        <v>70</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="6">
-        <v>6</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>Tow3_4</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="6">
-        <v>4</v>
-      </c>
-      <c r="J17" s="6">
-        <v>80</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow5_1</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v>Tow4_1</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="6">
+        <v>Text_Key_Name_Tow5_1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow5_1</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="6">
         <v>1</v>
       </c>
-      <c r="J18" s="6">
-        <v>50</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="L18" s="6">
-        <v>6</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O18" t="str">
+        <f>D19</f>
+        <v>Tow5_2</v>
+      </c>
+      <c r="P18" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow5_2</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="2"/>
-        <v>Tow4_2</v>
-      </c>
-      <c r="E19">
+        <v>Text_Key_Name_Tow5_2</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow5_2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>200</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O19" t="str">
+        <f>D20</f>
+        <v>Tow5_3</v>
+      </c>
+      <c r="P19" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow5_3</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow5_3</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow5_3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="6">
+        <v>3</v>
+      </c>
+      <c r="L20" s="6">
+        <v>200</v>
+      </c>
+      <c r="M20" s="6">
+        <v>3</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow6_1</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow6_1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow6_1</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>250</v>
+      </c>
+      <c r="M21" s="6">
         <v>4</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="N21" s="6">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="O21" t="str">
+        <f>D22</f>
+        <v>Tow6_2</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="6">
         <v>2</v>
       </c>
-      <c r="J19" s="6">
-        <v>60</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="D22" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow6_2</v>
+      </c>
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v>Tow4_3</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="6">
-        <v>3</v>
-      </c>
-      <c r="J20" s="6">
-        <v>70</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="6">
+        <v>Text_Key_Name_Tow6_2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow6_2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+      <c r="L22" s="6">
+        <v>250</v>
+      </c>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="O22" t="str">
+        <f>D23</f>
+        <v>Tow6_3</v>
+      </c>
+      <c r="P22" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow6_3</v>
+      </c>
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4</v>
-      </c>
-      <c r="D21" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="2"/>
-        <v>Tow4_4</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="6">
-        <v>4</v>
-      </c>
-      <c r="J21" s="6">
+        <v>Text_Key_Name_Tow6_3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow6_3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="6">
+        <v>3</v>
+      </c>
+      <c r="L23" s="6">
+        <v>250</v>
+      </c>
+      <c r="M23" s="6">
+        <v>6</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow7_1</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow7_1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow7_1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>200</v>
+      </c>
+      <c r="M24" s="6">
+        <v>7</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O24" t="str">
+        <f>D25</f>
+        <v>Tow7_2</v>
+      </c>
+      <c r="P24" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow7_2</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow7_2</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow7_2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2</v>
+      </c>
+      <c r="L25" s="6">
+        <v>200</v>
+      </c>
+      <c r="M25" s="6">
+        <v>8</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O25" t="str">
+        <f>D26</f>
+        <v>Tow7_3</v>
+      </c>
+      <c r="P25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow7_3</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow7_3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow7_3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3</v>
+      </c>
+      <c r="L26" s="6">
+        <v>200</v>
+      </c>
+      <c r="M26" s="6">
+        <v>9</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow8_1</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow8_1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow8_1</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
+        <v>200</v>
+      </c>
+      <c r="M27" s="6">
+        <v>10</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O27" t="str">
+        <f>D28</f>
+        <v>Tow8_2</v>
+      </c>
+      <c r="P27" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow8_2</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow8_2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow8_2</v>
+      </c>
+      <c r="J28" t="s">
         <v>80</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
-        <v>48</v>
+      <c r="K28" s="6">
+        <v>2</v>
+      </c>
+      <c r="L28" s="6">
+        <v>200</v>
+      </c>
+      <c r="M28" s="6">
+        <v>11</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="O28" t="str">
+        <f>D29</f>
+        <v>Tow8_3</v>
+      </c>
+      <c r="P28" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="5"/>
+        <v>Tow8_3</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>Text_Key_Name_Tow8_3</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Text_Key_Desc_Tow8_3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="6">
+        <v>3</v>
+      </c>
+      <c r="L29" s="6">
+        <v>200</v>
+      </c>
+      <c r="M29" s="6">
+        <v>12</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{0EDB4CC0-B190-4685-B145-793D0FF4CF0F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F66D82-7CA2-4C05-9B34-D93093EDE691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61959267-4CC7-47C9-A47B-16FFEC95E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>##var</t>
   </si>
@@ -119,10 +130,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#ref=UnitCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -599,12 +606,91 @@
     <t>加速塔LV3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>(list#sep=;),string#ref=UnitCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon资源路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relativePosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),vector3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardGold</t>
+  </si>
+  <si>
+    <t>击杀奖励金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ResIconCfgCategory?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>PlayerTowerType</t>
+  </si>
+  <si>
+    <t>TowCallMonster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Monster4;Unit_Monster5;Unit_Monster6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_Monster1</t>
+  </si>
+  <si>
+    <t>0,0,0;2,0,0;0,0,2;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallMonster</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +741,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -752,7 +847,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -763,6 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1053,27 +1149,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G29"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="29.375" customWidth="1"/>
-    <col min="11" max="15" width="23.375" customWidth="1"/>
-    <col min="16" max="16" width="20.125" customWidth="1"/>
-    <col min="17" max="17" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
+    <col min="14" max="19" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1083,44 +1181,52 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12"/>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
+      <c r="T1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
@@ -1134,8 +1240,12 @@
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
-    </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1143,10 +1253,10 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1155,10 +1265,10 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
@@ -1172,8 +1282,12 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
-    </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1183,44 +1297,52 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="14"/>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
+        <v>100</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
@@ -1234,8 +1356,12 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
-    </row>
-    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1243,12 +1369,12 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1257,10 +1383,10 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
@@ -1274,8 +1400,12 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
-    </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+    </row>
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1415,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
@@ -1296,33 +1426,41 @@
         <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
@@ -1336,10 +1474,14 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1348,50 +1490,54 @@
         <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
         <v>Tow1_1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>110</v>
       </c>
       <c r="F6" t="str">
         <f>"Text_Key_Name_"&amp;D6</f>
         <v>Text_Key_Name_Tow1_1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="9" t="str">
         <f>"Text_Key_Desc_"&amp;D6</f>
         <v>Text_Key_Desc_Tow1_1</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="6">
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="O6" s="6">
         <v>200</v>
       </c>
-      <c r="M6" s="6">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <f>L6*0.5</f>
+      <c r="R6" s="6">
+        <f>O6*0.5</f>
         <v>100</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -1400,50 +1546,54 @@
         <f t="shared" ref="D7:D9" si="1">B7&amp;"_"&amp;C7</f>
         <v>Tow1_2</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>110</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ref="F7:F29" si="2">"Text_Key_Name_"&amp;D7</f>
         <v>Text_Key_Name_Tow1_2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="shared" ref="H7:H29" si="3">"Text_Key_Desc_"&amp;D7</f>
         <v>Text_Key_Desc_Tow1_2</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="6">
         <v>2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="O7" s="6">
         <v>200</v>
       </c>
-      <c r="M7" s="6">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <f t="shared" ref="N7:N29" si="4">L7*0.5</f>
+      <c r="R7" s="6">
+        <f t="shared" ref="R7:R29" si="4">O7*0.5</f>
         <v>100</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="6">
+        <v>3</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -1452,46 +1602,50 @@
         <f t="shared" si="1"/>
         <v>Tow1_3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" t="s">
+        <v>110</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow1_3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow1_3</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="6">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6">
         <v>200</v>
       </c>
-      <c r="M8" s="6">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
+      <c r="R8" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -1500,50 +1654,51 @@
         <f t="shared" si="1"/>
         <v>Tow2_1</v>
       </c>
-      <c r="E9">
-        <v>2</v>
+      <c r="E9" t="s">
+        <v>110</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow2_1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow2_1</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="J9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="O9" s="6">
         <v>160</v>
       </c>
-      <c r="M9" s="6">
+      <c r="Q9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
+      <c r="R9" s="6">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="6">
+        <v>3</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -1552,50 +1707,51 @@
         <f t="shared" ref="D10:D29" si="5">B10&amp;"_"&amp;C10</f>
         <v>Tow2_2</v>
       </c>
-      <c r="E10">
-        <v>2</v>
+      <c r="E10" t="s">
+        <v>110</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow2_2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow2_2</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="6">
+      <c r="J10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="6">
         <v>2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="O10" s="6">
         <v>160</v>
       </c>
-      <c r="M10" s="6">
+      <c r="Q10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
+      <c r="R10" s="6">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="6">
+        <v>3</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -1604,46 +1760,47 @@
         <f t="shared" si="5"/>
         <v>Tow2_3</v>
       </c>
-      <c r="E11">
-        <v>2</v>
+      <c r="E11" t="s">
+        <v>110</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow2_3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow2_3</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="6">
-        <v>3</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="J11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="6">
+        <v>3</v>
+      </c>
+      <c r="O11" s="6">
         <v>160</v>
       </c>
-      <c r="M11" s="6">
+      <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
+      <c r="R11" s="6">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1652,50 +1809,51 @@
         <f t="shared" si="5"/>
         <v>Tow3_1</v>
       </c>
-      <c r="E12">
-        <v>3</v>
+      <c r="E12" t="s">
+        <v>110</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow3_1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow3_1</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="6">
         <v>1</v>
       </c>
-      <c r="L12" s="6">
+      <c r="O12" s="6">
         <v>80</v>
       </c>
-      <c r="M12" s="6">
+      <c r="Q12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
+      <c r="R12" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="6">
+        <v>3</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
@@ -1704,50 +1862,51 @@
         <f t="shared" si="5"/>
         <v>Tow3_2</v>
       </c>
-      <c r="E13">
-        <v>3</v>
+      <c r="E13" t="s">
+        <v>110</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow3_2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow3_2</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="J13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="6">
         <v>2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="O13" s="6">
         <v>80</v>
       </c>
-      <c r="M13" s="6">
+      <c r="Q13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="R13" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
@@ -1756,46 +1915,47 @@
         <f t="shared" si="5"/>
         <v>Tow3_3</v>
       </c>
-      <c r="E14">
-        <v>3</v>
+      <c r="E14" t="s">
+        <v>110</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow3_3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow3_3</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="6">
-        <v>3</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="J14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="6">
+        <v>3</v>
+      </c>
+      <c r="O14" s="6">
         <v>80</v>
       </c>
-      <c r="M14" s="6">
+      <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
+      <c r="R14" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1804,50 +1964,51 @@
         <f t="shared" si="5"/>
         <v>Tow4_1</v>
       </c>
-      <c r="E15">
-        <v>4</v>
+      <c r="E15" t="s">
+        <v>110</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow4_1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow4_1</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="6">
+      <c r="O15" s="6">
         <v>120</v>
       </c>
-      <c r="M15" s="6">
+      <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
+      <c r="R15" s="6">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -1856,50 +2017,51 @@
         <f t="shared" si="5"/>
         <v>Tow4_2</v>
       </c>
-      <c r="E16">
-        <v>4</v>
+      <c r="E16" t="s">
+        <v>110</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow4_2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow4_2</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="J16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="6">
         <v>2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="O16" s="6">
         <v>120</v>
       </c>
-      <c r="M16" s="6">
+      <c r="Q16" s="6">
         <v>0</v>
       </c>
-      <c r="N16" s="6">
+      <c r="R16" s="6">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="6">
+        <v>3</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -1908,46 +2070,47 @@
         <f t="shared" si="5"/>
         <v>Tow4_3</v>
       </c>
-      <c r="E17">
-        <v>4</v>
+      <c r="E17" t="s">
+        <v>110</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow4_3</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow4_3</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="6">
-        <v>3</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="J17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="6">
+        <v>3</v>
+      </c>
+      <c r="O17" s="6">
         <v>120</v>
       </c>
-      <c r="M17" s="6">
+      <c r="Q17" s="6">
         <v>0</v>
       </c>
-      <c r="N17" s="6">
+      <c r="R17" s="6">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -1956,50 +2119,51 @@
         <f t="shared" si="5"/>
         <v>Tow5_1</v>
       </c>
-      <c r="E18">
-        <v>5</v>
+      <c r="E18" t="s">
+        <v>110</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow5_1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow5_1</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="J18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="6">
         <v>1</v>
       </c>
-      <c r="L18" s="6">
+      <c r="O18" s="6">
         <v>200</v>
       </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O18" t="str">
+      <c r="S18" t="str">
         <f>D19</f>
         <v>Tow5_2</v>
       </c>
-      <c r="P18" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T18" s="6">
+        <v>3</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -2008,50 +2172,51 @@
         <f t="shared" si="5"/>
         <v>Tow5_2</v>
       </c>
-      <c r="E19">
-        <v>5</v>
+      <c r="E19" t="s">
+        <v>110</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow5_2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow5_2</v>
       </c>
-      <c r="J19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="J19" s="6"/>
+      <c r="M19" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="6">
         <v>2</v>
       </c>
-      <c r="L19" s="6">
+      <c r="O19" s="6">
         <v>200</v>
       </c>
-      <c r="M19" s="6">
-        <v>2</v>
-      </c>
-      <c r="N19" s="6">
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O19" t="str">
+      <c r="S19" t="str">
         <f>D20</f>
         <v>Tow5_3</v>
       </c>
-      <c r="P19" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T19" s="6">
+        <v>3</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6">
         <v>3</v>
@@ -2060,45 +2225,46 @@
         <f t="shared" si="5"/>
         <v>Tow5_3</v>
       </c>
-      <c r="E20">
-        <v>5</v>
+      <c r="E20" t="s">
+        <v>110</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow5_3</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow5_3</v>
       </c>
-      <c r="J20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="J20" s="6"/>
+      <c r="M20" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="6">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6">
         <v>200</v>
       </c>
-      <c r="M20" s="6">
-        <v>3</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="Q20" s="6">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -2107,50 +2273,51 @@
         <f t="shared" si="5"/>
         <v>Tow6_1</v>
       </c>
-      <c r="E21">
-        <v>6</v>
+      <c r="E21" t="s">
+        <v>110</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow6_1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow6_1</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="J21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="6">
+      <c r="O21" s="6">
         <v>250</v>
       </c>
-      <c r="M21" s="6">
-        <v>4</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="O21" t="str">
+      <c r="S21" t="str">
         <f>D22</f>
         <v>Tow6_2</v>
       </c>
-      <c r="P21" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T21" s="6">
+        <v>3</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
@@ -2159,50 +2326,51 @@
         <f t="shared" si="5"/>
         <v>Tow6_2</v>
       </c>
-      <c r="E22">
-        <v>6</v>
+      <c r="E22" t="s">
+        <v>110</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow6_2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow6_2</v>
       </c>
-      <c r="J22" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="J22" s="6"/>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="6">
         <v>2</v>
       </c>
-      <c r="L22" s="6">
+      <c r="O22" s="6">
         <v>250</v>
       </c>
-      <c r="M22" s="6">
-        <v>5</v>
-      </c>
-      <c r="N22" s="6">
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="O22" t="str">
+      <c r="S22" t="str">
         <f>D23</f>
         <v>Tow6_3</v>
       </c>
-      <c r="P22" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T22" s="6">
+        <v>3</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
@@ -2211,45 +2379,46 @@
         <f t="shared" si="5"/>
         <v>Tow6_3</v>
       </c>
-      <c r="E23">
-        <v>6</v>
+      <c r="E23" t="s">
+        <v>110</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow6_3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow6_3</v>
       </c>
-      <c r="J23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="6">
-        <v>3</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="J23" s="6"/>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="6">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6">
         <v>250</v>
       </c>
-      <c r="M23" s="6">
-        <v>6</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -2258,50 +2427,51 @@
         <f t="shared" si="5"/>
         <v>Tow7_1</v>
       </c>
-      <c r="E24">
-        <v>7</v>
+      <c r="E24" t="s">
+        <v>110</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow7_1</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow7_1</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="J24" s="10"/>
+      <c r="M24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="6">
+      <c r="O24" s="6">
         <v>200</v>
       </c>
-      <c r="M24" s="6">
-        <v>7</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O24" t="str">
+      <c r="S24" t="str">
         <f>D25</f>
         <v>Tow7_2</v>
       </c>
-      <c r="P24" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T24" s="6">
+        <v>3</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
@@ -2310,50 +2480,51 @@
         <f t="shared" si="5"/>
         <v>Tow7_2</v>
       </c>
-      <c r="E25">
-        <v>7</v>
+      <c r="E25" t="s">
+        <v>110</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow7_2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow7_2</v>
       </c>
-      <c r="J25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="J25" s="10"/>
+      <c r="M25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="6">
         <v>2</v>
       </c>
-      <c r="L25" s="6">
+      <c r="O25" s="6">
         <v>200</v>
       </c>
-      <c r="M25" s="6">
-        <v>8</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O25" t="str">
+      <c r="S25" t="str">
         <f>D26</f>
         <v>Tow7_3</v>
       </c>
-      <c r="P25" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T25" s="6">
+        <v>3</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
@@ -2362,45 +2533,46 @@
         <f t="shared" si="5"/>
         <v>Tow7_3</v>
       </c>
-      <c r="E26">
-        <v>7</v>
+      <c r="E26" t="s">
+        <v>110</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow7_3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow7_3</v>
       </c>
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="6">
-        <v>3</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="J26" s="10"/>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="6">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6">
         <v>200</v>
       </c>
-      <c r="M26" s="6">
-        <v>9</v>
-      </c>
-      <c r="N26" s="6">
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -2409,50 +2581,51 @@
         <f t="shared" si="5"/>
         <v>Tow8_1</v>
       </c>
-      <c r="E27">
-        <v>8</v>
+      <c r="E27" t="s">
+        <v>110</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow8_1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H27" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow8_1</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="J27" s="10"/>
+      <c r="M27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="6">
+      <c r="O27" s="6">
         <v>200</v>
       </c>
-      <c r="M27" s="6">
-        <v>10</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O27" t="str">
+      <c r="S27" t="str">
         <f>D28</f>
         <v>Tow8_2</v>
       </c>
-      <c r="P27" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T27" s="6">
+        <v>3</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -2461,50 +2634,51 @@
         <f t="shared" si="5"/>
         <v>Tow8_2</v>
       </c>
-      <c r="E28">
-        <v>8</v>
+      <c r="E28" t="s">
+        <v>110</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow8_2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H28" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow8_2</v>
       </c>
-      <c r="J28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="J28" s="10"/>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="6">
         <v>2</v>
       </c>
-      <c r="L28" s="6">
+      <c r="O28" s="6">
         <v>200</v>
       </c>
-      <c r="M28" s="6">
-        <v>11</v>
-      </c>
-      <c r="N28" s="6">
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O28" t="str">
+      <c r="S28" t="str">
         <f>D29</f>
         <v>Tow8_3</v>
       </c>
-      <c r="P28" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T28" s="6">
+        <v>3</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
@@ -2513,40 +2687,122 @@
         <f t="shared" si="5"/>
         <v>Tow8_3</v>
       </c>
-      <c r="E29">
-        <v>8</v>
+      <c r="E29" t="s">
+        <v>110</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
         <v>Text_Key_Name_Tow8_3</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="shared" si="3"/>
         <v>Text_Key_Desc_Tow8_3</v>
       </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="J29" s="10"/>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="6">
+        <v>3</v>
+      </c>
+      <c r="O29" s="6">
         <v>200</v>
       </c>
-      <c r="M29" s="6">
-        <v>12</v>
-      </c>
-      <c r="N29" s="6">
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" si="6">B31&amp;"_"&amp;C31</f>
+        <v>TowCallMonster_1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" ref="F31" si="7">"Text_Key_Name_"&amp;D31</f>
+        <v>Text_Key_Name_TowCallMonster_1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="9" t="str">
+        <f t="shared" ref="H31" si="8">"Text_Key_Desc_"&amp;D31</f>
+        <v>Text_Key_Desc_TowCallMonster_1</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O31" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J32" s="10"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2561,7 +2817,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1" xr:uid="{0EDB4CC0-B190-4685-B145-793D0FF4CF0F}"/>
+    <hyperlink ref="U3" r:id="rId1" xr:uid="{0EDB4CC0-B190-4685-B145-793D0FF4CF0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A693A5-4AB7-4F27-A537-81B9345E12F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64B2027-3DFD-4413-BDC4-246B3BD07E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1455,26 +1455,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T84" sqref="T84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="49.21875" style="3" customWidth="1"/>
-    <col min="8" max="9" width="23.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" style="3" customWidth="1"/>
-    <col min="11" max="17" width="23.33203125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="9.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="49.25" style="3" customWidth="1"/>
+    <col min="8" max="9" width="23.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="29.375" style="3" customWidth="1"/>
+    <col min="11" max="17" width="23.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>222</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>222</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>222</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>223</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>223</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>223</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>224</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>224</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>224</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>225</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>225</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>225</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>226</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>226</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>226</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>227</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>227</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>227</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>228</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>228</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>228</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>229</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>229</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>229</v>
       </c>
@@ -2777,12 +2777,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C30" s="13"/>
       <c r="F30" s="14"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C36" s="13" t="s">
         <v>230</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C37" s="13" t="s">
         <v>230</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="13" t="s">
         <v>230</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="13" t="s">
         <v>231</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="13" t="s">
         <v>231</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="13" t="s">
         <v>231</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="13" t="s">
         <v>232</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="13" t="s">
         <v>232</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="13" t="s">
         <v>232</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="13" t="s">
         <v>233</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="13" t="s">
         <v>233</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="13" t="s">
         <v>233</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
         <v>234</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="13" t="s">
         <v>234</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="13" t="s">
         <v>234</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="13" t="s">
         <v>235</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="13" t="s">
         <v>235</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="13" t="s">
         <v>235</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="s">
         <v>236</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="13" t="s">
         <v>236</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="13" t="s">
         <v>236</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
         <v>237</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="s">
         <v>237</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
         <v>237</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
         <v>238</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
         <v>238</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="s">
         <v>238</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="s">
         <v>239</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="s">
         <v>239</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="s">
         <v>239</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="s">
         <v>240</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="s">
         <v>240</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="s">
         <v>240</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="s">
         <v>241</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="s">
         <v>241</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="s">
         <v>241</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C72" s="13" t="s">
         <v>242</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C73" s="13" t="s">
         <v>242</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C74" s="13" t="s">
         <v>242</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
         <v>243</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C76" s="13" t="s">
         <v>243</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
         <v>243</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C78" s="13" t="s">
         <v>244</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C79" s="13" t="s">
         <v>244</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C80" s="13" t="s">
         <v>244</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C81" s="13" t="s">
         <v>245</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C82" s="13" t="s">
         <v>245</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
         <v>245</v>
       </c>
@@ -4994,10 +4994,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>207</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>207</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>207</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>208</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>208</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>208</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>209</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>209</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>209</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>210</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>210</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>210</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>211</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>211</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>211</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>212</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>212</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>212</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>213</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>213</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>213</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>214</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>214</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>214</v>
       </c>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64B2027-3DFD-4413-BDC4-246B3BD07E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC5A2B6-FE0F-4B51-862A-589EF1D94E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="268">
   <si>
     <t>##var</t>
   </si>
@@ -760,9 +749,6 @@
     <t>灾厄塔</t>
   </si>
   <si>
-    <t>窃贼哥布林</t>
-  </si>
-  <si>
     <t>鱼刺塔</t>
   </si>
   <si>
@@ -793,14 +779,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Text_Key_TowerLabel_DOT;Text_Key_TowerLabel_Solo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Key_TowerLabel_GetCoins;Text_Key_TowerLabel_Solo</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Text_Key_TowerLabel_Line;Text_Key_TowerLabel_Aoe</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -823,6 +801,36 @@
   <si>
     <t>createActionIds</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>Text_Key_TowerLabel_DOT;Text_Key_TowerLabel_Solo</t>
+  </si>
+  <si>
+    <t>Text_Key_TowerLabel_GetCoins;Text_Key_TowerLabel_Solo</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+  </si>
+  <si>
+    <t>Tow25_1</t>
+  </si>
+  <si>
+    <t>Unit_TowerBomb1</t>
+  </si>
+  <si>
+    <t>Tow25_2</t>
+  </si>
+  <si>
+    <t>Unit_TowerBomb2</t>
+  </si>
+  <si>
+    <t>Tow25_3</t>
+  </si>
+  <si>
+    <t>Unit_TowerBomb3</t>
   </si>
 </sst>
 </file>
@@ -1453,23 +1461,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T108"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T84" sqref="T84"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33:T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="49.25" style="3" customWidth="1"/>
-    <col min="8" max="9" width="23.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="29.375" style="3" customWidth="1"/>
-    <col min="11" max="17" width="23.375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="49.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.25" style="3" customWidth="1"/>
+    <col min="11" max="16" width="4.5" style="3" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="3" customWidth="1"/>
     <col min="19" max="19" width="23.375" style="3" customWidth="1"/>
     <col min="20" max="20" width="20.125" style="3" customWidth="1"/>
   </cols>
@@ -1529,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1611,7 +1619,7 @@
         <v>25</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1693,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1981,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>219</v>
@@ -2028,7 +2036,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>220</v>
@@ -2075,7 +2083,7 @@
         <v>59</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>221</v>
@@ -2521,7 +2529,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>219</v>
@@ -2568,7 +2576,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>220</v>
@@ -2615,7 +2623,7 @@
         <v>59</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>221</v>
@@ -2656,7 +2664,7 @@
         <v>59</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>219</v>
@@ -2703,7 +2711,7 @@
         <v>59</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>220</v>
@@ -2750,7 +2758,7 @@
         <v>59</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>221</v>
@@ -2778,268 +2786,344 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="12"/>
+      <c r="B30" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>200</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R30" s="3">
+        <v>3</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>41</v>
+      <c r="B31" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="C31" s="3">
-        <v>999</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f>B31&amp;"_"&amp;C31</f>
-        <v>TowCallMonster_999</v>
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>600</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>480</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R31" s="3">
+        <v>3</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1440</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H31" s="3">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="J33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>250</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="S31" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f>B32&amp;"_"&amp;C32</f>
-        <v>TowCallMonster_1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="Q33" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R33" s="3">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>750</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R34" s="3">
+        <v>3</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2250</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H32" s="3">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="J36" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
         <v>50</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="3">
-        <v>250</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R36" s="3">
+        <v>3</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T36"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="str">
-        <f>B33&amp;"_"&amp;C33</f>
-        <v>TowCallMonster_2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="3">
-        <v>300</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3" t="str">
-        <f>B34&amp;"_"&amp;C34</f>
-        <v>TowCallMonster_3</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H34" s="3">
-        <v>5</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" s="3">
-        <v>400</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="str">
-        <f>B35&amp;"_"&amp;C35</f>
-        <v>TowCallMonster_4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <v>500</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C36" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="J36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
-        <v>170</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R36" s="3">
-        <v>3</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C37" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -3048,16 +3132,16 @@
         <v>2</v>
       </c>
       <c r="M37" s="3">
-        <v>510</v>
+        <v>150</v>
       </c>
       <c r="O37" s="3">
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="R37" s="3">
         <v>3</v>
@@ -3065,315 +3149,269 @@
       <c r="S37" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="13" t="s">
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>3</v>
+      </c>
+      <c r="M38" s="3">
+        <v>450</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>360</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T38"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3">
+        <v>999</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f>B40&amp;"_"&amp;C40</f>
+        <v>TowCallMonster_999</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" s="3">
+        <v>200</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f>B41&amp;"_"&amp;C41</f>
+        <v>TowCallMonster_1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="3">
+        <v>250</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f>B42&amp;"_"&amp;C42</f>
+        <v>TowCallMonster_2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="3">
+        <v>300</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3" t="str">
+        <f>B43&amp;"_"&amp;C43</f>
+        <v>TowCallMonster_3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f>B44&amp;"_"&amp;C44</f>
+        <v>TowCallMonster_4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
+      <c r="L44" s="10">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C45" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3">
-        <v>3</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1530</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>1530</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3">
-        <v>150</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>127</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R39" s="3">
-        <v>3</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2</v>
-      </c>
-      <c r="M40" s="3">
-        <v>450</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>382</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R40" s="3">
-        <v>3</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1350</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1147</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>150</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>127</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="R42" s="3">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2</v>
-      </c>
-      <c r="M43" s="3">
-        <v>450</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>382</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1350</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1147</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="H45" s="7"/>
       <c r="J45" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -3391,7 +3429,7 @@
         <v>170</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="R45" s="3">
         <v>3</v>
@@ -3400,24 +3438,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -3435,7 +3473,7 @@
         <v>510</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="R46" s="3">
         <v>3</v>
@@ -3444,24 +3482,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -3482,24 +3520,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>219</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
@@ -3508,16 +3546,16 @@
         <v>1</v>
       </c>
       <c r="M48" s="3">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="R48" s="3">
         <v>3</v>
@@ -3528,10 +3566,10 @@
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>59</v>
@@ -3543,7 +3581,7 @@
         <v>220</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K49" s="3">
         <v>1</v>
@@ -3552,16 +3590,16 @@
         <v>2</v>
       </c>
       <c r="M49" s="3">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R49" s="3">
         <v>3</v>
@@ -3572,10 +3610,10 @@
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>59</v>
@@ -3587,7 +3625,7 @@
         <v>221</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="K50" s="3">
         <v>1</v>
@@ -3596,13 +3634,13 @@
         <v>3</v>
       </c>
       <c r="M50" s="3">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="O50" s="3">
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <v>1530</v>
+        <v>1147</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>63</v>
@@ -3610,22 +3648,22 @@
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>219</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K51" s="3">
         <v>1</v>
@@ -3634,16 +3672,16 @@
         <v>1</v>
       </c>
       <c r="M51" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
       </c>
       <c r="P51" s="3">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="R51" s="3">
         <v>3</v>
@@ -3654,22 +3692,22 @@
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K52" s="3">
         <v>1</v>
@@ -3678,16 +3716,16 @@
         <v>2</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>765</v>
+        <v>510</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="R52" s="3">
         <v>3</v>
@@ -3698,22 +3736,22 @@
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K53" s="3">
         <v>1</v>
@@ -3722,13 +3760,13 @@
         <v>3</v>
       </c>
       <c r="M53" s="3">
-        <v>1800</v>
+        <v>1530</v>
       </c>
       <c r="O53" s="3">
         <v>0</v>
       </c>
       <c r="P53" s="3">
-        <v>2295</v>
+        <v>1530</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>63</v>
@@ -3736,22 +3774,22 @@
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>219</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K54" s="3">
         <v>1</v>
@@ -3769,7 +3807,7 @@
         <v>170</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="R54" s="3">
         <v>3</v>
@@ -3780,22 +3818,22 @@
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K55" s="3">
         <v>1</v>
@@ -3813,7 +3851,7 @@
         <v>510</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="R55" s="3">
         <v>3</v>
@@ -3824,22 +3862,22 @@
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>221</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K56" s="3">
         <v>1</v>
@@ -3862,10 +3900,10 @@
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>59</v>
@@ -3877,7 +3915,7 @@
         <v>219</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
@@ -3886,16 +3924,16 @@
         <v>1</v>
       </c>
       <c r="M57" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
@@ -3906,10 +3944,10 @@
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>59</v>
@@ -3921,7 +3959,7 @@
         <v>220</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="K58" s="3">
         <v>1</v>
@@ -3930,16 +3968,16 @@
         <v>2</v>
       </c>
       <c r="M58" s="3">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>510</v>
+        <v>765</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="R58" s="3">
         <v>3</v>
@@ -3950,10 +3988,10 @@
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>59</v>
@@ -3965,7 +4003,7 @@
         <v>221</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K59" s="3">
         <v>1</v>
@@ -3974,13 +4012,13 @@
         <v>3</v>
       </c>
       <c r="M59" s="3">
-        <v>1530</v>
+        <v>1800</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>1530</v>
+        <v>2295</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>63</v>
@@ -3988,22 +4026,22 @@
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="F60" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>219</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
@@ -4012,16 +4050,16 @@
         <v>1</v>
       </c>
       <c r="M60" s="3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="R60" s="3">
         <v>3</v>
@@ -4032,22 +4070,22 @@
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" s="12" t="s">
+      <c r="F61" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K61" s="3">
         <v>1</v>
@@ -4056,16 +4094,16 @@
         <v>2</v>
       </c>
       <c r="M61" s="3">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="R61" s="3">
         <v>3</v>
@@ -4076,22 +4114,22 @@
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G62" s="12" t="s">
+      <c r="F62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K62" s="3">
         <v>1</v>
@@ -4100,13 +4138,13 @@
         <v>3</v>
       </c>
       <c r="M62" s="3">
-        <v>1350</v>
+        <v>1530</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>1147</v>
+        <v>1530</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>63</v>
@@ -4114,22 +4152,22 @@
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="F63" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>219</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K63" s="3">
         <v>1</v>
@@ -4138,16 +4176,16 @@
         <v>1</v>
       </c>
       <c r="M63" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O63" s="3">
         <v>0</v>
       </c>
       <c r="P63" s="3">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="R63" s="3">
         <v>3</v>
@@ -4158,22 +4196,22 @@
     </row>
     <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="F64" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K64" s="3">
         <v>1</v>
@@ -4182,16 +4220,16 @@
         <v>2</v>
       </c>
       <c r="M64" s="3">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="O64" s="3">
         <v>0</v>
       </c>
       <c r="P64" s="3">
-        <v>765</v>
+        <v>510</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="R64" s="3">
         <v>3</v>
@@ -4202,22 +4240,22 @@
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="K65" s="3">
         <v>1</v>
@@ -4226,13 +4264,13 @@
         <v>3</v>
       </c>
       <c r="M65" s="3">
-        <v>1800</v>
+        <v>1530</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
       </c>
       <c r="P65" s="3">
-        <v>2295</v>
+        <v>1530</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>63</v>
@@ -4240,22 +4278,22 @@
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>219</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K66" s="3">
         <v>1</v>
@@ -4264,16 +4302,16 @@
         <v>1</v>
       </c>
       <c r="M66" s="3">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
@@ -4284,22 +4322,22 @@
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K67" s="3">
         <v>1</v>
@@ -4308,16 +4346,16 @@
         <v>2</v>
       </c>
       <c r="M67" s="3">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="O67" s="3">
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="R67" s="3">
         <v>3</v>
@@ -4328,22 +4366,22 @@
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>221</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K68" s="3">
         <v>1</v>
@@ -4352,13 +4390,13 @@
         <v>3</v>
       </c>
       <c r="M68" s="3">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <v>1530</v>
+        <v>1147</v>
       </c>
       <c r="S68" s="3" t="s">
         <v>63</v>
@@ -4366,22 +4404,22 @@
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G69" s="11" t="s">
+      <c r="F69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>219</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
@@ -4390,16 +4428,16 @@
         <v>1</v>
       </c>
       <c r="M69" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O69" s="3">
         <v>0</v>
       </c>
       <c r="P69" s="3">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="R69" s="3">
         <v>3</v>
@@ -4410,22 +4448,22 @@
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="11" t="s">
+      <c r="F70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K70" s="3">
         <v>1</v>
@@ -4434,16 +4472,16 @@
         <v>2</v>
       </c>
       <c r="M70" s="3">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>382</v>
+        <v>765</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="R70" s="3">
         <v>3</v>
@@ -4454,22 +4492,22 @@
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G71" s="11" t="s">
+      <c r="F71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K71" s="3">
         <v>1</v>
@@ -4478,13 +4516,13 @@
         <v>3</v>
       </c>
       <c r="M71" s="3">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="O71" s="3">
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <v>1147</v>
+        <v>2295</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>63</v>
@@ -4492,22 +4530,22 @@
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C72" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G72" s="11" t="s">
+      <c r="F72" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G72" s="12" t="s">
         <v>219</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K72" s="3">
         <v>1</v>
@@ -4516,16 +4554,16 @@
         <v>1</v>
       </c>
       <c r="M72" s="3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
       <c r="P72" s="3">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
@@ -4536,22 +4574,22 @@
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C73" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F73" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G73" s="11" t="s">
+      <c r="F73" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" s="12" t="s">
         <v>220</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="K73" s="3">
         <v>1</v>
@@ -4560,16 +4598,16 @@
         <v>2</v>
       </c>
       <c r="M73" s="3">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="O73" s="3">
         <v>0</v>
       </c>
       <c r="P73" s="3">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
@@ -4580,22 +4618,22 @@
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C74" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G74" s="11" t="s">
+      <c r="F74" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G74" s="12" t="s">
         <v>221</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="K74" s="3">
         <v>1</v>
@@ -4604,13 +4642,13 @@
         <v>3</v>
       </c>
       <c r="M74" s="3">
-        <v>1350</v>
+        <v>1530</v>
       </c>
       <c r="O74" s="3">
         <v>0</v>
       </c>
       <c r="P74" s="3">
-        <v>1147</v>
+        <v>1530</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>63</v>
@@ -4618,22 +4656,22 @@
     </row>
     <row r="75" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>219</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="K75" s="3">
         <v>1</v>
@@ -4651,7 +4689,7 @@
         <v>127</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="R75" s="3">
         <v>3</v>
@@ -4662,22 +4700,22 @@
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C76" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K76" s="3">
         <v>1</v>
@@ -4695,7 +4733,7 @@
         <v>382</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
@@ -4706,22 +4744,22 @@
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K77" s="3">
         <v>1</v>
@@ -4744,22 +4782,22 @@
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C78" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="F78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>219</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K78" s="3">
         <v>1</v>
@@ -4777,7 +4815,7 @@
         <v>127</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="R78" s="3">
         <v>3</v>
@@ -4788,22 +4826,22 @@
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C79" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="F79" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K79" s="3">
         <v>1</v>
@@ -4821,7 +4859,7 @@
         <v>382</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="R79" s="3">
         <v>3</v>
@@ -4832,22 +4870,22 @@
     </row>
     <row r="80" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C80" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K80" s="3">
         <v>1</v>
@@ -4870,22 +4908,22 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C81" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>219</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K81" s="3">
         <v>1</v>
@@ -4903,7 +4941,7 @@
         <v>127</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="R81" s="3">
         <v>3</v>
@@ -4914,22 +4952,22 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C82" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K82" s="3">
         <v>1</v>
@@ -4947,7 +4985,7 @@
         <v>382</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="R82" s="3">
         <v>3</v>
@@ -4958,22 +4996,22 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
@@ -4995,324 +5033,304 @@
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D84" s="11"/>
+      <c r="C84" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="M84" s="3">
+        <v>150</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>127</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="R84" s="3">
+        <v>3</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
+      <c r="L85" s="3">
+        <v>2</v>
+      </c>
+      <c r="M85" s="3">
+        <v>450</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>382</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R85" s="3">
+        <v>3</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C86" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" s="3">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3">
+        <v>3</v>
+      </c>
+      <c r="M86" s="3">
+        <v>1350</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>1147</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C85" s="3">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3" t="str">
-        <f t="shared" ref="D85:D108" si="0">B85&amp;"_"&amp;C85</f>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f t="shared" ref="D88:D111" si="0">B88&amp;"_"&amp;C88</f>
         <v>TestTow1_1</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="11" t="s">
+      <c r="E88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="G88" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="J85" s="3" t="str">
-        <f t="shared" ref="J85:J108" si="1">"Unit_"&amp;D85</f>
+      <c r="H88" s="7"/>
+      <c r="J88" s="3" t="str">
+        <f t="shared" ref="J88:J111" si="1">"Unit_"&amp;D88</f>
         <v>Unit_TestTow1_1</v>
       </c>
-      <c r="K85" s="3">
-        <v>1</v>
-      </c>
-      <c r="L85" s="3">
-        <v>1</v>
-      </c>
-      <c r="M85" s="3">
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3">
         <v>200</v>
       </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <f>INT(M85*0.7)</f>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <f>INT(M88*0.7)</f>
         <v>140</v>
       </c>
-      <c r="Q85" s="3" t="str">
-        <f>D86</f>
+      <c r="Q88" s="3" t="str">
+        <f>D89</f>
         <v>TestTow1_2</v>
       </c>
-      <c r="R85" s="3">
-        <v>3</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B86" s="3" t="s">
+      <c r="R88" s="3">
+        <v>3</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C89" s="3">
         <v>2</v>
       </c>
-      <c r="D86" s="3" t="str">
+      <c r="D89" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TestTow1_2</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86" s="11" t="s">
+      <c r="E89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G89" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J86" s="3" t="str">
+      <c r="J89" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Unit_TestTow1_2</v>
       </c>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
-      <c r="L86" s="3">
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3">
         <v>2</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <f>INT(P85*3)</f>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <f>INT(P88*3)</f>
         <v>420</v>
       </c>
-      <c r="Q86" s="3" t="str">
-        <f>D87</f>
+      <c r="Q89" s="3" t="str">
+        <f>D90</f>
         <v>TestTow1_3</v>
       </c>
-      <c r="R86" s="3">
-        <v>3</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
+      <c r="R89" s="3">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C87" s="3">
-        <v>3</v>
-      </c>
-      <c r="D87" s="3" t="str">
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TestTow1_3</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87" s="11" t="s">
+      <c r="E90" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G90" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="J87" s="3" t="str">
+      <c r="J90" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Unit_TestTow1_3</v>
       </c>
-      <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3">
-        <v>3</v>
-      </c>
-      <c r="M87" s="3">
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="L90" s="3">
+        <v>3</v>
+      </c>
+      <c r="M90" s="3">
         <v>200</v>
       </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <f>INT(P86*3)</f>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <f>INT(P89*3)</f>
         <v>1260</v>
       </c>
-      <c r="S87" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
+      <c r="S90" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="3">
-        <v>1</v>
-      </c>
-      <c r="D88" s="3" t="str">
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TestTow2_1</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="J88" s="3" t="str">
+      <c r="J91" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Unit_TestTow2_1</v>
-      </c>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
-      <c r="M88" s="3">
-        <v>180</v>
-      </c>
-      <c r="O88" s="3">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3">
-        <f>INT(M88*0.7)</f>
-        <v>126</v>
-      </c>
-      <c r="Q88" s="3" t="str">
-        <f>D89</f>
-        <v>TestTow2_2</v>
-      </c>
-      <c r="R88" s="3">
-        <v>3</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="3">
-        <v>2</v>
-      </c>
-      <c r="D89" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_2</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J89" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_2</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="L89" s="3">
-        <v>2</v>
-      </c>
-      <c r="M89" s="3">
-        <v>180</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <f>INT(P88*3)</f>
-        <v>378</v>
-      </c>
-      <c r="Q89" s="3" t="str">
-        <f>D90</f>
-        <v>TestTow2_3</v>
-      </c>
-      <c r="R89" s="3">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="3">
-        <v>3</v>
-      </c>
-      <c r="D90" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_3</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_3</v>
-      </c>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
-      <c r="L90" s="3">
-        <v>3</v>
-      </c>
-      <c r="M90" s="3">
-        <v>180</v>
-      </c>
-      <c r="O90" s="3">
-        <v>0</v>
-      </c>
-      <c r="P90" s="3">
-        <f>INT(P89*3)</f>
-        <v>1134</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow3_1</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J91" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow3_1</v>
       </c>
       <c r="K91" s="3">
         <v>1</v>
@@ -5332,7 +5350,7 @@
       </c>
       <c r="Q91" s="3" t="str">
         <f>D92</f>
-        <v>TestTow3_2</v>
+        <v>TestTow2_2</v>
       </c>
       <c r="R91" s="3">
         <v>3</v>
@@ -5343,27 +5361,27 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow3_2</v>
+        <v>TestTow2_2</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G92" s="11" t="s">
+      <c r="F92" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow3_2</v>
+        <v>Unit_TestTow2_2</v>
       </c>
       <c r="K92" s="3">
         <v>1</v>
@@ -5383,7 +5401,7 @@
       </c>
       <c r="Q92" s="3" t="str">
         <f>D93</f>
-        <v>TestTow3_3</v>
+        <v>TestTow2_3</v>
       </c>
       <c r="R92" s="3">
         <v>3</v>
@@ -5394,27 +5412,27 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" s="3">
         <v>3</v>
       </c>
       <c r="D93" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow3_3</v>
+        <v>TestTow2_3</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G93" s="11" t="s">
+      <c r="F93" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow3_3</v>
+        <v>Unit_TestTow2_3</v>
       </c>
       <c r="K93" s="3">
         <v>1</v>
@@ -5438,27 +5456,27 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow4_1</v>
+        <v>TestTow3_1</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="F94" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>219</v>
       </c>
       <c r="J94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow4_1</v>
+        <v>Unit_TestTow3_1</v>
       </c>
       <c r="K94" s="3">
         <v>1</v>
@@ -5478,7 +5496,7 @@
       </c>
       <c r="Q94" s="3" t="str">
         <f>D95</f>
-        <v>TestTow4_2</v>
+        <v>TestTow3_2</v>
       </c>
       <c r="R94" s="3">
         <v>3</v>
@@ -5489,27 +5507,27 @@
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C95" s="3">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow4_2</v>
+        <v>TestTow3_2</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="F95" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow4_2</v>
+        <v>Unit_TestTow3_2</v>
       </c>
       <c r="K95" s="3">
         <v>1</v>
@@ -5529,7 +5547,7 @@
       </c>
       <c r="Q95" s="3" t="str">
         <f>D96</f>
-        <v>TestTow4_3</v>
+        <v>TestTow3_3</v>
       </c>
       <c r="R95" s="3">
         <v>3</v>
@@ -5540,27 +5558,27 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
       </c>
       <c r="D96" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow4_3</v>
+        <v>TestTow3_3</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="F96" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G96" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow4_3</v>
+        <v>Unit_TestTow3_3</v>
       </c>
       <c r="K96" s="3">
         <v>1</v>
@@ -5584,27 +5602,27 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow5_1</v>
+        <v>TestTow4_1</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="11" t="s">
+      <c r="F97" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>219</v>
       </c>
       <c r="J97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow5_1</v>
+        <v>Unit_TestTow4_1</v>
       </c>
       <c r="K97" s="3">
         <v>1</v>
@@ -5613,18 +5631,18 @@
         <v>1</v>
       </c>
       <c r="M97" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
       </c>
       <c r="P97" s="3">
         <f>INT(M97*0.7)</f>
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q97" s="3" t="str">
         <f>D98</f>
-        <v>TestTow5_2</v>
+        <v>TestTow4_2</v>
       </c>
       <c r="R97" s="3">
         <v>3</v>
@@ -5635,27 +5653,27 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="3">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow5_2</v>
+        <v>TestTow4_2</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G98" s="11" t="s">
+      <c r="F98" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow5_2</v>
+        <v>Unit_TestTow4_2</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -5664,18 +5682,18 @@
         <v>2</v>
       </c>
       <c r="M98" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
       </c>
       <c r="P98" s="3">
         <f>INT(P97*3)</f>
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="Q98" s="3" t="str">
         <f>D99</f>
-        <v>TestTow5_3</v>
+        <v>TestTow4_3</v>
       </c>
       <c r="R98" s="3">
         <v>3</v>
@@ -5686,27 +5704,27 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
       </c>
       <c r="D99" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow5_3</v>
+        <v>TestTow4_3</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G99" s="11" t="s">
+      <c r="F99" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>221</v>
       </c>
       <c r="J99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow5_3</v>
+        <v>Unit_TestTow4_3</v>
       </c>
       <c r="K99" s="3">
         <v>1</v>
@@ -5715,14 +5733,14 @@
         <v>3</v>
       </c>
       <c r="M99" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O99" s="3">
         <v>0</v>
       </c>
       <c r="P99" s="3">
         <f>INT(P98*3)</f>
-        <v>1260</v>
+        <v>1134</v>
       </c>
       <c r="S99" s="3" t="s">
         <v>63</v>
@@ -5730,14 +5748,14 @@
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow6_1</v>
+        <v>TestTow5_1</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>59</v>
@@ -5750,7 +5768,7 @@
       </c>
       <c r="J100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow6_1</v>
+        <v>Unit_TestTow5_1</v>
       </c>
       <c r="K100" s="3">
         <v>1</v>
@@ -5759,18 +5777,18 @@
         <v>1</v>
       </c>
       <c r="M100" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <f>INT(M100*0.7)</f>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="Q100" s="3" t="str">
         <f>D101</f>
-        <v>TestTow6_2</v>
+        <v>TestTow5_2</v>
       </c>
       <c r="R100" s="3">
         <v>3</v>
@@ -5781,14 +5799,14 @@
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C101" s="3">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow6_2</v>
+        <v>TestTow5_2</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>59</v>
@@ -5801,7 +5819,7 @@
       </c>
       <c r="J101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow6_2</v>
+        <v>Unit_TestTow5_2</v>
       </c>
       <c r="K101" s="3">
         <v>1</v>
@@ -5810,18 +5828,18 @@
         <v>2</v>
       </c>
       <c r="M101" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
         <f>INT(P100*3)</f>
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="Q101" s="3" t="str">
         <f>D102</f>
-        <v>TestTow6_3</v>
+        <v>TestTow5_3</v>
       </c>
       <c r="R101" s="3">
         <v>3</v>
@@ -5832,14 +5850,14 @@
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C102" s="3">
         <v>3</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow6_3</v>
+        <v>TestTow5_3</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>59</v>
@@ -5852,7 +5870,7 @@
       </c>
       <c r="J102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow6_3</v>
+        <v>Unit_TestTow5_3</v>
       </c>
       <c r="K102" s="3">
         <v>1</v>
@@ -5861,14 +5879,14 @@
         <v>3</v>
       </c>
       <c r="M102" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
         <f>INT(P101*3)</f>
-        <v>1575</v>
+        <v>1260</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>63</v>
@@ -5876,27 +5894,27 @@
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow7_1</v>
+        <v>TestTow6_1</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>219</v>
       </c>
       <c r="J103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow7_1</v>
+        <v>Unit_TestTow6_1</v>
       </c>
       <c r="K103" s="3">
         <v>1</v>
@@ -5905,18 +5923,18 @@
         <v>1</v>
       </c>
       <c r="M103" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O103" s="3">
         <v>0</v>
       </c>
       <c r="P103" s="3">
         <f>INT(M103*0.7)</f>
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="Q103" s="3" t="str">
         <f>D104</f>
-        <v>TestTow7_2</v>
+        <v>TestTow6_2</v>
       </c>
       <c r="R103" s="3">
         <v>3</v>
@@ -5927,27 +5945,27 @@
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow7_2</v>
+        <v>TestTow6_2</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow7_2</v>
+        <v>Unit_TestTow6_2</v>
       </c>
       <c r="K104" s="3">
         <v>1</v>
@@ -5956,18 +5974,18 @@
         <v>2</v>
       </c>
       <c r="M104" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O104" s="3">
         <v>0</v>
       </c>
       <c r="P104" s="3">
         <f>INT(P103*3)</f>
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="Q104" s="3" t="str">
         <f>D105</f>
-        <v>TestTow7_3</v>
+        <v>TestTow6_3</v>
       </c>
       <c r="R104" s="3">
         <v>3</v>
@@ -5978,27 +5996,27 @@
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C105" s="3">
         <v>3</v>
       </c>
       <c r="D105" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow7_3</v>
+        <v>TestTow6_3</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow7_3</v>
+        <v>Unit_TestTow6_3</v>
       </c>
       <c r="K105" s="3">
         <v>1</v>
@@ -6007,14 +6025,14 @@
         <v>3</v>
       </c>
       <c r="M105" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O105" s="3">
         <v>0</v>
       </c>
       <c r="P105" s="3">
         <f>INT(P104*3)</f>
-        <v>1260</v>
+        <v>1575</v>
       </c>
       <c r="S105" s="3" t="s">
         <v>63</v>
@@ -6022,27 +6040,27 @@
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow8_1</v>
+        <v>TestTow7_1</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G106" s="12" t="s">
+      <c r="F106" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>219</v>
       </c>
       <c r="J106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow8_1</v>
+        <v>Unit_TestTow7_1</v>
       </c>
       <c r="K106" s="3">
         <v>1</v>
@@ -6062,7 +6080,7 @@
       </c>
       <c r="Q106" s="3" t="str">
         <f>D107</f>
-        <v>TestTow8_2</v>
+        <v>TestTow7_2</v>
       </c>
       <c r="R106" s="3">
         <v>3</v>
@@ -6073,27 +6091,27 @@
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C107" s="3">
         <v>2</v>
       </c>
       <c r="D107" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow8_2</v>
+        <v>TestTow7_2</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" s="12" t="s">
+      <c r="F107" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G107" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow8_2</v>
+        <v>Unit_TestTow7_2</v>
       </c>
       <c r="K107" s="3">
         <v>1</v>
@@ -6113,7 +6131,7 @@
       </c>
       <c r="Q107" s="3" t="str">
         <f>D108</f>
-        <v>TestTow8_3</v>
+        <v>TestTow7_3</v>
       </c>
       <c r="R107" s="3">
         <v>3</v>
@@ -6124,27 +6142,27 @@
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
       </c>
       <c r="D108" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow8_3</v>
+        <v>TestTow7_3</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F108" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G108" s="12" t="s">
+      <c r="F108" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>221</v>
       </c>
       <c r="J108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow8_3</v>
+        <v>Unit_TestTow7_3</v>
       </c>
       <c r="K108" s="3">
         <v>1</v>
@@ -6163,6 +6181,152 @@
         <v>1260</v>
       </c>
       <c r="S108" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TestTow8_1</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_TestTow8_1</v>
+      </c>
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
+      <c r="L109" s="3">
+        <v>1</v>
+      </c>
+      <c r="M109" s="3">
+        <v>200</v>
+      </c>
+      <c r="O109" s="3">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3">
+        <f>INT(M109*0.7)</f>
+        <v>140</v>
+      </c>
+      <c r="Q109" s="3" t="str">
+        <f>D110</f>
+        <v>TestTow8_2</v>
+      </c>
+      <c r="R109" s="3">
+        <v>3</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TestTow8_2</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_TestTow8_2</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1</v>
+      </c>
+      <c r="L110" s="3">
+        <v>2</v>
+      </c>
+      <c r="M110" s="3">
+        <v>200</v>
+      </c>
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
+        <f>INT(P109*3)</f>
+        <v>420</v>
+      </c>
+      <c r="Q110" s="3" t="str">
+        <f>D111</f>
+        <v>TestTow8_3</v>
+      </c>
+      <c r="R110" s="3">
+        <v>3</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TestTow8_3</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_TestTow8_3</v>
+      </c>
+      <c r="K111" s="3">
+        <v>1</v>
+      </c>
+      <c r="L111" s="3">
+        <v>3</v>
+      </c>
+      <c r="M111" s="3">
+        <v>200</v>
+      </c>
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
+        <f>INT(P110*3)</f>
+        <v>1260</v>
+      </c>
+      <c r="S111" s="3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC5A2B6-FE0F-4B51-862A-589EF1D94E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3657D6-45BB-4805-A76B-FAB66DE204BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="278">
   <si>
     <t>##var</t>
   </si>
@@ -73,9 +73,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>PlayerTowerType</t>
-  </si>
-  <si>
     <t>(list#sep=;),string</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>TowCallMonster</t>
   </si>
   <si>
-    <t>CallMonster</t>
-  </si>
-  <si>
     <t>0,0,0;2,0,0;0,0,2;</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
   </si>
   <si>
     <t>Tow1_1</t>
-  </si>
-  <si>
-    <t>Tower</t>
   </si>
   <si>
     <t>Text_Key_TowerLabel_Solo</t>
@@ -737,9 +728,6 @@
     <t>电磁塔</t>
   </si>
   <si>
-    <t>暴击图腾</t>
-  </si>
-  <si>
     <t>奥术精灵</t>
   </si>
   <si>
@@ -831,6 +819,65 @@
   </si>
   <si>
     <t>Unit_TowerBomb3</t>
+  </si>
+  <si>
+    <t>TowerType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow26_1</t>
+  </si>
+  <si>
+    <t>Tow26_2</t>
+  </si>
+  <si>
+    <t>Tow26_3</t>
+  </si>
+  <si>
+    <t>水晶</t>
+  </si>
+  <si>
+    <t>Unit_TowerGolem3</t>
+  </si>
+  <si>
+    <t>Unit_TowerGolem2</t>
+  </si>
+  <si>
+    <t>Unit_TowerGolem1</t>
+  </si>
+  <si>
+    <t>魔像</t>
+  </si>
+  <si>
+    <t>Text_Key_TowerLabel_Solo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Text_Key_TowerLabel_Aoe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;Text_Key_TowerLabel_Solo</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Key_TowerLabel_Aoe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1461,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33:T39"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1475,8 +1522,12 @@
     <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="49.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.25" style="3" customWidth="1"/>
-    <col min="11" max="16" width="4.5" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="4.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="4.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="3" customWidth="1"/>
     <col min="17" max="18" width="10.875" style="3" customWidth="1"/>
     <col min="19" max="19" width="23.375" style="3" customWidth="1"/>
     <col min="20" max="20" width="20.125" style="3" customWidth="1"/>
@@ -1498,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1537,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1571,60 +1622,60 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="P3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="T3" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1648,84 +1699,84 @@
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7"/>
       <c r="J6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -1743,36 +1794,36 @@
         <v>120</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R6" s="3">
         <v>3</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -1790,36 +1841,36 @@
         <v>360</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R7" s="3">
         <v>3</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="13">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -1837,30 +1888,30 @@
         <v>1080</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -1878,36 +1929,36 @@
         <v>120</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R9" s="3">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C10" s="13">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -1925,36 +1976,36 @@
         <v>360</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R10" s="3">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -1972,30 +2023,30 @@
         <v>1080</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -2013,36 +2064,36 @@
         <v>160</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R12" s="3">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -2060,36 +2111,36 @@
         <v>480</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R13" s="3">
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C14" s="13">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -2107,30 +2158,30 @@
         <v>1440</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -2148,36 +2199,36 @@
         <v>160</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R15" s="3">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -2195,36 +2246,36 @@
         <v>480</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R16" s="3">
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -2242,30 +2293,30 @@
         <v>1440</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -2283,36 +2334,36 @@
         <v>160</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R18" s="3">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C19" s="13">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -2330,36 +2381,36 @@
         <v>480</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R19" s="3">
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -2377,30 +2428,30 @@
         <v>1440</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -2418,36 +2469,36 @@
         <v>160</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R21" s="3">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="13">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -2465,36 +2516,36 @@
         <v>480</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R22" s="3">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -2512,30 +2563,30 @@
         <v>1440</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2553,36 +2604,36 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R24" s="3">
         <v>3</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="13">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -2600,36 +2651,36 @@
         <v>600</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R25" s="3">
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C26" s="13">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -2647,30 +2698,30 @@
         <v>1800</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -2688,36 +2739,36 @@
         <v>200</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R27" s="3">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C28" s="13">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -2735,36 +2786,36 @@
         <v>600</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R28" s="3">
         <v>3</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="13">
         <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -2782,30 +2833,30 @@
         <v>1800</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -2823,36 +2874,36 @@
         <v>160</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R30" s="3">
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -2870,36 +2921,36 @@
         <v>480</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R31" s="3">
         <v>3</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -2917,30 +2968,30 @@
         <v>1440</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -2958,36 +3009,36 @@
         <v>200</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R33" s="3">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -3005,36 +3056,36 @@
         <v>600</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="R34" s="3">
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -3052,30 +3103,30 @@
         <v>1800</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -3093,37 +3144,37 @@
         <v>40</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="R36" s="3">
         <v>3</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T36"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -3141,37 +3192,37 @@
         <v>120</v>
       </c>
       <c r="Q37" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="R37" s="3">
+        <v>3</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T37"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="R37" s="3">
-        <v>3</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T37"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F38" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -3189,229 +3240,328 @@
         <v>360</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T38"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
-        <v>41</v>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>150</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R39" s="3">
+        <v>3</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="B40" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="C40" s="3">
-        <v>999</v>
-      </c>
-      <c r="D40" s="3" t="str">
-        <f>B40&amp;"_"&amp;C40</f>
-        <v>TowCallMonster_999</v>
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H40" s="3">
-        <v>5</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>46</v>
+        <v>111</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2</v>
       </c>
       <c r="M40" s="3">
+        <v>450</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>360</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R40" s="3">
+        <v>3</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1350</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1080</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T41"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="S40" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="str">
-        <f>B41&amp;"_"&amp;C41</f>
-        <v>TowCallMonster_1</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="3">
-        <v>250</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>160</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R42" s="3">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T42"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="B43" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="3">
         <v>2</v>
       </c>
-      <c r="D42" s="3" t="str">
-        <f>B42&amp;"_"&amp;C42</f>
-        <v>TowCallMonster_2</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" s="3">
-        <v>300</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" s="3" t="str">
-        <f>B43&amp;"_"&amp;C43</f>
-        <v>TowCallMonster_3</v>
+      <c r="D43" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>480</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="T43"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="B44" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="C44" s="3">
-        <v>4</v>
-      </c>
-      <c r="D44" s="3" t="str">
-        <f>B44&amp;"_"&amp;C44</f>
-        <v>TowCallMonster_4</v>
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
       <c r="J44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="10">
-        <v>1</v>
-      </c>
-      <c r="L44" s="10">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
-        <v>500</v>
+        <v>1800</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1440</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C45" s="13" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="T44"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="B45" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H45" s="7"/>
+        <v>265</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
       <c r="J45" s="3" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -3420,42 +3570,49 @@
         <v>1</v>
       </c>
       <c r="M45" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="R45" s="3">
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C46" s="13" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="T45"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
       <c r="J46" s="3" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -3464,42 +3621,49 @@
         <v>2</v>
       </c>
       <c r="M46" s="3">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="R46" s="3">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C47" s="13" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="T46"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>221</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47"/>
       <c r="J47" s="3" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -3508,36 +3672,43 @@
         <v>3</v>
       </c>
       <c r="M47" s="3">
-        <v>1530</v>
+        <v>1800</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>1530</v>
+        <v>1440</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C48" s="13" t="s">
-        <v>231</v>
+        <v>60</v>
+      </c>
+      <c r="T47"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="B48" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>219</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48"/>
       <c r="J48" s="3" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
@@ -3546,42 +3717,49 @@
         <v>1</v>
       </c>
       <c r="M48" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="R48" s="3">
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C49" s="13" t="s">
-        <v>231</v>
+        <v>60</v>
+      </c>
+      <c r="T48"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>220</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49"/>
       <c r="J49" s="3" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="K49" s="3">
         <v>1</v>
@@ -3590,42 +3768,49 @@
         <v>2</v>
       </c>
       <c r="M49" s="3">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>382</v>
+        <v>600</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="R49" s="3">
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C50" s="13" t="s">
-        <v>231</v>
+        <v>60</v>
+      </c>
+      <c r="T49"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="B50" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>221</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
       <c r="J50" s="3" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="K50" s="3">
         <v>1</v>
@@ -3634,288 +3819,237 @@
         <v>3</v>
       </c>
       <c r="M50" s="3">
-        <v>1350</v>
+        <v>2250</v>
       </c>
       <c r="O50" s="3">
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <v>1147</v>
+        <v>1800</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C51" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T50"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3">
+        <v>999</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f>B52&amp;"_"&amp;C52</f>
+        <v>TowCallMonster_999</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f>B53&amp;"_"&amp;C53</f>
+        <v>TowCallMonster_1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="3">
         <v>250</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3">
-        <v>170</v>
-      </c>
-      <c r="O51" s="3">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R51" s="3">
-        <v>3</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C52" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="S53" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="3">
         <v>2</v>
       </c>
-      <c r="M52" s="3">
-        <v>510</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>510</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="R52" s="3">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C53" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3">
-        <v>3</v>
-      </c>
-      <c r="M53" s="3">
-        <v>1530</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <v>1530</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C54" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>135</v>
+      <c r="D54" s="3" t="str">
+        <f>B54&amp;"_"&amp;C54</f>
+        <v>TowCallMonster_2</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="M54" s="3">
-        <v>170</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>170</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R54" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C55" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>137</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f>B55&amp;"_"&amp;C55</f>
+        <v>TowCallMonster_3</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="3">
+        <v>5</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="M55" s="3">
-        <v>510</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
-        <v>510</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R55" s="3">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C56" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>139</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="3">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f>B56&amp;"_"&amp;C56</f>
+        <v>TowCallMonster_4</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="3">
+        <v>5</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="K56" s="10">
+        <v>1</v>
+      </c>
+      <c r="L56" s="10">
+        <v>1</v>
       </c>
       <c r="M56" s="3">
-        <v>1530</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
-        <v>1530</v>
+        <v>500</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
@@ -3924,42 +4058,42 @@
         <v>1</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="K58" s="3">
         <v>1</v>
@@ -3968,42 +4102,42 @@
         <v>2</v>
       </c>
       <c r="M58" s="3">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>765</v>
+        <v>382</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="R58" s="3">
         <v>3</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="K59" s="3">
         <v>1</v>
@@ -4012,36 +4146,36 @@
         <v>3</v>
       </c>
       <c r="M59" s="3">
-        <v>1800</v>
+        <v>1350</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>2295</v>
+        <v>1147</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
@@ -4059,33 +4193,33 @@
         <v>170</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="R60" s="3">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K61" s="3">
         <v>1</v>
@@ -4103,33 +4237,33 @@
         <v>510</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="R61" s="3">
         <v>3</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="K62" s="3">
         <v>1</v>
@@ -4147,27 +4281,27 @@
         <v>1530</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="K63" s="3">
         <v>1</v>
@@ -4185,33 +4319,33 @@
         <v>170</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="R63" s="3">
         <v>3</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="K64" s="3">
         <v>1</v>
@@ -4229,33 +4363,33 @@
         <v>510</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="R64" s="3">
         <v>3</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K65" s="3">
         <v>1</v>
@@ -4273,27 +4407,27 @@
         <v>1530</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K66" s="3">
         <v>1</v>
@@ -4302,42 +4436,42 @@
         <v>1</v>
       </c>
       <c r="M66" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K67" s="3">
         <v>1</v>
@@ -4346,42 +4480,42 @@
         <v>2</v>
       </c>
       <c r="M67" s="3">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="O67" s="3">
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <v>382</v>
+        <v>765</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="R67" s="3">
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K68" s="3">
         <v>1</v>
@@ -4390,36 +4524,36 @@
         <v>3</v>
       </c>
       <c r="M68" s="3">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <v>1147</v>
+        <v>2295</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
@@ -4428,42 +4562,42 @@
         <v>1</v>
       </c>
       <c r="M69" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O69" s="3">
         <v>0</v>
       </c>
       <c r="P69" s="3">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="R69" s="3">
         <v>3</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="K70" s="3">
         <v>1</v>
@@ -4472,42 +4606,42 @@
         <v>2</v>
       </c>
       <c r="M70" s="3">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>765</v>
+        <v>510</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="R70" s="3">
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K71" s="3">
         <v>1</v>
@@ -4516,36 +4650,36 @@
         <v>3</v>
       </c>
       <c r="M71" s="3">
-        <v>1800</v>
+        <v>1530</v>
       </c>
       <c r="O71" s="3">
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <v>2295</v>
+        <v>1530</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C72" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K72" s="3">
         <v>1</v>
@@ -4563,33 +4697,33 @@
         <v>170</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C73" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K73" s="3">
         <v>1</v>
@@ -4607,33 +4741,33 @@
         <v>510</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C74" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="K74" s="3">
         <v>1</v>
@@ -4651,27 +4785,27 @@
         <v>1530</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="K75" s="3">
         <v>1</v>
@@ -4680,42 +4814,42 @@
         <v>1</v>
       </c>
       <c r="M75" s="3">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O75" s="3">
         <v>0</v>
       </c>
       <c r="P75" s="3">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="R75" s="3">
         <v>3</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C76" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K76" s="3">
         <v>1</v>
@@ -4724,42 +4858,42 @@
         <v>2</v>
       </c>
       <c r="M76" s="3">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>382</v>
+        <v>765</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K77" s="3">
         <v>1</v>
@@ -4768,36 +4902,36 @@
         <v>3</v>
       </c>
       <c r="M77" s="3">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="O77" s="3">
         <v>0</v>
       </c>
       <c r="P77" s="3">
-        <v>1147</v>
+        <v>2295</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C78" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K78" s="3">
         <v>1</v>
@@ -4806,42 +4940,42 @@
         <v>1</v>
       </c>
       <c r="M78" s="3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O78" s="3">
         <v>0</v>
       </c>
       <c r="P78" s="3">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="R78" s="3">
         <v>3</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C79" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K79" s="3">
         <v>1</v>
@@ -4850,42 +4984,42 @@
         <v>2</v>
       </c>
       <c r="M79" s="3">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="O79" s="3">
         <v>0</v>
       </c>
       <c r="P79" s="3">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="R79" s="3">
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C80" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K80" s="3">
         <v>1</v>
@@ -4894,36 +5028,36 @@
         <v>3</v>
       </c>
       <c r="M80" s="3">
-        <v>1350</v>
+        <v>1530</v>
       </c>
       <c r="O80" s="3">
         <v>0</v>
       </c>
       <c r="P80" s="3">
-        <v>1147</v>
+        <v>1530</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C81" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>219</v>
+      <c r="G81" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K81" s="3">
         <v>1</v>
@@ -4941,33 +5075,33 @@
         <v>127</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="R81" s="3">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C82" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>220</v>
+      <c r="G82" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K82" s="3">
         <v>1</v>
@@ -4985,33 +5119,33 @@
         <v>382</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="R82" s="3">
         <v>3</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>221</v>
+      <c r="G83" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
@@ -5029,27 +5163,27 @@
         <v>1147</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C84" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>219</v>
+        <v>265</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="K84" s="3">
         <v>1</v>
@@ -5067,33 +5201,33 @@
         <v>127</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="R84" s="3">
         <v>3</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C85" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>220</v>
+        <v>265</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K85" s="3">
         <v>1</v>
@@ -5111,33 +5245,33 @@
         <v>382</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="R85" s="3">
         <v>3</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C86" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>221</v>
+        <v>265</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K86" s="3">
         <v>1</v>
@@ -5155,328 +5289,308 @@
         <v>1147</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D87" s="11"/>
+      <c r="C87" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="M87" s="3">
+        <v>150</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>127</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="R87" s="3">
+        <v>3</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B88" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1</v>
-      </c>
-      <c r="D88" s="3" t="str">
-        <f t="shared" ref="D88:D111" si="0">B88&amp;"_"&amp;C88</f>
+      <c r="C88" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>2</v>
+      </c>
+      <c r="M88" s="3">
+        <v>450</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>382</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R88" s="3">
+        <v>3</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C89" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>1350</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>1147</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" ref="D91:D114" si="0">B91&amp;"_"&amp;C91</f>
         <v>TestTow1_1</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H88" s="7"/>
-      <c r="J88" s="3" t="str">
-        <f t="shared" ref="J88:J111" si="1">"Unit_"&amp;D88</f>
+      <c r="E91" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="J91" s="3" t="str">
+        <f t="shared" ref="J91:J114" si="1">"Unit_"&amp;D91</f>
         <v>Unit_TestTow1_1</v>
       </c>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
-      <c r="M88" s="3">
+      <c r="K91" s="3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="O88" s="3">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3">
-        <f>INT(M88*0.7)</f>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <f>INT(M91*0.7)</f>
         <v>140</v>
       </c>
-      <c r="Q88" s="3" t="str">
-        <f>D89</f>
+      <c r="Q91" s="3" t="str">
+        <f>D92</f>
         <v>TestTow1_2</v>
       </c>
-      <c r="R88" s="3">
-        <v>3</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B89" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="R91" s="3">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="3">
         <v>2</v>
       </c>
-      <c r="D89" s="3" t="str">
+      <c r="D92" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TestTow1_2</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J89" s="3" t="str">
+      <c r="E92" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Unit_TestTow1_2</v>
       </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K92" s="3">
+        <v>1</v>
+      </c>
+      <c r="L92" s="3">
         <v>2</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M92" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <f>INT(P88*3)</f>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <f>INT(P91*3)</f>
         <v>420</v>
       </c>
-      <c r="Q89" s="3" t="str">
-        <f>D90</f>
+      <c r="Q92" s="3" t="str">
+        <f>D93</f>
         <v>TestTow1_3</v>
       </c>
-      <c r="R89" s="3">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" s="3">
-        <v>3</v>
-      </c>
-      <c r="D90" s="3" t="str">
+      <c r="R92" s="3">
+        <v>3</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3</v>
+      </c>
+      <c r="D93" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TestTow1_3</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" s="3" t="str">
+      <c r="E93" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J93" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Unit_TestTow1_3</v>
       </c>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
-      <c r="L90" s="3">
-        <v>3</v>
-      </c>
-      <c r="M90" s="3">
+      <c r="K93" s="3">
+        <v>1</v>
+      </c>
+      <c r="L93" s="3">
+        <v>3</v>
+      </c>
+      <c r="M93" s="3">
         <v>200</v>
       </c>
-      <c r="O90" s="3">
-        <v>0</v>
-      </c>
-      <c r="P90" s="3">
-        <f>INT(P89*3)</f>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <f>INT(P92*3)</f>
         <v>1260</v>
       </c>
-      <c r="S90" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91" s="3" t="str">
+      <c r="S93" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TestTow2_1</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J91" s="3" t="str">
+      <c r="E94" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J94" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Unit_TestTow2_1</v>
-      </c>
-      <c r="K91" s="3">
-        <v>1</v>
-      </c>
-      <c r="L91" s="3">
-        <v>1</v>
-      </c>
-      <c r="M91" s="3">
-        <v>180</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <f>INT(M91*0.7)</f>
-        <v>126</v>
-      </c>
-      <c r="Q91" s="3" t="str">
-        <f>D92</f>
-        <v>TestTow2_2</v>
-      </c>
-      <c r="R91" s="3">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2</v>
-      </c>
-      <c r="D92" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_2</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="J92" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_2</v>
-      </c>
-      <c r="K92" s="3">
-        <v>1</v>
-      </c>
-      <c r="L92" s="3">
-        <v>2</v>
-      </c>
-      <c r="M92" s="3">
-        <v>180</v>
-      </c>
-      <c r="O92" s="3">
-        <v>0</v>
-      </c>
-      <c r="P92" s="3">
-        <f>INT(P91*3)</f>
-        <v>378</v>
-      </c>
-      <c r="Q92" s="3" t="str">
-        <f>D93</f>
-        <v>TestTow2_3</v>
-      </c>
-      <c r="R92" s="3">
-        <v>3</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C93" s="3">
-        <v>3</v>
-      </c>
-      <c r="D93" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_3</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J93" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_3</v>
-      </c>
-      <c r="K93" s="3">
-        <v>1</v>
-      </c>
-      <c r="L93" s="3">
-        <v>3</v>
-      </c>
-      <c r="M93" s="3">
-        <v>180</v>
-      </c>
-      <c r="O93" s="3">
-        <v>0</v>
-      </c>
-      <c r="P93" s="3">
-        <f>INT(P92*3)</f>
-        <v>1134</v>
-      </c>
-      <c r="S93" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B94" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow3_1</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J94" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow3_1</v>
       </c>
       <c r="K94" s="3">
         <v>1</v>
@@ -5496,38 +5610,38 @@
       </c>
       <c r="Q94" s="3" t="str">
         <f>D95</f>
-        <v>TestTow3_2</v>
+        <v>TestTow2_2</v>
       </c>
       <c r="R94" s="3">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C95" s="3">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow3_2</v>
+        <v>TestTow2_2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>220</v>
+        <v>266</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="J95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow3_2</v>
+        <v>Unit_TestTow2_2</v>
       </c>
       <c r="K95" s="3">
         <v>1</v>
@@ -5547,38 +5661,38 @@
       </c>
       <c r="Q95" s="3" t="str">
         <f>D96</f>
-        <v>TestTow3_3</v>
+        <v>TestTow2_3</v>
       </c>
       <c r="R95" s="3">
         <v>3</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
       </c>
       <c r="D96" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow3_3</v>
+        <v>TestTow2_3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>221</v>
+        <v>266</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="J96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow3_3</v>
+        <v>Unit_TestTow2_3</v>
       </c>
       <c r="K96" s="3">
         <v>1</v>
@@ -5597,32 +5711,32 @@
         <v>1134</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow4_1</v>
+        <v>TestTow3_1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>219</v>
+        <v>266</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow4_1</v>
+        <v>Unit_TestTow3_1</v>
       </c>
       <c r="K97" s="3">
         <v>1</v>
@@ -5642,38 +5756,38 @@
       </c>
       <c r="Q97" s="3" t="str">
         <f>D98</f>
-        <v>TestTow4_2</v>
+        <v>TestTow3_2</v>
       </c>
       <c r="R97" s="3">
         <v>3</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C98" s="3">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow4_2</v>
+        <v>TestTow3_2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>220</v>
+        <v>266</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="J98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow4_2</v>
+        <v>Unit_TestTow3_2</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -5693,38 +5807,38 @@
       </c>
       <c r="Q98" s="3" t="str">
         <f>D99</f>
-        <v>TestTow4_3</v>
+        <v>TestTow3_3</v>
       </c>
       <c r="R98" s="3">
         <v>3</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
       </c>
       <c r="D99" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow4_3</v>
+        <v>TestTow3_3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>221</v>
+        <v>266</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="J99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow4_3</v>
+        <v>Unit_TestTow3_3</v>
       </c>
       <c r="K99" s="3">
         <v>1</v>
@@ -5743,32 +5857,32 @@
         <v>1134</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow5_1</v>
+        <v>TestTow4_1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>219</v>
+        <v>266</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="J100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow5_1</v>
+        <v>Unit_TestTow4_1</v>
       </c>
       <c r="K100" s="3">
         <v>1</v>
@@ -5777,49 +5891,49 @@
         <v>1</v>
       </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <f>INT(M100*0.7)</f>
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q100" s="3" t="str">
         <f>D101</f>
-        <v>TestTow5_2</v>
+        <v>TestTow4_2</v>
       </c>
       <c r="R100" s="3">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C101" s="3">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow5_2</v>
+        <v>TestTow4_2</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>220</v>
+        <v>266</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="J101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow5_2</v>
+        <v>Unit_TestTow4_2</v>
       </c>
       <c r="K101" s="3">
         <v>1</v>
@@ -5828,49 +5942,49 @@
         <v>2</v>
       </c>
       <c r="M101" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
         <f>INT(P100*3)</f>
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="Q101" s="3" t="str">
         <f>D102</f>
-        <v>TestTow5_3</v>
+        <v>TestTow4_3</v>
       </c>
       <c r="R101" s="3">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C102" s="3">
         <v>3</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow5_3</v>
+        <v>TestTow4_3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>221</v>
+        <v>266</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="J102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow5_3</v>
+        <v>Unit_TestTow4_3</v>
       </c>
       <c r="K102" s="3">
         <v>1</v>
@@ -5879,42 +5993,42 @@
         <v>3</v>
       </c>
       <c r="M102" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
         <f>INT(P101*3)</f>
-        <v>1260</v>
+        <v>1134</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow6_1</v>
+        <v>TestTow5_1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow6_1</v>
+        <v>Unit_TestTow5_1</v>
       </c>
       <c r="K103" s="3">
         <v>1</v>
@@ -5923,49 +6037,49 @@
         <v>1</v>
       </c>
       <c r="M103" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O103" s="3">
         <v>0</v>
       </c>
       <c r="P103" s="3">
         <f>INT(M103*0.7)</f>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="Q103" s="3" t="str">
         <f>D104</f>
-        <v>TestTow6_2</v>
+        <v>TestTow5_2</v>
       </c>
       <c r="R103" s="3">
         <v>3</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow6_2</v>
+        <v>TestTow5_2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow6_2</v>
+        <v>Unit_TestTow5_2</v>
       </c>
       <c r="K104" s="3">
         <v>1</v>
@@ -5974,49 +6088,49 @@
         <v>2</v>
       </c>
       <c r="M104" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O104" s="3">
         <v>0</v>
       </c>
       <c r="P104" s="3">
         <f>INT(P103*3)</f>
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="Q104" s="3" t="str">
         <f>D105</f>
-        <v>TestTow6_3</v>
+        <v>TestTow5_3</v>
       </c>
       <c r="R104" s="3">
         <v>3</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C105" s="3">
         <v>3</v>
       </c>
       <c r="D105" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow6_3</v>
+        <v>TestTow5_3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow6_3</v>
+        <v>Unit_TestTow5_3</v>
       </c>
       <c r="K105" s="3">
         <v>1</v>
@@ -6025,42 +6139,42 @@
         <v>3</v>
       </c>
       <c r="M105" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O105" s="3">
         <v>0</v>
       </c>
       <c r="P105" s="3">
         <f>INT(P104*3)</f>
-        <v>1575</v>
+        <v>1260</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow7_1</v>
+        <v>TestTow6_1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow7_1</v>
+        <v>Unit_TestTow6_1</v>
       </c>
       <c r="K106" s="3">
         <v>1</v>
@@ -6069,49 +6183,49 @@
         <v>1</v>
       </c>
       <c r="M106" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O106" s="3">
         <v>0</v>
       </c>
       <c r="P106" s="3">
         <f>INT(M106*0.7)</f>
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="Q106" s="3" t="str">
         <f>D107</f>
-        <v>TestTow7_2</v>
+        <v>TestTow6_2</v>
       </c>
       <c r="R106" s="3">
         <v>3</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C107" s="3">
         <v>2</v>
       </c>
       <c r="D107" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow7_2</v>
+        <v>TestTow6_2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow7_2</v>
+        <v>Unit_TestTow6_2</v>
       </c>
       <c r="K107" s="3">
         <v>1</v>
@@ -6120,49 +6234,49 @@
         <v>2</v>
       </c>
       <c r="M107" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O107" s="3">
         <v>0</v>
       </c>
       <c r="P107" s="3">
         <f>INT(P106*3)</f>
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="Q107" s="3" t="str">
         <f>D108</f>
-        <v>TestTow7_3</v>
+        <v>TestTow6_3</v>
       </c>
       <c r="R107" s="3">
         <v>3</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
       </c>
       <c r="D108" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow7_3</v>
+        <v>TestTow6_3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>252</v>
+        <v>57</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow7_3</v>
+        <v>Unit_TestTow6_3</v>
       </c>
       <c r="K108" s="3">
         <v>1</v>
@@ -6171,42 +6285,42 @@
         <v>3</v>
       </c>
       <c r="M108" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O108" s="3">
         <v>0</v>
       </c>
       <c r="P108" s="3">
         <f>INT(P107*3)</f>
-        <v>1260</v>
+        <v>1575</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow8_1</v>
+        <v>TestTow7_1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>219</v>
+        <v>266</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="J109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow8_1</v>
+        <v>Unit_TestTow7_1</v>
       </c>
       <c r="K109" s="3">
         <v>1</v>
@@ -6226,38 +6340,38 @@
       </c>
       <c r="Q109" s="3" t="str">
         <f>D110</f>
-        <v>TestTow8_2</v>
+        <v>TestTow7_2</v>
       </c>
       <c r="R109" s="3">
         <v>3</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
       <c r="D110" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow8_2</v>
+        <v>TestTow7_2</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>220</v>
+        <v>266</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="J110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow8_2</v>
+        <v>Unit_TestTow7_2</v>
       </c>
       <c r="K110" s="3">
         <v>1</v>
@@ -6277,38 +6391,38 @@
       </c>
       <c r="Q110" s="3" t="str">
         <f>D111</f>
-        <v>TestTow8_3</v>
+        <v>TestTow7_3</v>
       </c>
       <c r="R110" s="3">
         <v>3</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C111" s="3">
         <v>3</v>
       </c>
       <c r="D111" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>TestTow8_3</v>
+        <v>TestTow7_3</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>221</v>
+        <v>266</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="J111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Unit_TestTow8_3</v>
+        <v>Unit_TestTow7_3</v>
       </c>
       <c r="K111" s="3">
         <v>1</v>
@@ -6327,7 +6441,153 @@
         <v>1260</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B112" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TestTow8_1</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_TestTow8_1</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3">
+        <v>200</v>
+      </c>
+      <c r="O112" s="3">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3">
+        <f>INT(M112*0.7)</f>
+        <v>140</v>
+      </c>
+      <c r="Q112" s="3" t="str">
+        <f>D113</f>
+        <v>TestTow8_2</v>
+      </c>
+      <c r="R112" s="3">
+        <v>3</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TestTow8_2</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_TestTow8_2</v>
+      </c>
+      <c r="K113" s="3">
+        <v>1</v>
+      </c>
+      <c r="L113" s="3">
+        <v>2</v>
+      </c>
+      <c r="M113" s="3">
+        <v>200</v>
+      </c>
+      <c r="O113" s="3">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3">
+        <f>INT(P112*3)</f>
+        <v>420</v>
+      </c>
+      <c r="Q113" s="3" t="str">
+        <f>D114</f>
+        <v>TestTow8_3</v>
+      </c>
+      <c r="R113" s="3">
+        <v>3</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>TestTow8_3</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Unit_TestTow8_3</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+      <c r="L114" s="3">
+        <v>3</v>
+      </c>
+      <c r="M114" s="3">
+        <v>200</v>
+      </c>
+      <c r="O114" s="3">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3">
+        <f>INT(P113*3)</f>
+        <v>1260</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3657D6-45BB-4805-A76B-FAB66DE204BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947DD82-39BB-44C7-8323-BD1469796B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="269">
   <si>
     <t>##var</t>
   </si>
@@ -148,9 +151,6 @@
     <t>0,0,0;2,0,0;0,0,2;</t>
   </si>
   <si>
-    <t>Unit_Monster4;Unit_Monster5;Unit_Monster6</t>
-  </si>
-  <si>
     <t>1;2;3</t>
   </si>
   <si>
@@ -160,117 +160,51 @@
     <t>TowerDefense_Monster1</t>
   </si>
   <si>
-    <t>0,0,0;2,0,0</t>
-  </si>
-  <si>
-    <t>Unit_Monster4;Unit_Monster5</t>
-  </si>
-  <si>
-    <t>3;2</t>
-  </si>
-  <si>
-    <t>1;1</t>
-  </si>
-  <si>
-    <t>Unit_Monster1;Unit_Monster10</t>
-  </si>
-  <si>
-    <t>5;1</t>
-  </si>
-  <si>
-    <t>Unit_Monster1;Unit_Monster7</t>
-  </si>
-  <si>
-    <t>20;6</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
-    <t>Unit_Monster3</t>
-  </si>
-  <si>
     <t>Tow1_1</t>
   </si>
   <si>
     <t>Text_Key_TowerLabel_Solo</t>
   </si>
   <si>
-    <t>Unit_Solo1</t>
-  </si>
-  <si>
     <t>Tow1_2</t>
   </si>
   <si>
     <t>TowerDefense_Tower1</t>
   </si>
   <si>
-    <t>Unit_Solo2</t>
-  </si>
-  <si>
     <t>Tow1_3</t>
   </si>
   <si>
-    <t>Unit_Solo3</t>
-  </si>
-  <si>
     <t>Tow2_1</t>
   </si>
   <si>
     <t>Text_Key_TowerLabel_Aoe</t>
   </si>
   <si>
-    <t>Unit_Aoe1</t>
-  </si>
-  <si>
     <t>Tow2_2</t>
   </si>
   <si>
-    <t>Unit_Aoe2</t>
-  </si>
-  <si>
     <t>Tow2_3</t>
   </si>
   <si>
-    <t>Unit_Aoe3</t>
-  </si>
-  <si>
     <t>Tow3_1</t>
   </si>
   <si>
-    <t>Unit_Line1</t>
-  </si>
-  <si>
     <t>Tow3_2</t>
   </si>
   <si>
-    <t>Unit_Line2</t>
-  </si>
-  <si>
     <t>Tow3_3</t>
   </si>
   <si>
-    <t>Unit_Line3</t>
-  </si>
-  <si>
     <t>Tow4_1</t>
   </si>
   <si>
-    <t>Unit_Circle1</t>
-  </si>
-  <si>
     <t>Tow4_2</t>
   </si>
   <si>
-    <t>Unit_Circle2</t>
-  </si>
-  <si>
     <t>Tow4_3</t>
   </si>
   <si>
-    <t>Unit_Circle3</t>
-  </si>
-  <si>
     <t>Tow5_1</t>
   </si>
   <si>
@@ -493,19 +427,10 @@
     <t>Tow17_1</t>
   </si>
   <si>
-    <t>Unit_TowerFire1</t>
-  </si>
-  <si>
     <t>Tow17_2</t>
   </si>
   <si>
-    <t>Unit_TowerFire2</t>
-  </si>
-  <si>
     <t>Tow17_3</t>
-  </si>
-  <si>
-    <t>Unit_TowerFire3</t>
   </si>
   <si>
     <t>Tow18_1</t>
@@ -877,6 +802,59 @@
   </si>
   <si>
     <t>Text_Key_TowerLabel_Aoe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_TowerBow1</t>
+  </si>
+  <si>
+    <t>Unit_TowerBow2</t>
+  </si>
+  <si>
+    <t>Unit_TowerBow3</t>
+  </si>
+  <si>
+    <t>Unit_TowerCannon1</t>
+  </si>
+  <si>
+    <t>Unit_TowerCannon2</t>
+  </si>
+  <si>
+    <t>Unit_TowerCannon3</t>
+  </si>
+  <si>
+    <t>Unit_TowerFlame1</t>
+  </si>
+  <si>
+    <t>Unit_TowerFlame2</t>
+  </si>
+  <si>
+    <t>Unit_TowerFlame3</t>
+  </si>
+  <si>
+    <t>Unit_TowerPoison1</t>
+  </si>
+  <si>
+    <t>Unit_TowerPoison2</t>
+  </si>
+  <si>
+    <t>Unit_TowerPoison3</t>
+  </si>
+  <si>
+    <t>Unit_TowerCrystal1</t>
+  </si>
+  <si>
+    <t>Unit_TowerCrystal2</t>
+  </si>
+  <si>
+    <t>Unit_TowerCrystal3</t>
+  </si>
+  <si>
+    <t>Unit_Monster_MiFeng1;Unit_Monster_MiFeng2;Unit_Monster_MiFeng3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1250,6 +1228,843 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="参考"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>名字</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>稀有度</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>性价比</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>价格</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>dps</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>特色</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>攻击LV1</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>攻击LV2</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>攻击LV3</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>技能cd</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>目标数量</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>射程</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>特殊参数</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>参数1</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>参数2</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>参数3</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>参数4</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>100</v>
+          </cell>
+          <cell r="E2">
+            <v>100</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="G2">
+            <v>50</v>
+          </cell>
+          <cell r="H2">
+            <v>225</v>
+          </cell>
+          <cell r="I2">
+            <v>1012</v>
+          </cell>
+          <cell r="J2">
+            <v>0.5</v>
+          </cell>
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="L2">
+            <v>9</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>3级暴击率/爆伤</v>
+          </cell>
+          <cell r="N2">
+            <v>0.15</v>
+          </cell>
+          <cell r="O2">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>100</v>
+          </cell>
+          <cell r="E3">
+            <v>100</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="G3">
+            <v>17</v>
+          </cell>
+          <cell r="H3">
+            <v>76</v>
+          </cell>
+          <cell r="I3">
+            <v>344</v>
+          </cell>
+          <cell r="J3">
+            <v>0.5</v>
+          </cell>
+          <cell r="K3">
+            <v>3</v>
+          </cell>
+          <cell r="L3">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="B4">
+            <v>3</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>200</v>
+          </cell>
+          <cell r="E4">
+            <v>200</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>灼烧</v>
+          </cell>
+          <cell r="G4">
+            <v>9</v>
+          </cell>
+          <cell r="H4">
+            <v>40</v>
+          </cell>
+          <cell r="I4">
+            <v>182</v>
+          </cell>
+          <cell r="J4">
+            <v>0.3</v>
+          </cell>
+          <cell r="K4">
+            <v>5</v>
+          </cell>
+          <cell r="L4">
+            <v>9</v>
+          </cell>
+          <cell r="M4" t="str">
+            <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
+          </cell>
+          <cell r="N4">
+            <v>0.5</v>
+          </cell>
+          <cell r="O4">
+            <v>10</v>
+          </cell>
+          <cell r="P4">
+            <v>0.3</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>150</v>
+          </cell>
+          <cell r="E5">
+            <v>150</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>远处加成</v>
+          </cell>
+          <cell r="G5">
+            <v>4</v>
+          </cell>
+          <cell r="H5">
+            <v>18</v>
+          </cell>
+          <cell r="I5">
+            <v>81</v>
+          </cell>
+          <cell r="J5">
+            <v>0.3</v>
+          </cell>
+          <cell r="K5">
+            <v>7</v>
+          </cell>
+          <cell r="L5">
+            <v>9</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>远处增伤率</v>
+          </cell>
+          <cell r="N5">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>150</v>
+          </cell>
+          <cell r="E6">
+            <v>150</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>蓄力</v>
+          </cell>
+          <cell r="G6">
+            <v>300</v>
+          </cell>
+          <cell r="H6">
+            <v>1350</v>
+          </cell>
+          <cell r="I6">
+            <v>3037</v>
+          </cell>
+          <cell r="J6">
+            <v>2</v>
+          </cell>
+          <cell r="K6">
+            <v>1</v>
+          </cell>
+          <cell r="L6">
+            <v>9</v>
+          </cell>
+          <cell r="M6" t="str">
+            <v>3级目标</v>
+          </cell>
+          <cell r="N6">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>200</v>
+          </cell>
+          <cell r="E7">
+            <v>200</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>高处加成</v>
+          </cell>
+          <cell r="G7">
+            <v>133</v>
+          </cell>
+          <cell r="H7">
+            <v>598</v>
+          </cell>
+          <cell r="I7">
+            <v>538</v>
+          </cell>
+          <cell r="J7">
+            <v>1</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="L7">
+            <v>7.5</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>低处增伤率，3级目标，加成高度</v>
+          </cell>
+          <cell r="N7">
+            <v>0.1</v>
+          </cell>
+          <cell r="O7">
+            <v>2</v>
+          </cell>
+          <cell r="P7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>100</v>
+          </cell>
+          <cell r="E8">
+            <v>100</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>减速</v>
+          </cell>
+          <cell r="G8">
+            <v>33</v>
+          </cell>
+          <cell r="H8">
+            <v>148</v>
+          </cell>
+          <cell r="I8">
+            <v>668</v>
+          </cell>
+          <cell r="J8">
+            <v>1</v>
+          </cell>
+          <cell r="K8">
+            <v>3</v>
+          </cell>
+          <cell r="L8">
+            <v>7.5</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>减速率lv1/2/3</v>
+          </cell>
+          <cell r="N8">
+            <v>0.25</v>
+          </cell>
+          <cell r="O8">
+            <v>0.4</v>
+          </cell>
+          <cell r="P8">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>150</v>
+          </cell>
+          <cell r="E9">
+            <v>150</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>生产金币</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9" t="str">
+            <v>每回合金币</v>
+          </cell>
+          <cell r="N9">
+            <v>30</v>
+          </cell>
+          <cell r="O9">
+            <v>120</v>
+          </cell>
+          <cell r="P9">
+            <v>480</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>100</v>
+          </cell>
+          <cell r="E10">
+            <v>100</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>7.5</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>CD减少lv1/2/3</v>
+          </cell>
+          <cell r="N10">
+            <v>0.3</v>
+          </cell>
+          <cell r="O10">
+            <v>0.5</v>
+          </cell>
+          <cell r="P10">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>150</v>
+          </cell>
+          <cell r="E11">
+            <v>150</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>中毒</v>
+          </cell>
+          <cell r="G11">
+            <v>75</v>
+          </cell>
+          <cell r="H11">
+            <v>337</v>
+          </cell>
+          <cell r="I11">
+            <v>1518</v>
+          </cell>
+          <cell r="J11">
+            <v>1</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+          <cell r="L11">
+            <v>9</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>毒伤lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N11">
+            <v>0.01</v>
+          </cell>
+          <cell r="O11">
+            <v>0.02</v>
+          </cell>
+          <cell r="P11">
+            <v>0.03</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="B12">
+            <v>3</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>70</v>
+          </cell>
+          <cell r="E12">
+            <v>70</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>消耗型</v>
+          </cell>
+          <cell r="G12">
+            <v>2000</v>
+          </cell>
+          <cell r="H12">
+            <v>9000</v>
+          </cell>
+          <cell r="I12">
+            <v>40500</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>7.5</v>
+          </cell>
+          <cell r="M12" t="str">
+            <v>伤害/眩晕</v>
+          </cell>
+          <cell r="N12">
+            <v>2000</v>
+          </cell>
+          <cell r="O12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>100</v>
+          </cell>
+          <cell r="E13">
+            <v>100</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>偷金币</v>
+          </cell>
+          <cell r="G13">
+            <v>50</v>
+          </cell>
+          <cell r="H13">
+            <v>225</v>
+          </cell>
+          <cell r="I13">
+            <v>1012</v>
+          </cell>
+          <cell r="J13">
+            <v>1</v>
+          </cell>
+          <cell r="K13">
+            <v>1</v>
+          </cell>
+          <cell r="L13">
+            <v>7.5</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>偷钱数lv1/2/3/输出补正</v>
+          </cell>
+          <cell r="N13">
+            <v>1</v>
+          </cell>
+          <cell r="O13">
+            <v>4</v>
+          </cell>
+          <cell r="P13">
+            <v>15</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="B14">
+            <v>2</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+          <cell r="D14">
+            <v>150</v>
+          </cell>
+          <cell r="E14">
+            <v>150</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>抛物线</v>
+          </cell>
+          <cell r="G14">
+            <v>65</v>
+          </cell>
+          <cell r="H14">
+            <v>292</v>
+          </cell>
+          <cell r="I14">
+            <v>1316</v>
+          </cell>
+          <cell r="J14">
+            <v>2</v>
+          </cell>
+          <cell r="K14">
+            <v>3</v>
+          </cell>
+          <cell r="L14">
+            <v>9</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>远处增伤率lv1/2/3</v>
+          </cell>
+          <cell r="N14">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="B15">
+            <v>2</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="D15">
+            <v>150</v>
+          </cell>
+          <cell r="E15">
+            <v>150</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>击退</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>450</v>
+          </cell>
+          <cell r="I15">
+            <v>2025</v>
+          </cell>
+          <cell r="J15">
+            <v>2</v>
+          </cell>
+          <cell r="K15">
+            <v>3</v>
+          </cell>
+          <cell r="L15">
+            <v>7.5</v>
+          </cell>
+          <cell r="M15" t="str">
+            <v>近处增伤率lv1/2/3；眩晕时间</v>
+          </cell>
+          <cell r="N15">
+            <v>-7.0000000000000007E-2</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="B16">
+            <v>2</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>150</v>
+          </cell>
+          <cell r="E16">
+            <v>150</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>穿透</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>450</v>
+          </cell>
+          <cell r="I16">
+            <v>2025</v>
+          </cell>
+          <cell r="J16">
+            <v>2</v>
+          </cell>
+          <cell r="K16">
+            <v>3</v>
+          </cell>
+          <cell r="L16">
+            <v>7.5</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>3级射程</v>
+          </cell>
+          <cell r="N16">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="B17">
+            <v>2</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>150</v>
+          </cell>
+          <cell r="E17">
+            <v>150</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>多弹道</v>
+          </cell>
+          <cell r="G17">
+            <v>50</v>
+          </cell>
+          <cell r="H17">
+            <v>225</v>
+          </cell>
+          <cell r="I17">
+            <v>1518</v>
+          </cell>
+          <cell r="J17">
+            <v>2</v>
+          </cell>
+          <cell r="K17">
+            <v>1</v>
+          </cell>
+          <cell r="L17">
+            <v>9</v>
+          </cell>
+          <cell r="M17" t="str">
+            <v>1、2级弹药/3级弹药</v>
+          </cell>
+          <cell r="N17">
+            <v>6</v>
+          </cell>
+          <cell r="O17">
+            <v>9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1508,17 +2323,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35:E50"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="3" customWidth="1"/>
+    <col min="2" max="3" width="5" style="3" customWidth="1"/>
     <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="49.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
@@ -1533,7 +2348,7 @@
     <col min="20" max="20" width="20.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -1588,10 +2403,10 @@
         <v>15</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1615,23 +2430,23 @@
       <c r="S2" s="4"/>
       <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>18</v>
@@ -1670,10 +2485,10 @@
         <v>24</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1697,7 +2512,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1713,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>30</v>
@@ -1752,31 +2567,28 @@
         <v>15</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7"/>
       <c r="J6" s="3" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -1785,45 +2597,47 @@
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>150</v>
+        <f>VLOOKUP(U6,[1]防御塔!$A:$Q,4,FALSE)*3^(V6-1)</f>
+        <v>100</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>120</v>
+        <f>M6*0.8</f>
+        <v>80</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="R6" s="3">
         <v>3</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -1832,45 +2646,47 @@
         <v>2</v>
       </c>
       <c r="M7" s="3">
-        <v>450</v>
+        <f>VLOOKUP(U7,[1]防御塔!$A:$Q,4,FALSE)*3^(V7-1)</f>
+        <v>300</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>360</v>
+        <f t="shared" ref="P7:P50" si="0">M7*0.8</f>
+        <v>240</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="R7" s="3">
         <v>3</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="13">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>
@@ -1879,39 +2695,41 @@
         <v>3</v>
       </c>
       <c r="M8" s="3">
-        <v>1350</v>
+        <f>VLOOKUP(U8,[1]防御塔!$A:$Q,4,FALSE)*3^(V8-1)</f>
+        <v>900</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1080</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -1920,45 +2738,47 @@
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <v>150</v>
+        <f>VLOOKUP(U9,[1]防御塔!$A:$Q,4,FALSE)*3^(V9-1)</f>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="R9" s="3">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="K10" s="3">
         <v>1</v>
@@ -1967,45 +2787,47 @@
         <v>2</v>
       </c>
       <c r="M10" s="3">
-        <v>450</v>
+        <f>VLOOKUP(U10,[1]防御塔!$A:$Q,4,FALSE)*3^(V10-1)</f>
+        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>360</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="R10" s="3">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>257</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -2014,39 +2836,41 @@
         <v>3</v>
       </c>
       <c r="M11" s="3">
-        <v>1350</v>
+        <f>VLOOKUP(U11,[1]防御塔!$A:$Q,4,FALSE)*3^(V11-1)</f>
+        <v>900</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>1080</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V11" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -2055,45 +2879,47 @@
         <v>1</v>
       </c>
       <c r="M12" s="3">
+        <f>VLOOKUP(U12,[1]防御塔!$A:$Q,4,FALSE)*3^(V12-1)</f>
         <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="R12" s="3">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -2102,45 +2928,47 @@
         <v>2</v>
       </c>
       <c r="M13" s="3">
+        <f>VLOOKUP(U13,[1]防御塔!$A:$Q,4,FALSE)*3^(V13-1)</f>
         <v>600</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
       <c r="P13" s="3">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="R13" s="3">
         <v>3</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="13">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -2149,39 +2977,41 @@
         <v>3</v>
       </c>
       <c r="M14" s="3">
+        <f>VLOOKUP(U14,[1]防御塔!$A:$Q,4,FALSE)*3^(V14-1)</f>
         <v>1800</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -2190,45 +3020,47 @@
         <v>1</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <f>VLOOKUP(U15,[1]防御塔!$A:$Q,4,FALSE)*3^(V15-1)</f>
+        <v>150</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="R15" s="3">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -2237,86 +3069,90 @@
         <v>2</v>
       </c>
       <c r="M16" s="3">
-        <v>600</v>
+        <f>VLOOKUP(U16,[1]防御塔!$A:$Q,4,FALSE)*3^(V16-1)</f>
+        <v>450</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="R16" s="3">
         <v>3</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <f>VLOOKUP(U17,[1]防御塔!$A:$Q,4,FALSE)*3^(V17-1)</f>
+        <v>1350</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="13">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1440</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -2325,45 +3161,47 @@
         <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <f>VLOOKUP(U18,[1]防御塔!$A:$Q,4,FALSE)*3^(V18-1)</f>
+        <v>150</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="R18" s="3">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -2372,45 +3210,47 @@
         <v>2</v>
       </c>
       <c r="M19" s="3">
-        <v>600</v>
+        <f>VLOOKUP(U19,[1]防御塔!$A:$Q,4,FALSE)*3^(V19-1)</f>
+        <v>450</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="R19" s="3">
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="13">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -2419,39 +3259,41 @@
         <v>3</v>
       </c>
       <c r="M20" s="3">
-        <v>1800</v>
+        <f>VLOOKUP(U20,[1]防御塔!$A:$Q,4,FALSE)*3^(V20-1)</f>
+        <v>1350</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>1440</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="V20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
@@ -2460,45 +3302,47 @@
         <v>1</v>
       </c>
       <c r="M21" s="3">
+        <f>VLOOKUP(U21,[1]防御塔!$A:$Q,4,FALSE)*3^(V21-1)</f>
         <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="R21" s="3">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -2507,133 +3351,139 @@
         <v>2</v>
       </c>
       <c r="M22" s="3">
+        <f>VLOOKUP(U22,[1]防御塔!$A:$Q,4,FALSE)*3^(V22-1)</f>
         <v>600</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="R22" s="3">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
+        <f>VLOOKUP(U23,[1]防御塔!$A:$Q,4,FALSE)*3^(V23-1)</f>
+        <v>1800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <f>VLOOKUP(U24,[1]防御塔!$A:$Q,4,FALSE)*3^(V24-1)</f>
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="13">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1440</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <v>250</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R24" s="3">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="G25" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -2642,133 +3492,139 @@
         <v>2</v>
       </c>
       <c r="M25" s="3">
-        <v>750</v>
+        <f>VLOOKUP(U25,[1]防御塔!$A:$Q,4,FALSE)*3^(V25-1)</f>
+        <v>300</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="R25" s="3">
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="13">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
+        <f>VLOOKUP(U26,[1]防御塔!$A:$Q,4,FALSE)*3^(V26-1)</f>
+        <v>900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V26" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <f>VLOOKUP(U27,[1]防御塔!$A:$Q,4,FALSE)*3^(V27-1)</f>
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2250</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>250</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27" s="3">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="13">
-        <v>2</v>
-      </c>
+      <c r="V27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -2777,45 +3633,47 @@
         <v>2</v>
       </c>
       <c r="M28" s="3">
-        <v>750</v>
+        <f>VLOOKUP(U28,[1]防御塔!$A:$Q,4,FALSE)*3^(V28-1)</f>
+        <v>300</v>
       </c>
       <c r="O28" s="3">
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="R28" s="3">
         <v>3</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="13">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="V28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -2824,86 +3682,90 @@
         <v>3</v>
       </c>
       <c r="M29" s="3">
-        <v>2250</v>
+        <f>VLOOKUP(U29,[1]防御塔!$A:$Q,4,FALSE)*3^(V29-1)</f>
+        <v>900</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="V29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="G30" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <f>VLOOKUP(U30,[1]防御塔!$A:$Q,4,FALSE)*3^(V30-1)</f>
+        <v>150</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>200</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>160</v>
-      </c>
       <c r="Q30" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="R30" s="3">
         <v>3</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="G31" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -2912,45 +3774,47 @@
         <v>2</v>
       </c>
       <c r="M31" s="3">
-        <v>600</v>
+        <f>VLOOKUP(U31,[1]防御塔!$A:$Q,4,FALSE)*3^(V31-1)</f>
+        <v>450</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="R31" s="3">
         <v>3</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="G32" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -2959,39 +3823,41 @@
         <v>3</v>
       </c>
       <c r="M32" s="3">
-        <v>1800</v>
+        <f>VLOOKUP(U32,[1]防御塔!$A:$Q,4,FALSE)*3^(V32-1)</f>
+        <v>1350</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>1440</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="V32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -3000,45 +3866,47 @@
         <v>1</v>
       </c>
       <c r="M33" s="3">
-        <v>250</v>
+        <f>VLOOKUP(U33,[1]防御塔!$A:$Q,4,FALSE)*3^(V33-1)</f>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="R33" s="3">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -3047,45 +3915,47 @@
         <v>2</v>
       </c>
       <c r="M34" s="3">
-        <v>750</v>
+        <f>VLOOKUP(U34,[1]防御塔!$A:$Q,4,FALSE)*3^(V34-1)</f>
+        <v>300</v>
       </c>
       <c r="O34" s="3">
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="R34" s="3">
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -3094,39 +3964,41 @@
         <v>3</v>
       </c>
       <c r="M35" s="3">
-        <v>2250</v>
+        <f>VLOOKUP(U35,[1]防御塔!$A:$Q,4,FALSE)*3^(V35-1)</f>
+        <v>900</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -3135,46 +4007,48 @@
         <v>1</v>
       </c>
       <c r="M36" s="3">
-        <v>50</v>
+        <f>VLOOKUP(U36,[1]防御塔!$A:$Q,4,FALSE)*3^(V36-1)</f>
+        <v>70</v>
       </c>
       <c r="O36" s="3">
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="R36" s="3">
         <v>3</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
+      <c r="U36" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -3183,91 +4057,95 @@
         <v>2</v>
       </c>
       <c r="M37" s="3">
-        <v>150</v>
+        <f>VLOOKUP(U37,[1]防御塔!$A:$Q,4,FALSE)*3^(V37-1)</f>
+        <v>210</v>
       </c>
       <c r="O37" s="3">
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>168</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="R37" s="3">
         <v>3</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
+      <c r="U37" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="V37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>3</v>
+      </c>
+      <c r="M38" s="3">
+        <f>VLOOKUP(U38,[1]防御塔!$A:$Q,4,FALSE)*3^(V38-1)</f>
+        <v>630</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38"/>
+      <c r="U38" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="V38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="D39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3">
-        <v>3</v>
-      </c>
-      <c r="M38" s="3">
-        <v>450</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>360</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="G39" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -3276,49 +4154,51 @@
         <v>1</v>
       </c>
       <c r="M39" s="3">
+        <f>VLOOKUP(U39,[1]防御塔!$A:$Q,4,FALSE)*3^(V39-1)</f>
         <v>150</v>
       </c>
       <c r="O39" s="3">
         <v>0</v>
       </c>
       <c r="P39" s="3">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="R39" s="3">
         <v>3</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T39"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -3327,49 +4207,51 @@
         <v>2</v>
       </c>
       <c r="M40" s="3">
+        <f>VLOOKUP(U40,[1]防御塔!$A:$Q,4,FALSE)*3^(V40-1)</f>
         <v>450</v>
       </c>
       <c r="O40" s="3">
         <v>0</v>
       </c>
       <c r="P40" s="3">
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="R40" s="3">
         <v>3</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" s="3" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -3378,43 +4260,45 @@
         <v>3</v>
       </c>
       <c r="M41" s="3">
+        <f>VLOOKUP(U41,[1]防御塔!$A:$Q,4,FALSE)*3^(V41-1)</f>
         <v>1350</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" s="3" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -3423,49 +4307,51 @@
         <v>1</v>
       </c>
       <c r="M42" s="3">
-        <v>200</v>
+        <f>VLOOKUP(U42,[1]防御塔!$A:$Q,4,FALSE)*3^(V42-1)</f>
+        <v>150</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="R42" s="3">
         <v>3</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="V42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" s="3" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -3474,49 +4360,51 @@
         <v>2</v>
       </c>
       <c r="M43" s="3">
-        <v>600</v>
+        <f>VLOOKUP(U43,[1]防御塔!$A:$Q,4,FALSE)*3^(V43-1)</f>
+        <v>450</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="R43" s="3">
         <v>3</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="V43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44"/>
-      <c r="B44" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" s="3" t="s">
-        <v>161</v>
+        <v>266</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -3525,43 +4413,45 @@
         <v>3</v>
       </c>
       <c r="M44" s="3">
-        <v>1800</v>
+        <f>VLOOKUP(U44,[1]防御塔!$A:$Q,4,FALSE)*3^(V44-1)</f>
+        <v>1350</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>1440</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="V44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" s="3" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -3570,49 +4460,51 @@
         <v>1</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <f>VLOOKUP(U45,[1]防御塔!$A:$Q,4,FALSE)*3^(V45-1)</f>
+        <v>150</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="R45" s="3">
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T45"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -3621,49 +4513,51 @@
         <v>2</v>
       </c>
       <c r="M46" s="3">
-        <v>600</v>
+        <f>VLOOKUP(U46,[1]防御塔!$A:$Q,4,FALSE)*3^(V46-1)</f>
+        <v>450</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="R46" s="3">
         <v>3</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T46"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="V46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="3">
-        <v>3</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" s="3" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -3672,43 +4566,45 @@
         <v>3</v>
       </c>
       <c r="M47" s="3">
-        <v>1800</v>
+        <f>VLOOKUP(U47,[1]防御塔!$A:$Q,4,FALSE)*3^(V47-1)</f>
+        <v>1350</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>1440</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T47"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="V47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48"/>
-      <c r="B48" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" s="3" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
@@ -3717,49 +4613,51 @@
         <v>1</v>
       </c>
       <c r="M48" s="3">
-        <v>250</v>
+        <f>VLOOKUP(U48,[1]防御塔!$A:$Q,4,FALSE)*3^(V48-1)</f>
+        <v>150</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="R48" s="3">
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T48"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="K49" s="3">
         <v>1</v>
@@ -3768,49 +4666,51 @@
         <v>2</v>
       </c>
       <c r="M49" s="3">
-        <v>750</v>
+        <f>VLOOKUP(U49,[1]防御塔!$A:$Q,4,FALSE)*3^(V49-1)</f>
+        <v>450</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="R49" s="3">
         <v>3</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T49"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" s="3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K50" s="3">
         <v>1</v>
@@ -3819,25 +4719,33 @@
         <v>3</v>
       </c>
       <c r="M50" s="3">
-        <v>2250</v>
+        <f>VLOOKUP(U50,[1]防御塔!$A:$Q,4,FALSE)*3^(V50-1)</f>
+        <v>1350</v>
       </c>
       <c r="O50" s="3">
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>1080</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T50"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="V50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C51" s="13"/>
       <c r="F51" s="14"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
@@ -3849,10 +4757,10 @@
         <v>TowCallMonster_999</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H52" s="3">
         <v>5</v>
@@ -3861,195 +4769,169 @@
         <v>41</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="str">
-        <f>B53&amp;"_"&amp;C53</f>
-        <v>TowCallMonster_1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G53" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C54" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>150</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>127</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R54" s="3">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C55" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="H53" s="3">
-        <v>5</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M53" s="3">
-        <v>250</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="G55" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
         <v>2</v>
       </c>
-      <c r="D54" s="3" t="str">
-        <f>B54&amp;"_"&amp;C54</f>
-        <v>TowCallMonster_2</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="M55" s="3">
+        <v>450</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>382</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R55" s="3">
+        <v>3</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C56" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="H54" s="3">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="3">
-        <v>3</v>
-      </c>
-      <c r="D55" s="3" t="str">
-        <f>B55&amp;"_"&amp;C55</f>
-        <v>TowCallMonster_3</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H55" s="3">
-        <v>5</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M55" s="3">
-        <v>400</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="3">
-        <v>4</v>
-      </c>
-      <c r="D56" s="3" t="str">
-        <f>B56&amp;"_"&amp;C56</f>
-        <v>TowCallMonster_4</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" s="3">
-        <v>5</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>54</v>
+      <c r="G56" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K56" s="10">
-        <v>1</v>
-      </c>
-      <c r="L56" s="10">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
+        <v>3</v>
       </c>
       <c r="M56" s="3">
-        <v>500</v>
+        <v>1350</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>1147</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K57" s="3">
         <v>1</v>
@@ -4058,42 +4940,42 @@
         <v>1</v>
       </c>
       <c r="M57" s="3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K58" s="3">
         <v>1</v>
@@ -4102,42 +4984,42 @@
         <v>2</v>
       </c>
       <c r="M58" s="3">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>382</v>
+        <v>510</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="R58" s="3">
         <v>3</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K59" s="3">
         <v>1</v>
@@ -4146,36 +5028,36 @@
         <v>3</v>
       </c>
       <c r="M59" s="3">
-        <v>1350</v>
+        <v>1530</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>1147</v>
+        <v>1530</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K60" s="3">
         <v>1</v>
@@ -4193,33 +5075,33 @@
         <v>170</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="R60" s="3">
         <v>3</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K61" s="3">
         <v>1</v>
@@ -4237,33 +5119,33 @@
         <v>510</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="R61" s="3">
         <v>3</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K62" s="3">
         <v>1</v>
@@ -4281,27 +5163,27 @@
         <v>1530</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="K63" s="3">
         <v>1</v>
@@ -4310,42 +5192,42 @@
         <v>1</v>
       </c>
       <c r="M63" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="O63" s="3">
         <v>0</v>
       </c>
       <c r="P63" s="3">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="R63" s="3">
         <v>3</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K64" s="3">
         <v>1</v>
@@ -4354,42 +5236,42 @@
         <v>2</v>
       </c>
       <c r="M64" s="3">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="O64" s="3">
         <v>0</v>
       </c>
       <c r="P64" s="3">
-        <v>510</v>
+        <v>765</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="R64" s="3">
         <v>3</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K65" s="3">
         <v>1</v>
@@ -4398,36 +5280,36 @@
         <v>3</v>
       </c>
       <c r="M65" s="3">
-        <v>1530</v>
+        <v>1800</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
       </c>
       <c r="P65" s="3">
-        <v>1530</v>
+        <v>2295</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K66" s="3">
         <v>1</v>
@@ -4436,42 +5318,42 @@
         <v>1</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="R66" s="3">
         <v>3</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K67" s="3">
         <v>1</v>
@@ -4480,42 +5362,42 @@
         <v>2</v>
       </c>
       <c r="M67" s="3">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="O67" s="3">
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <v>765</v>
+        <v>510</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="R67" s="3">
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K68" s="3">
         <v>1</v>
@@ -4524,36 +5406,36 @@
         <v>3</v>
       </c>
       <c r="M68" s="3">
-        <v>1800</v>
+        <v>1530</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <v>2295</v>
+        <v>1530</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="K69" s="3">
         <v>1</v>
@@ -4571,33 +5453,33 @@
         <v>170</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R69" s="3">
         <v>3</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="K70" s="3">
         <v>1</v>
@@ -4615,33 +5497,33 @@
         <v>510</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="R70" s="3">
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K71" s="3">
         <v>1</v>
@@ -4659,27 +5541,27 @@
         <v>1530</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C72" s="13" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K72" s="3">
         <v>1</v>
@@ -4688,42 +5570,42 @@
         <v>1</v>
       </c>
       <c r="M72" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
       <c r="P72" s="3">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="R72" s="3">
         <v>3</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C73" s="13" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K73" s="3">
         <v>1</v>
@@ -4732,42 +5614,42 @@
         <v>2</v>
       </c>
       <c r="M73" s="3">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="O73" s="3">
         <v>0</v>
       </c>
       <c r="P73" s="3">
-        <v>510</v>
+        <v>765</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C74" s="13" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K74" s="3">
         <v>1</v>
@@ -4776,36 +5658,36 @@
         <v>3</v>
       </c>
       <c r="M74" s="3">
-        <v>1530</v>
+        <v>1800</v>
       </c>
       <c r="O74" s="3">
         <v>0</v>
       </c>
       <c r="P74" s="3">
-        <v>1530</v>
+        <v>2295</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="K75" s="3">
         <v>1</v>
@@ -4814,42 +5696,42 @@
         <v>1</v>
       </c>
       <c r="M75" s="3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="O75" s="3">
         <v>0</v>
       </c>
       <c r="P75" s="3">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="R75" s="3">
         <v>3</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C76" s="13" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="K76" s="3">
         <v>1</v>
@@ -4858,42 +5740,42 @@
         <v>2</v>
       </c>
       <c r="M76" s="3">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>765</v>
+        <v>510</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="K77" s="3">
         <v>1</v>
@@ -4902,36 +5784,36 @@
         <v>3</v>
       </c>
       <c r="M77" s="3">
-        <v>1800</v>
+        <v>1530</v>
       </c>
       <c r="O77" s="3">
         <v>0</v>
       </c>
       <c r="P77" s="3">
-        <v>2295</v>
+        <v>1530</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C78" s="13" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="K78" s="3">
         <v>1</v>
@@ -4940,42 +5822,42 @@
         <v>1</v>
       </c>
       <c r="M78" s="3">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O78" s="3">
         <v>0</v>
       </c>
       <c r="P78" s="3">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="R78" s="3">
         <v>3</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C79" s="13" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G79" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>217</v>
       </c>
+      <c r="G79" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="J79" s="3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K79" s="3">
         <v>1</v>
@@ -4984,42 +5866,42 @@
         <v>2</v>
       </c>
       <c r="M79" s="3">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="O79" s="3">
         <v>0</v>
       </c>
       <c r="P79" s="3">
-        <v>510</v>
+        <v>382</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="R79" s="3">
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C80" s="13" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K80" s="3">
         <v>1</v>
@@ -5028,36 +5910,36 @@
         <v>3</v>
       </c>
       <c r="M80" s="3">
-        <v>1530</v>
+        <v>1350</v>
       </c>
       <c r="O80" s="3">
         <v>0</v>
       </c>
       <c r="P80" s="3">
-        <v>1530</v>
+        <v>1147</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C81" s="13" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K81" s="3">
         <v>1</v>
@@ -5075,33 +5957,33 @@
         <v>127</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="R81" s="3">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C82" s="13" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="K82" s="3">
         <v>1</v>
@@ -5119,33 +6001,33 @@
         <v>382</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="R82" s="3">
         <v>3</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K83" s="3">
         <v>1</v>
@@ -5163,27 +6045,27 @@
         <v>1147</v>
       </c>
       <c r="S83" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C84" s="13" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K84" s="3">
         <v>1</v>
@@ -5201,33 +6083,33 @@
         <v>127</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="R84" s="3">
         <v>3</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C85" s="13" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>217</v>
+        <v>239</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K85" s="3">
         <v>1</v>
@@ -5245,33 +6127,33 @@
         <v>382</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="R85" s="3">
         <v>3</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C86" s="13" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>218</v>
+        <v>239</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K86" s="3">
         <v>1</v>
@@ -5289,162 +6171,182 @@
         <v>1147</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C87" s="13" t="s">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f t="shared" ref="D88:D111" si="1">B88&amp;"_"&amp;C88</f>
+        <v>TestTow1_1</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="L87" s="3">
-        <v>1</v>
-      </c>
-      <c r="M87" s="3">
-        <v>150</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <v>127</v>
-      </c>
-      <c r="Q87" s="3" t="s">
+      <c r="F88" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" s="7"/>
+      <c r="J88" s="3" t="str">
+        <f t="shared" ref="J88:J111" si="2">"Unit_"&amp;D88</f>
+        <v>Unit_TestTow1_1</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3">
         <v>200</v>
       </c>
-      <c r="R87" s="3">
-        <v>3</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C88" s="13" t="s">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <f>INT(M88*0.7)</f>
+        <v>140</v>
+      </c>
+      <c r="Q88" s="3" t="str">
+        <f>D89</f>
+        <v>TestTow1_2</v>
+      </c>
+      <c r="R88" s="3">
+        <v>3</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="3">
+        <v>2</v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TestTow1_2</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="F89" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J89" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow1_2</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3">
-        <v>2</v>
-      </c>
-      <c r="M88" s="3">
-        <v>450</v>
-      </c>
-      <c r="O88" s="3">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3">
-        <v>382</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="R88" s="3">
-        <v>3</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C89" s="13" t="s">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <f>INT(P88*3)</f>
+        <v>420</v>
+      </c>
+      <c r="Q89" s="3" t="str">
+        <f>D90</f>
+        <v>TestTow1_3</v>
+      </c>
+      <c r="R89" s="3">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>TestTow1_3</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="L89" s="3">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
-        <v>1350</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>1147</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D90" s="11"/>
+      <c r="F90" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J90" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow1_3</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="L90" s="3">
+        <v>3</v>
+      </c>
+      <c r="M90" s="3">
+        <v>200</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <f>INT(P89*3)</f>
+        <v>1260</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" ref="D91:D114" si="0">B91&amp;"_"&amp;C91</f>
-        <v>TestTow1_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow2_1</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H91" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="J91" s="3" t="str">
-        <f t="shared" ref="J91:J114" si="1">"Unit_"&amp;D91</f>
-        <v>Unit_TestTow1_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow2_1</v>
       </c>
       <c r="K91" s="3">
         <v>1</v>
@@ -5453,49 +6355,49 @@
         <v>1</v>
       </c>
       <c r="M91" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <f>INT(M91*0.7)</f>
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q91" s="3" t="str">
         <f>D92</f>
-        <v>TestTow1_2</v>
+        <v>TestTow2_2</v>
       </c>
       <c r="R91" s="3">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow1_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow2_2</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="J92" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow1_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow2_2</v>
       </c>
       <c r="K92" s="3">
         <v>1</v>
@@ -5504,49 +6406,49 @@
         <v>2</v>
       </c>
       <c r="M92" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O92" s="3">
         <v>0</v>
       </c>
       <c r="P92" s="3">
         <f>INT(P91*3)</f>
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="Q92" s="3" t="str">
         <f>D93</f>
-        <v>TestTow1_3</v>
+        <v>TestTow2_3</v>
       </c>
       <c r="R92" s="3">
         <v>3</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C93" s="3">
         <v>3</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow1_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow2_3</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>218</v>
+        <v>240</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J93" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow1_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow2_3</v>
       </c>
       <c r="K93" s="3">
         <v>1</v>
@@ -5555,42 +6457,42 @@
         <v>3</v>
       </c>
       <c r="M93" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
       </c>
       <c r="P93" s="3">
         <f>INT(P92*3)</f>
-        <v>1260</v>
+        <v>1134</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow3_1</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="J94" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow3_1</v>
       </c>
       <c r="K94" s="3">
         <v>1</v>
@@ -5610,38 +6512,38 @@
       </c>
       <c r="Q94" s="3" t="str">
         <f>D95</f>
-        <v>TestTow2_2</v>
+        <v>TestTow3_2</v>
       </c>
       <c r="R94" s="3">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C95" s="3">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow3_2</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="J95" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow3_2</v>
       </c>
       <c r="K95" s="3">
         <v>1</v>
@@ -5661,38 +6563,38 @@
       </c>
       <c r="Q95" s="3" t="str">
         <f>D96</f>
-        <v>TestTow2_3</v>
+        <v>TestTow3_3</v>
       </c>
       <c r="R95" s="3">
         <v>3</v>
       </c>
       <c r="S95" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow2_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow3_3</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="J96" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow2_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow3_3</v>
       </c>
       <c r="K96" s="3">
         <v>1</v>
@@ -5711,32 +6613,32 @@
         <v>1134</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow3_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow4_1</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J97" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow3_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow4_1</v>
       </c>
       <c r="K97" s="3">
         <v>1</v>
@@ -5756,38 +6658,38 @@
       </c>
       <c r="Q97" s="3" t="str">
         <f>D98</f>
-        <v>TestTow3_2</v>
+        <v>TestTow4_2</v>
       </c>
       <c r="R97" s="3">
         <v>3</v>
       </c>
       <c r="S97" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C98" s="3">
         <v>2</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow3_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow4_2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="J98" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow3_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow4_2</v>
       </c>
       <c r="K98" s="3">
         <v>1</v>
@@ -5807,38 +6709,38 @@
       </c>
       <c r="Q98" s="3" t="str">
         <f>D99</f>
-        <v>TestTow3_3</v>
+        <v>TestTow4_3</v>
       </c>
       <c r="R98" s="3">
         <v>3</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow3_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow4_3</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>218</v>
+        <v>240</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="J99" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow3_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow4_3</v>
       </c>
       <c r="K99" s="3">
         <v>1</v>
@@ -5857,32 +6759,32 @@
         <v>1134</v>
       </c>
       <c r="S99" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow4_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow5_1</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="J100" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow4_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow5_1</v>
       </c>
       <c r="K100" s="3">
         <v>1</v>
@@ -5891,49 +6793,49 @@
         <v>1</v>
       </c>
       <c r="M100" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <f>INT(M100*0.7)</f>
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Q100" s="3" t="str">
         <f>D101</f>
-        <v>TestTow4_2</v>
+        <v>TestTow5_2</v>
       </c>
       <c r="R100" s="3">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C101" s="3">
         <v>2</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow4_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow5_2</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="J101" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow4_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow5_2</v>
       </c>
       <c r="K101" s="3">
         <v>1</v>
@@ -5942,49 +6844,49 @@
         <v>2</v>
       </c>
       <c r="M101" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
         <f>INT(P100*3)</f>
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="Q101" s="3" t="str">
         <f>D102</f>
-        <v>TestTow4_3</v>
+        <v>TestTow5_3</v>
       </c>
       <c r="R101" s="3">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C102" s="3">
         <v>3</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow4_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow5_3</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>218</v>
+        <v>240</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="J102" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow4_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow5_3</v>
       </c>
       <c r="K102" s="3">
         <v>1</v>
@@ -5993,42 +6895,42 @@
         <v>3</v>
       </c>
       <c r="M102" s="3">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
         <f>INT(P101*3)</f>
-        <v>1134</v>
+        <v>1260</v>
       </c>
       <c r="S102" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow5_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow6_1</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J103" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow5_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow6_1</v>
       </c>
       <c r="K103" s="3">
         <v>1</v>
@@ -6037,49 +6939,49 @@
         <v>1</v>
       </c>
       <c r="M103" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O103" s="3">
         <v>0</v>
       </c>
       <c r="P103" s="3">
         <f>INT(M103*0.7)</f>
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="Q103" s="3" t="str">
         <f>D104</f>
-        <v>TestTow5_2</v>
+        <v>TestTow6_2</v>
       </c>
       <c r="R103" s="3">
         <v>3</v>
       </c>
       <c r="S103" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow5_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow6_2</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J104" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow5_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow6_2</v>
       </c>
       <c r="K104" s="3">
         <v>1</v>
@@ -6088,49 +6990,49 @@
         <v>2</v>
       </c>
       <c r="M104" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O104" s="3">
         <v>0</v>
       </c>
       <c r="P104" s="3">
         <f>INT(P103*3)</f>
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="Q104" s="3" t="str">
         <f>D105</f>
-        <v>TestTow5_3</v>
+        <v>TestTow6_3</v>
       </c>
       <c r="R104" s="3">
         <v>3</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C105" s="3">
         <v>3</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow5_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow6_3</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J105" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow5_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow6_3</v>
       </c>
       <c r="K105" s="3">
         <v>1</v>
@@ -6139,42 +7041,42 @@
         <v>3</v>
       </c>
       <c r="M105" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="O105" s="3">
         <v>0</v>
       </c>
       <c r="P105" s="3">
         <f>INT(P104*3)</f>
-        <v>1260</v>
+        <v>1575</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow6_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow7_1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J106" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow6_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow7_1</v>
       </c>
       <c r="K106" s="3">
         <v>1</v>
@@ -6183,49 +7085,49 @@
         <v>1</v>
       </c>
       <c r="M106" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O106" s="3">
         <v>0</v>
       </c>
       <c r="P106" s="3">
         <f>INT(M106*0.7)</f>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="Q106" s="3" t="str">
         <f>D107</f>
-        <v>TestTow6_2</v>
+        <v>TestTow7_2</v>
       </c>
       <c r="R106" s="3">
         <v>3</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C107" s="3">
         <v>2</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow6_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow7_2</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="J107" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow6_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow7_2</v>
       </c>
       <c r="K107" s="3">
         <v>1</v>
@@ -6234,49 +7136,49 @@
         <v>2</v>
       </c>
       <c r="M107" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O107" s="3">
         <v>0</v>
       </c>
       <c r="P107" s="3">
         <f>INT(P106*3)</f>
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="Q107" s="3" t="str">
         <f>D108</f>
-        <v>TestTow6_3</v>
+        <v>TestTow7_3</v>
       </c>
       <c r="R107" s="3">
         <v>3</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow6_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow7_3</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="J108" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow6_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow7_3</v>
       </c>
       <c r="K108" s="3">
         <v>1</v>
@@ -6285,42 +7187,42 @@
         <v>3</v>
       </c>
       <c r="M108" s="3">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="O108" s="3">
         <v>0</v>
       </c>
       <c r="P108" s="3">
         <f>INT(P107*3)</f>
-        <v>1575</v>
+        <v>1260</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow7_1</v>
+        <f t="shared" si="1"/>
+        <v>TestTow8_1</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="J109" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow7_1</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow8_1</v>
       </c>
       <c r="K109" s="3">
         <v>1</v>
@@ -6340,38 +7242,38 @@
       </c>
       <c r="Q109" s="3" t="str">
         <f>D110</f>
-        <v>TestTow7_2</v>
+        <v>TestTow8_2</v>
       </c>
       <c r="R109" s="3">
         <v>3</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow7_2</v>
+        <f t="shared" si="1"/>
+        <v>TestTow8_2</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="J110" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow7_2</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow8_2</v>
       </c>
       <c r="K110" s="3">
         <v>1</v>
@@ -6391,38 +7293,38 @@
       </c>
       <c r="Q110" s="3" t="str">
         <f>D111</f>
-        <v>TestTow7_3</v>
+        <v>TestTow8_3</v>
       </c>
       <c r="R110" s="3">
         <v>3</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C111" s="3">
         <v>3</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow7_3</v>
+        <f t="shared" si="1"/>
+        <v>TestTow8_3</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>218</v>
+        <v>240</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="J111" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow7_3</v>
+        <f t="shared" si="2"/>
+        <v>Unit_TestTow8_3</v>
       </c>
       <c r="K111" s="3">
         <v>1</v>
@@ -6441,153 +7343,7 @@
         <v>1260</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B112" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow8_1</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J112" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow8_1</v>
-      </c>
-      <c r="K112" s="3">
-        <v>1</v>
-      </c>
-      <c r="L112" s="3">
-        <v>1</v>
-      </c>
-      <c r="M112" s="3">
-        <v>200</v>
-      </c>
-      <c r="O112" s="3">
-        <v>0</v>
-      </c>
-      <c r="P112" s="3">
-        <f>INT(M112*0.7)</f>
-        <v>140</v>
-      </c>
-      <c r="Q112" s="3" t="str">
-        <f>D113</f>
-        <v>TestTow8_2</v>
-      </c>
-      <c r="R112" s="3">
-        <v>3</v>
-      </c>
-      <c r="S112" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B113" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C113" s="3">
-        <v>2</v>
-      </c>
-      <c r="D113" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow8_2</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J113" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow8_2</v>
-      </c>
-      <c r="K113" s="3">
-        <v>1</v>
-      </c>
-      <c r="L113" s="3">
-        <v>2</v>
-      </c>
-      <c r="M113" s="3">
-        <v>200</v>
-      </c>
-      <c r="O113" s="3">
-        <v>0</v>
-      </c>
-      <c r="P113" s="3">
-        <f>INT(P112*3)</f>
-        <v>420</v>
-      </c>
-      <c r="Q113" s="3" t="str">
-        <f>D114</f>
-        <v>TestTow8_3</v>
-      </c>
-      <c r="R113" s="3">
-        <v>3</v>
-      </c>
-      <c r="S113" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B114" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C114" s="3">
-        <v>3</v>
-      </c>
-      <c r="D114" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>TestTow8_3</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="J114" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Unit_TestTow8_3</v>
-      </c>
-      <c r="K114" s="3">
-        <v>1</v>
-      </c>
-      <c r="L114" s="3">
-        <v>3</v>
-      </c>
-      <c r="M114" s="3">
-        <v>200</v>
-      </c>
-      <c r="O114" s="3">
-        <v>0</v>
-      </c>
-      <c r="P114" s="3">
-        <f>INT(P113*3)</f>
-        <v>1260</v>
-      </c>
-      <c r="S114" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947DD82-39BB-44C7-8323-BD1469796B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A76F2-F2B5-49D9-B277-5C0CD5FCD0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="274">
   <si>
     <t>##var</t>
   </si>
@@ -856,6 +856,24 @@
   <si>
     <t>辅助列</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorialCfgId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=TutorialCfgCategory?</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指引视频</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Video_Platform</t>
+  </si>
+  <si>
+    <t>Video_Poision</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
@@ -1130,6 +1148,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1238,6 +1262,8 @@
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
       <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -1312,16 +1338,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速</v>
+            <v>快速单体，能应对各种情况</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>225</v>
+            <v>180</v>
           </cell>
           <cell r="I2">
-            <v>1012</v>
+            <v>648</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -1359,16 +1385,16 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速</v>
+            <v>快速群体，能应对各种情况</v>
           </cell>
           <cell r="G3">
             <v>17</v>
           </cell>
           <cell r="H3">
-            <v>76</v>
+            <v>61</v>
           </cell>
           <cell r="I3">
-            <v>344</v>
+            <v>220</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
@@ -1388,25 +1414,25 @@
             <v>3</v>
           </cell>
           <cell r="C4">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D4">
-            <v>200</v>
+            <v>400</v>
           </cell>
           <cell r="E4">
-            <v>200</v>
+            <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>灼烧</v>
+            <v>直线群体，高级后可灼烧</v>
           </cell>
           <cell r="G4">
-            <v>9</v>
+            <v>17</v>
           </cell>
           <cell r="H4">
-            <v>40</v>
+            <v>61</v>
           </cell>
           <cell r="I4">
-            <v>182</v>
+            <v>220</v>
           </cell>
           <cell r="J4">
             <v>0.3</v>
@@ -1430,7 +1456,7 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.75</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="5">
@@ -1441,25 +1467,25 @@
             <v>2</v>
           </cell>
           <cell r="C5">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D5">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E5">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>远处加成</v>
+            <v>圆形群体</v>
           </cell>
           <cell r="G5">
-            <v>4</v>
+            <v>7</v>
           </cell>
           <cell r="H5">
-            <v>18</v>
+            <v>25</v>
           </cell>
           <cell r="I5">
-            <v>81</v>
+            <v>90</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -1485,25 +1511,25 @@
             <v>2</v>
           </cell>
           <cell r="C6">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D6">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E6">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>蓄力</v>
+            <v>慢速单体，单发伤害高</v>
           </cell>
           <cell r="G6">
-            <v>300</v>
+            <v>480</v>
           </cell>
           <cell r="H6">
-            <v>1350</v>
+            <v>1728</v>
           </cell>
           <cell r="I6">
-            <v>3037</v>
+            <v>3110</v>
           </cell>
           <cell r="J6">
             <v>2</v>
@@ -1529,25 +1555,25 @@
             <v>3</v>
           </cell>
           <cell r="C7">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D7">
-            <v>200</v>
+            <v>400</v>
           </cell>
           <cell r="E7">
-            <v>200</v>
+            <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成</v>
+            <v>高处加成，单体</v>
           </cell>
           <cell r="G7">
-            <v>133</v>
+            <v>373</v>
           </cell>
           <cell r="H7">
-            <v>598</v>
+            <v>1342</v>
           </cell>
           <cell r="I7">
-            <v>538</v>
+            <v>2417</v>
           </cell>
           <cell r="J7">
             <v>1</v>
@@ -1594,10 +1620,10 @@
             <v>33</v>
           </cell>
           <cell r="H8">
-            <v>148</v>
+            <v>118</v>
           </cell>
           <cell r="I8">
-            <v>668</v>
+            <v>427</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -1629,13 +1655,13 @@
             <v>2</v>
           </cell>
           <cell r="C9">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D9">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E9">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F9" t="str">
             <v>生产金币</v>
@@ -1688,7 +1714,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速</v>
+            <v>加速友军</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -1729,25 +1755,25 @@
             <v>2</v>
           </cell>
           <cell r="C11">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D11">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E11">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>中毒</v>
+            <v>单体，让敌人中毒</v>
           </cell>
           <cell r="G11">
-            <v>75</v>
+            <v>120</v>
           </cell>
           <cell r="H11">
-            <v>337</v>
+            <v>432</v>
           </cell>
           <cell r="I11">
-            <v>1518</v>
+            <v>1555</v>
           </cell>
           <cell r="J11">
             <v>1</v>
@@ -1779,7 +1805,7 @@
             <v>炸弹</v>
           </cell>
           <cell r="B12">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="C12">
             <v>1</v>
@@ -1791,16 +1817,16 @@
             <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型</v>
+            <v>消耗型，用完造成一次高额伤害</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
           </cell>
           <cell r="H12">
-            <v>9000</v>
+            <v>7200</v>
           </cell>
           <cell r="I12">
-            <v>40500</v>
+            <v>25920</v>
           </cell>
           <cell r="J12">
             <v>0</v>
@@ -1838,16 +1864,16 @@
             <v>100</v>
           </cell>
           <cell r="F13" t="str">
-            <v>偷金币</v>
+            <v>攻击偷金币</v>
           </cell>
           <cell r="G13">
             <v>50</v>
           </cell>
           <cell r="H13">
-            <v>225</v>
+            <v>180</v>
           </cell>
           <cell r="I13">
-            <v>1012</v>
+            <v>648</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1882,25 +1908,25 @@
             <v>2</v>
           </cell>
           <cell r="C14">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D14">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E14">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线</v>
+            <v>抛物线群体，打远处伤害高</v>
           </cell>
           <cell r="G14">
-            <v>65</v>
+            <v>104</v>
           </cell>
           <cell r="H14">
-            <v>292</v>
+            <v>374</v>
           </cell>
           <cell r="I14">
-            <v>1316</v>
+            <v>1347</v>
           </cell>
           <cell r="J14">
             <v>2</v>
@@ -1923,28 +1949,28 @@
             <v>魔像</v>
           </cell>
           <cell r="B15">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D15">
-            <v>150</v>
+            <v>400</v>
           </cell>
           <cell r="E15">
-            <v>150</v>
+            <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>击退</v>
+            <v>扇形群体，可击退敌人</v>
           </cell>
           <cell r="G15">
-            <v>100</v>
+            <v>373</v>
           </cell>
           <cell r="H15">
-            <v>450</v>
+            <v>1342</v>
           </cell>
           <cell r="I15">
-            <v>2025</v>
+            <v>4834</v>
           </cell>
           <cell r="J15">
             <v>2</v>
@@ -1973,25 +1999,25 @@
             <v>2</v>
           </cell>
           <cell r="C16">
-            <v>1</v>
+            <v>1.2</v>
           </cell>
           <cell r="D16">
-            <v>150</v>
+            <v>200</v>
           </cell>
           <cell r="E16">
-            <v>150</v>
+            <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>穿透</v>
+            <v>直线群体，子弹可穿透</v>
           </cell>
           <cell r="G16">
-            <v>100</v>
+            <v>160</v>
           </cell>
           <cell r="H16">
-            <v>450</v>
+            <v>576</v>
           </cell>
           <cell r="I16">
-            <v>2025</v>
+            <v>2073</v>
           </cell>
           <cell r="J16">
             <v>2</v>
@@ -2014,28 +2040,28 @@
             <v>奥术天球</v>
           </cell>
           <cell r="B17">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="C17">
-            <v>1</v>
+            <v>1.4</v>
           </cell>
           <cell r="D17">
-            <v>150</v>
+            <v>400</v>
           </cell>
           <cell r="E17">
-            <v>150</v>
+            <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>多弹道</v>
+            <v>同时发射多弹道，可单可群</v>
           </cell>
           <cell r="G17">
-            <v>50</v>
+            <v>187</v>
           </cell>
           <cell r="H17">
-            <v>225</v>
+            <v>673</v>
           </cell>
           <cell r="I17">
-            <v>1518</v>
+            <v>1615</v>
           </cell>
           <cell r="J17">
             <v>2</v>
@@ -2054,12 +2080,142 @@
           </cell>
           <cell r="O17">
             <v>9</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24" t="str">
+            <v>弩箭塔</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>快速单体，能应对各种情况</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25" t="str">
+            <v>加农炮</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>快速群体，能应对各种情况</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>直线群体，高级后可灼烧</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>圆形群体</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>慢速单体，单发伤害高</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>高处加成，单体</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v>冰魔塔</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>减速</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>生产金币</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>加速友军</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>单体，让敌人中毒</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>消耗型，用完造成一次高额伤害</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>攻击偷金币</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36" t="str">
+            <v>火箭塔</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>抛物线群体，打远处伤害高</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>扇形群体，可击退敌人</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38" t="str">
+            <v>水晶</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>直线群体，子弹可穿透</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>同时发射多弹道，可单可群</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2323,11 +2479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6:P50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="D19:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2337,18 +2493,19 @@
     <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="49.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="3" customWidth="1"/>
-    <col min="11" max="12" width="4.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="4.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.75" style="3" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="20.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="4.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="3" customWidth="1"/>
+    <col min="15" max="16" width="4.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="3" customWidth="1"/>
+    <col min="18" max="19" width="10.875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="23.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2366,47 +2523,50 @@
       <c r="G1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2576,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2428,9 +2588,10 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="4"/>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2448,47 +2609,50 @@
       <c r="G3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="T3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="U3" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2498,7 +2662,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2510,9 +2674,10 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="T4" s="5"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -2530,50 +2695,53 @@
       <c r="G5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="U5" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
@@ -2586,44 +2754,45 @@
       <c r="G6" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="7"/>
+      <c r="K6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
       <c r="L6" s="3">
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <f>VLOOKUP(U6,[1]防御塔!$A:$Q,4,FALSE)*3^(V6-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <f>VLOOKUP(V6,[1]防御塔!$A:$Q,4,FALSE)*3^(W6-1)</f>
         <v>100</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
       <c r="P6" s="3">
-        <f>M6*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>N6*0.8</f>
         <v>80</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="3">
-        <v>3</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="V6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2636,43 +2805,44 @@
       <c r="G7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="11"/>
+      <c r="K7" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
       <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="3">
-        <f>VLOOKUP(U7,[1]防御塔!$A:$Q,4,FALSE)*3^(V7-1)</f>
+      <c r="N7" s="3">
+        <f>VLOOKUP(V7,[1]防御塔!$A:$Q,4,FALSE)*3^(W7-1)</f>
         <v>300</v>
       </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
       <c r="P7" s="3">
-        <f t="shared" ref="P7:P50" si="0">M7*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" ref="Q7:Q53" si="0">N7*0.8</f>
         <v>240</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="3">
-        <v>3</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="S7" s="3">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="V7" s="13">
+      <c r="W7" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
@@ -2685,37 +2855,38 @@
       <c r="G8" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="11"/>
+      <c r="K8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
       <c r="L8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
-        <f>VLOOKUP(U8,[1]防御塔!$A:$Q,4,FALSE)*3^(V8-1)</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <f>VLOOKUP(V8,[1]防御塔!$A:$Q,4,FALSE)*3^(W8-1)</f>
         <v>900</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" s="3" t="s">
+      <c r="T8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="V8" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
@@ -2728,43 +2899,43 @@
       <c r="G9" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="3">
-        <f>VLOOKUP(U9,[1]防御塔!$A:$Q,4,FALSE)*3^(V9-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <f>VLOOKUP(V9,[1]防御塔!$A:$Q,4,FALSE)*3^(W9-1)</f>
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="3">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="V9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>52</v>
       </c>
@@ -2777,43 +2948,43 @@
       <c r="G10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
       <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
         <v>2</v>
       </c>
-      <c r="M10" s="3">
-        <f>VLOOKUP(U10,[1]防御塔!$A:$Q,4,FALSE)*3^(V10-1)</f>
+      <c r="N10" s="3">
+        <f>VLOOKUP(V10,[1]防御塔!$A:$Q,4,FALSE)*3^(W10-1)</f>
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="3">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="V10" s="13">
+      <c r="W10" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
@@ -2826,37 +2997,37 @@
       <c r="G11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
       <c r="L11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
-        <f>VLOOKUP(U11,[1]防御塔!$A:$Q,4,FALSE)*3^(V11-1)</f>
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <f>VLOOKUP(V11,[1]防御塔!$A:$Q,4,FALSE)*3^(W11-1)</f>
         <v>900</v>
       </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
       <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" s="3" t="s">
+      <c r="T11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="V11" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
@@ -2869,276 +3040,282 @@
       <c r="G12" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="H12" s="11"/>
+      <c r="K12" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
       <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12" s="3">
-        <f>VLOOKUP(U12,[1]防御塔!$A:$Q,4,FALSE)*3^(V12-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f>VLOOKUP(V12,[1]防御塔!$A:$Q,4,FALSE)*3^(W12-1)</f>
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="K13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <f>VLOOKUP(V13,[1]防御塔!$A:$Q,4,FALSE)*3^(W13-1)</f>
+        <v>1200</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="3">
+        <v>3</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="K14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <f>VLOOKUP(V14,[1]防御塔!$A:$Q,4,FALSE)*3^(W14-1)</f>
+        <v>3600</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <f>VLOOKUP(V15,[1]防御塔!$A:$Q,4,FALSE)*3^(W15-1)</f>
         <v>200</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="V12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="R15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" s="3">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="H16" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
         <v>2</v>
       </c>
-      <c r="M13" s="3">
-        <f>VLOOKUP(U13,[1]防御塔!$A:$Q,4,FALSE)*3^(V13-1)</f>
+      <c r="N16" s="3">
+        <f>VLOOKUP(V16,[1]防御塔!$A:$Q,4,FALSE)*3^(W16-1)</f>
         <v>600</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="3">
-        <v>3</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="V13" s="13">
+      <c r="R16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="W16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <f>VLOOKUP(U14,[1]防御塔!$A:$Q,4,FALSE)*3^(V14-1)</f>
+      <c r="K17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <f>VLOOKUP(V17,[1]防御塔!$A:$Q,4,FALSE)*3^(W17-1)</f>
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="V14" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <f>VLOOKUP(U15,[1]防御塔!$A:$Q,4,FALSE)*3^(V15-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" s="3" t="s">
+      <c r="T17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="V15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2</v>
-      </c>
-      <c r="M16" s="3">
-        <f>VLOOKUP(U16,[1]防御塔!$A:$Q,4,FALSE)*3^(V16-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="3">
-        <v>3</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="V16" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
-        <f>VLOOKUP(U17,[1]防御塔!$A:$Q,4,FALSE)*3^(V17-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="V17" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3151,43 +3328,44 @@
       <c r="G18" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="11"/>
+      <c r="K18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
       <c r="L18" s="3">
         <v>1</v>
       </c>
       <c r="M18" s="3">
-        <f>VLOOKUP(U18,[1]防御塔!$A:$Q,4,FALSE)*3^(V18-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <f>VLOOKUP(V18,[1]防御塔!$A:$Q,4,FALSE)*3^(W18-1)</f>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R18" s="3">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="3" t="s">
+      <c r="S18" s="3">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
@@ -3200,43 +3378,44 @@
       <c r="G19" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="11"/>
+      <c r="K19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
       <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
         <v>2</v>
       </c>
-      <c r="M19" s="3">
-        <f>VLOOKUP(U19,[1]防御塔!$A:$Q,4,FALSE)*3^(V19-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
+      <c r="N19" s="3">
+        <f>VLOOKUP(V19,[1]防御塔!$A:$Q,4,FALSE)*3^(W19-1)</f>
+        <v>600</v>
       </c>
       <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q19" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="3">
-        <v>3</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" s="3" t="s">
+      <c r="S19" s="3">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V19" s="13">
+      <c r="W19" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
@@ -3249,37 +3428,38 @@
       <c r="G20" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="11"/>
+      <c r="K20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
       <c r="L20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
-        <f>VLOOKUP(U20,[1]防御塔!$A:$Q,4,FALSE)*3^(V20-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <f>VLOOKUP(V20,[1]防御塔!$A:$Q,4,FALSE)*3^(W20-1)</f>
+        <v>1800</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V20" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>66</v>
       </c>
@@ -3292,699 +3472,716 @@
       <c r="G21" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="H21" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
       <c r="L21" s="3">
         <v>1</v>
       </c>
       <c r="M21" s="3">
-        <f>VLOOKUP(U21,[1]防御塔!$A:$Q,4,FALSE)*3^(V21-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <f>VLOOKUP(V21,[1]防御塔!$A:$Q,4,FALSE)*3^(W21-1)</f>
+        <v>400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="K22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22" s="3">
+        <f>VLOOKUP(V22,[1]防御塔!$A:$Q,4,FALSE)*3^(W22-1)</f>
+        <v>1200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="K23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <f>VLOOKUP(V23,[1]防御塔!$A:$Q,4,FALSE)*3^(W23-1)</f>
+        <v>3600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W23" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="K24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <f>VLOOKUP(V24,[1]防御塔!$A:$Q,4,FALSE)*3^(W24-1)</f>
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="3">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="K25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
+        <f>VLOOKUP(V25,[1]防御塔!$A:$Q,4,FALSE)*3^(W25-1)</f>
+        <v>300</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="3">
+        <v>3</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="K26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <f>VLOOKUP(V26,[1]防御塔!$A:$Q,4,FALSE)*3^(W26-1)</f>
+        <v>900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W26" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="K27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <f>VLOOKUP(V27,[1]防御塔!$A:$Q,4,FALSE)*3^(W27-1)</f>
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S27" s="3">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="W27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="K28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <f>VLOOKUP(V28,[1]防御塔!$A:$Q,4,FALSE)*3^(W28-1)</f>
+        <v>300</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" s="3">
+        <v>3</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="K29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <f>VLOOKUP(V29,[1]防御塔!$A:$Q,4,FALSE)*3^(W29-1)</f>
+        <v>900</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="K30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <f>VLOOKUP(V30,[1]防御塔!$A:$Q,4,FALSE)*3^(W30-1)</f>
+        <v>200</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="3">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="V21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="R30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="S30" s="3">
+        <v>3</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="F31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="H31" s="11"/>
+      <c r="K31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
         <v>2</v>
       </c>
-      <c r="M22" s="3">
-        <f>VLOOKUP(U22,[1]防御塔!$A:$Q,4,FALSE)*3^(V22-1)</f>
+      <c r="N31" s="3">
+        <f>VLOOKUP(V31,[1]防御塔!$A:$Q,4,FALSE)*3^(W31-1)</f>
         <v>600</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="V22" s="13">
+      <c r="R31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S31" s="3">
+        <v>3</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W31" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="3" t="s">
+    <row r="32" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="F32" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <f>VLOOKUP(U23,[1]防御塔!$A:$Q,4,FALSE)*3^(V23-1)</f>
+      <c r="H32" s="11"/>
+      <c r="K32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <f>VLOOKUP(V32,[1]防御塔!$A:$Q,4,FALSE)*3^(W32-1)</f>
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="V23" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="T32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="W32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="F33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <f>VLOOKUP(U24,[1]防御塔!$A:$Q,4,FALSE)*3^(V24-1)</f>
+      <c r="H33" s="11"/>
+      <c r="K33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <f>VLOOKUP(V33,[1]防御塔!$A:$Q,4,FALSE)*3^(W33-1)</f>
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R24" s="3">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="R33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S33" s="3">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="F34" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="H34" s="11"/>
+      <c r="K34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
         <v>2</v>
       </c>
-      <c r="M25" s="3">
-        <f>VLOOKUP(U25,[1]防御塔!$A:$Q,4,FALSE)*3^(V25-1)</f>
+      <c r="N34" s="3">
+        <f>VLOOKUP(V34,[1]防御塔!$A:$Q,4,FALSE)*3^(W34-1)</f>
         <v>300</v>
       </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R25" s="3">
-        <v>3</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V25" s="13">
+      <c r="R34" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S34" s="3">
+        <v>3</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="3" t="s">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F35" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
-        <f>VLOOKUP(U26,[1]防御塔!$A:$Q,4,FALSE)*3^(V26-1)</f>
+      <c r="H35" s="11"/>
+      <c r="K35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
+        <f>VLOOKUP(V35,[1]防御塔!$A:$Q,4,FALSE)*3^(W35-1)</f>
         <v>900</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V26" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <f>VLOOKUP(U27,[1]防御塔!$A:$Q,4,FALSE)*3^(V27-1)</f>
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27" s="3">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2</v>
-      </c>
-      <c r="M28" s="3">
-        <f>VLOOKUP(U28,[1]防御塔!$A:$Q,4,FALSE)*3^(V28-1)</f>
-        <v>300</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R28" s="3">
-        <v>3</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V28" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3">
-        <f>VLOOKUP(U29,[1]防御塔!$A:$Q,4,FALSE)*3^(V29-1)</f>
-        <v>900</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V29" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <f>VLOOKUP(U30,[1]防御塔!$A:$Q,4,FALSE)*3^(V30-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R30" s="3">
-        <v>3</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="V30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
-      <c r="M31" s="3">
-        <f>VLOOKUP(U31,[1]防御塔!$A:$Q,4,FALSE)*3^(V31-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R31" s="3">
-        <v>3</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="V31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
-        <f>VLOOKUP(U32,[1]防御塔!$A:$Q,4,FALSE)*3^(V32-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="V32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <f>VLOOKUP(U33,[1]防御塔!$A:$Q,4,FALSE)*3^(V33-1)</f>
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U33" s="13" t="s">
+      <c r="T35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="V33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3">
-        <v>2</v>
-      </c>
-      <c r="M34" s="3">
-        <f>VLOOKUP(U34,[1]防御塔!$A:$Q,4,FALSE)*3^(V34-1)</f>
-        <v>300</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R34" s="3">
-        <v>3</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="V34" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D35" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
-        <f>VLOOKUP(U35,[1]防御塔!$A:$Q,4,FALSE)*3^(V35-1)</f>
-        <v>900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="V35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>232</v>
       </c>
@@ -3997,44 +4194,45 @@
       <c r="G36" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="11"/>
+      <c r="K36" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
       <c r="L36" s="3">
         <v>1</v>
       </c>
       <c r="M36" s="3">
-        <f>VLOOKUP(U36,[1]防御塔!$A:$Q,4,FALSE)*3^(V36-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <f>VLOOKUP(V36,[1]防御塔!$A:$Q,4,FALSE)*3^(W36-1)</f>
         <v>70</v>
       </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
       <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="R36" s="3">
-        <v>3</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T36"/>
-      <c r="U36" s="13" t="s">
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U36"/>
+      <c r="V36" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="V36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>234</v>
       </c>
@@ -4047,44 +4245,45 @@
       <c r="G37" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="H37" s="11"/>
+      <c r="K37" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
       <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
         <v>2</v>
       </c>
-      <c r="M37" s="3">
-        <f>VLOOKUP(U37,[1]防御塔!$A:$Q,4,FALSE)*3^(V37-1)</f>
+      <c r="N37" s="3">
+        <f>VLOOKUP(V37,[1]防御塔!$A:$Q,4,FALSE)*3^(W37-1)</f>
         <v>210</v>
       </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
       <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="R37" s="3">
-        <v>3</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T37"/>
-      <c r="U37" s="13" t="s">
+      <c r="S37" s="3">
+        <v>3</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37"/>
+      <c r="V37" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="V37" s="3">
+      <c r="W37" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>236</v>
       </c>
@@ -4097,38 +4296,39 @@
       <c r="G38" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="H38" s="11"/>
+      <c r="K38" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
       <c r="L38" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" s="3">
-        <f>VLOOKUP(U38,[1]防御塔!$A:$Q,4,FALSE)*3^(V38-1)</f>
+        <v>3</v>
+      </c>
+      <c r="N38" s="3">
+        <f>VLOOKUP(V38,[1]防御塔!$A:$Q,4,FALSE)*3^(W38-1)</f>
         <v>630</v>
       </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
       <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T38"/>
-      <c r="U38" s="13" t="s">
+      <c r="T38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U38"/>
+      <c r="V38" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="V38" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="D39" s="3" t="s">
         <v>85</v>
@@ -4142,46 +4342,47 @@
       <c r="G39" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H39"/>
+      <c r="H39" s="11"/>
       <c r="I39"/>
-      <c r="J39" s="3" t="s">
+      <c r="J39"/>
+      <c r="K39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
       <c r="L39" s="3">
         <v>1</v>
       </c>
       <c r="M39" s="3">
-        <f>VLOOKUP(U39,[1]防御塔!$A:$Q,4,FALSE)*3^(V39-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <f>VLOOKUP(V39,[1]防御塔!$A:$Q,4,FALSE)*3^(W39-1)</f>
+        <v>400</v>
       </c>
       <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q39" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R39" s="3">
-        <v>3</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T39"/>
-      <c r="U39" s="13" t="s">
+      <c r="S39" s="3">
+        <v>3</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U39"/>
+      <c r="V39" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="V39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="D40" s="3" t="s">
         <v>87</v>
@@ -4195,46 +4396,47 @@
       <c r="G40" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H40"/>
+      <c r="H40" s="11"/>
       <c r="I40"/>
-      <c r="J40" s="3" t="s">
+      <c r="J40"/>
+      <c r="K40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="3">
-        <v>1</v>
-      </c>
       <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
         <v>2</v>
       </c>
-      <c r="M40" s="3">
-        <f>VLOOKUP(U40,[1]防御塔!$A:$Q,4,FALSE)*3^(V40-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
+      <c r="N40" s="3">
+        <f>VLOOKUP(V40,[1]防御塔!$A:$Q,4,FALSE)*3^(W40-1)</f>
+        <v>1200</v>
       </c>
       <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q40" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R40" s="3">
-        <v>3</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T40"/>
-      <c r="U40" s="13" t="s">
+      <c r="S40" s="3">
+        <v>3</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U40"/>
+      <c r="V40" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="V40" s="3">
+      <c r="W40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="D41" s="3" t="s">
         <v>89</v>
@@ -4248,40 +4450,41 @@
       <c r="G41" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H41"/>
+      <c r="H41" s="11"/>
       <c r="I41"/>
-      <c r="J41" s="3" t="s">
+      <c r="J41"/>
+      <c r="K41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
       <c r="L41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41" s="3">
-        <f>VLOOKUP(U41,[1]防御塔!$A:$Q,4,FALSE)*3^(V41-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
+        <f>VLOOKUP(V41,[1]防御塔!$A:$Q,4,FALSE)*3^(W41-1)</f>
+        <v>3600</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41"/>
-      <c r="U41" s="13" t="s">
+        <v>2880</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="V41" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="D42" s="3" t="s">
         <v>133</v>
@@ -4295,46 +4498,47 @@
       <c r="G42" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H42"/>
+      <c r="H42" s="11"/>
       <c r="I42"/>
-      <c r="J42" s="3" t="s">
+      <c r="J42"/>
+      <c r="K42" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
       <c r="L42" s="3">
         <v>1</v>
       </c>
       <c r="M42" s="3">
-        <f>VLOOKUP(U42,[1]防御塔!$A:$Q,4,FALSE)*3^(V42-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <f>VLOOKUP(V42,[1]防御塔!$A:$Q,4,FALSE)*3^(W42-1)</f>
+        <v>200</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R42" s="3">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42"/>
-      <c r="U42" s="13" t="s">
+      <c r="S42" s="3">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42"/>
+      <c r="V42" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="V42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="D43" s="3" t="s">
         <v>134</v>
@@ -4348,46 +4552,47 @@
       <c r="G43" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H43"/>
+      <c r="H43" s="11"/>
       <c r="I43"/>
-      <c r="J43" s="3" t="s">
+      <c r="J43"/>
+      <c r="K43" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
       <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
         <v>2</v>
       </c>
-      <c r="M43" s="3">
-        <f>VLOOKUP(U43,[1]防御塔!$A:$Q,4,FALSE)*3^(V43-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <f>VLOOKUP(V43,[1]防御塔!$A:$Q,4,FALSE)*3^(W43-1)</f>
+        <v>600</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q43" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R43" s="3">
-        <v>3</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43"/>
-      <c r="U43" s="13" t="s">
+      <c r="S43" s="3">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43"/>
+      <c r="V43" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="D44" s="3" t="s">
         <v>135</v>
@@ -4401,40 +4606,41 @@
       <c r="G44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H44"/>
+      <c r="H44" s="11"/>
       <c r="I44"/>
-      <c r="J44" s="3" t="s">
+      <c r="J44"/>
+      <c r="K44" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
       <c r="L44" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44" s="3">
-        <f>VLOOKUP(U44,[1]防御塔!$A:$Q,4,FALSE)*3^(V44-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <f>VLOOKUP(V44,[1]防御塔!$A:$Q,4,FALSE)*3^(W44-1)</f>
+        <v>1800</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T44"/>
-      <c r="U44" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U44"/>
+      <c r="V44" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="V44" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="D45" s="3" t="s">
         <v>166</v>
@@ -4448,46 +4654,47 @@
       <c r="G45" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H45"/>
+      <c r="H45" s="11"/>
       <c r="I45"/>
-      <c r="J45" s="3" t="s">
+      <c r="J45"/>
+      <c r="K45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K45" s="3">
-        <v>1</v>
-      </c>
       <c r="L45" s="3">
         <v>1</v>
       </c>
       <c r="M45" s="3">
-        <f>VLOOKUP(U45,[1]防御塔!$A:$Q,4,FALSE)*3^(V45-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <f>VLOOKUP(V45,[1]防御塔!$A:$Q,4,FALSE)*3^(W45-1)</f>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R45" s="3">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T45"/>
-      <c r="U45" s="13" t="s">
+      <c r="S45" s="3">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U45"/>
+      <c r="V45" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="V45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="D46" s="3" t="s">
         <v>168</v>
@@ -4501,46 +4708,47 @@
       <c r="G46" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H46"/>
+      <c r="H46" s="11"/>
       <c r="I46"/>
-      <c r="J46" s="3" t="s">
+      <c r="J46"/>
+      <c r="K46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
       <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
         <v>2</v>
       </c>
-      <c r="M46" s="3">
-        <f>VLOOKUP(U46,[1]防御塔!$A:$Q,4,FALSE)*3^(V46-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="N46" s="3">
+        <f>VLOOKUP(V46,[1]防御塔!$A:$Q,4,FALSE)*3^(W46-1)</f>
+        <v>600</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q46" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="R46" s="3">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T46"/>
-      <c r="U46" s="13" t="s">
+      <c r="S46" s="3">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U46"/>
+      <c r="V46" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="D47" s="3" t="s">
         <v>170</v>
@@ -4554,40 +4762,41 @@
       <c r="G47" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H47"/>
+      <c r="H47" s="11"/>
       <c r="I47"/>
-      <c r="J47" s="3" t="s">
+      <c r="J47"/>
+      <c r="K47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
       <c r="L47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47" s="3">
-        <f>VLOOKUP(U47,[1]防御塔!$A:$Q,4,FALSE)*3^(V47-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <f>VLOOKUP(V47,[1]防御塔!$A:$Q,4,FALSE)*3^(W47-1)</f>
+        <v>1800</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T47"/>
-      <c r="U47" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U47"/>
+      <c r="V47" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="V47" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="D48" s="3" t="s">
         <v>241</v>
@@ -4601,46 +4810,47 @@
       <c r="G48" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H48"/>
+      <c r="H48" s="11"/>
       <c r="I48"/>
-      <c r="J48" s="3" t="s">
+      <c r="J48"/>
+      <c r="K48" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
       <c r="L48" s="3">
         <v>1</v>
       </c>
       <c r="M48" s="3">
-        <f>VLOOKUP(U48,[1]防御塔!$A:$Q,4,FALSE)*3^(V48-1)</f>
-        <v>150</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N48" s="3">
+        <f>VLOOKUP(V48,[1]防御塔!$A:$Q,4,FALSE)*3^(W48-1)</f>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="Q48" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="R48" s="3">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T48"/>
-      <c r="U48" s="13" t="s">
+      <c r="S48" s="3">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U48"/>
+      <c r="V48" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="V48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="D49" s="3" t="s">
         <v>242</v>
@@ -4654,46 +4864,47 @@
       <c r="G49" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H49"/>
+      <c r="H49" s="11"/>
       <c r="I49"/>
-      <c r="J49" s="3" t="s">
+      <c r="J49"/>
+      <c r="K49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
       <c r="L49" s="3">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3">
         <v>2</v>
       </c>
-      <c r="M49" s="3">
-        <f>VLOOKUP(U49,[1]防御塔!$A:$Q,4,FALSE)*3^(V49-1)</f>
-        <v>450</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3">
+        <f>VLOOKUP(V49,[1]防御塔!$A:$Q,4,FALSE)*3^(W49-1)</f>
+        <v>1200</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="Q49" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="R49" s="3">
-        <v>3</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T49"/>
-      <c r="U49" s="13" t="s">
+      <c r="S49" s="3">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U49"/>
+      <c r="V49" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="D50" s="3" t="s">
         <v>243</v>
@@ -4707,214 +4918,234 @@
       <c r="G50" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H50"/>
+      <c r="H50" s="11"/>
       <c r="I50"/>
-      <c r="J50" s="3" t="s">
+      <c r="J50"/>
+      <c r="K50" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
       <c r="L50" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" s="3">
-        <f>VLOOKUP(U50,[1]防御塔!$A:$Q,4,FALSE)*3^(V50-1)</f>
-        <v>1350</v>
-      </c>
-      <c r="O50" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N50" s="3">
+        <f>VLOOKUP(V50,[1]防御塔!$A:$Q,4,FALSE)*3^(W50-1)</f>
+        <v>3600</v>
       </c>
       <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
         <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T50"/>
-      <c r="U50" s="13" t="s">
+        <v>2880</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U50"/>
+      <c r="V50" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="V50" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="3">
-        <v>999</v>
-      </c>
-      <c r="D52" s="3" t="str">
-        <f>B52&amp;"_"&amp;C52</f>
-        <v>TowCallMonster_999</v>
+      <c r="W50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="K51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3">
+        <f>VLOOKUP(V51,[1]防御塔!$A:$Q,4,FALSE)*3^(W51-1)</f>
+        <v>200</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S51" s="3">
+        <v>3</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="W51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="F52" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52" s="12"/>
       <c r="K52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>43</v>
+        <v>94</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="3">
+        <f>VLOOKUP(V52,[1]防御塔!$A:$Q,4,FALSE)*3^(W52-1)</f>
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S52" s="3">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V52" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="W52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
-      <c r="M54" s="3">
-        <v>150</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>127</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R54" s="3">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C55" s="13" t="s">
+      <c r="F53" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="K53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
+        <v>3</v>
+      </c>
+      <c r="N53" s="3">
+        <f>VLOOKUP(V53,[1]防御塔!$A:$Q,4,FALSE)*3^(W53-1)</f>
+        <v>1800</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V53" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>93</v>
+      <c r="W53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3">
+        <v>999</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f>B55&amp;"_"&amp;C55</f>
+        <v>TowCallMonster_999</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>191</v>
+      <c r="G55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" s="3">
+        <v>5</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3">
-        <v>2</v>
-      </c>
-      <c r="M55" s="3">
-        <v>450</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
-        <v>382</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R55" s="3">
-        <v>3</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C56" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
-        <v>3</v>
-      </c>
-      <c r="M56" s="3">
-        <v>1350</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
-        <v>1147</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" s="3">
+        <v>200</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
         <v>204</v>
       </c>
@@ -4930,35 +5161,35 @@
       <c r="G57" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K57" s="3">
-        <v>1</v>
-      </c>
       <c r="L57" s="3">
         <v>1</v>
       </c>
       <c r="M57" s="3">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3">
         <v>170</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>170</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R57" s="3">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="s">
         <v>204</v>
       </c>
@@ -4974,35 +5205,35 @@
       <c r="G58" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
       <c r="L58" s="3">
+        <v>1</v>
+      </c>
+      <c r="M58" s="3">
         <v>2</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>510</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>510</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R58" s="3">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
         <v>204</v>
       </c>
@@ -5018,29 +5249,29 @@
       <c r="G59" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
       <c r="L59" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59" s="3">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>1530</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1530</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
         <v>205</v>
       </c>
@@ -5056,35 +5287,36 @@
       <c r="G60" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="H60" s="12"/>
+      <c r="K60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
       <c r="L60" s="3">
         <v>1</v>
       </c>
       <c r="M60" s="3">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3">
         <v>170</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>170</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="R60" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R60" s="3">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
         <v>205</v>
       </c>
@@ -5100,35 +5332,36 @@
       <c r="G61" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="H61" s="12"/>
+      <c r="K61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
       <c r="L61" s="3">
+        <v>1</v>
+      </c>
+      <c r="M61" s="3">
         <v>2</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>510</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>510</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="R61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R61" s="3">
-        <v>3</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>3</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="s">
         <v>205</v>
       </c>
@@ -5144,29 +5377,30 @@
       <c r="G62" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="H62" s="12"/>
+      <c r="K62" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
       <c r="L62" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62" s="3">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>1530</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1530</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="s">
         <v>206</v>
       </c>
@@ -5182,35 +5416,36 @@
       <c r="G63" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="H63" s="11"/>
+      <c r="K63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K63" s="3">
-        <v>1</v>
-      </c>
       <c r="L63" s="3">
         <v>1</v>
       </c>
       <c r="M63" s="3">
+        <v>1</v>
+      </c>
+      <c r="N63" s="3">
         <v>200</v>
       </c>
-      <c r="O63" s="3">
-        <v>0</v>
-      </c>
       <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
         <v>255</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="R63" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="R63" s="3">
-        <v>3</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>3</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="s">
         <v>206</v>
       </c>
@@ -5226,35 +5461,36 @@
       <c r="G64" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="H64" s="11"/>
+      <c r="K64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
       <c r="L64" s="3">
+        <v>1</v>
+      </c>
+      <c r="M64" s="3">
         <v>2</v>
       </c>
-      <c r="M64" s="3">
+      <c r="N64" s="3">
         <v>600</v>
       </c>
-      <c r="O64" s="3">
-        <v>0</v>
-      </c>
       <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
         <v>765</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="R64" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="R64" s="3">
-        <v>3</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>3</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="s">
         <v>206</v>
       </c>
@@ -5270,29 +5506,30 @@
       <c r="G65" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="H65" s="11"/>
+      <c r="K65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
       <c r="L65" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M65" s="3">
+        <v>3</v>
+      </c>
+      <c r="N65" s="3">
         <v>1800</v>
       </c>
-      <c r="O65" s="3">
-        <v>0</v>
-      </c>
       <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
         <v>2295</v>
       </c>
-      <c r="S65" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="s">
         <v>207</v>
       </c>
@@ -5308,35 +5545,35 @@
       <c r="G66" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K66" s="3">
-        <v>1</v>
-      </c>
       <c r="L66" s="3">
         <v>1</v>
       </c>
       <c r="M66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3">
         <v>170</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>170</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="R66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R66" s="3">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="s">
         <v>207</v>
       </c>
@@ -5352,35 +5589,35 @@
       <c r="G67" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K67" s="3">
-        <v>1</v>
-      </c>
       <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
         <v>2</v>
       </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
         <v>510</v>
       </c>
-      <c r="O67" s="3">
-        <v>0</v>
-      </c>
       <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
         <v>510</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="R67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R67" s="3">
-        <v>3</v>
-      </c>
-      <c r="S67" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S67" s="3">
+        <v>3</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="s">
         <v>207</v>
       </c>
@@ -5396,29 +5633,29 @@
       <c r="G68" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K68" s="3">
-        <v>1</v>
-      </c>
       <c r="L68" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68" s="3">
+        <v>3</v>
+      </c>
+      <c r="N68" s="3">
         <v>1530</v>
       </c>
-      <c r="O68" s="3">
-        <v>0</v>
-      </c>
       <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
         <v>1530</v>
       </c>
-      <c r="S68" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="s">
         <v>208</v>
       </c>
@@ -5434,35 +5671,36 @@
       <c r="G69" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="H69" s="11"/>
+      <c r="K69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
       <c r="L69" s="3">
         <v>1</v>
       </c>
       <c r="M69" s="3">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3">
         <v>170</v>
       </c>
-      <c r="O69" s="3">
-        <v>0</v>
-      </c>
       <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
         <v>170</v>
       </c>
-      <c r="Q69" s="3" t="s">
+      <c r="R69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="R69" s="3">
-        <v>3</v>
-      </c>
-      <c r="S69" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>3</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="s">
         <v>208</v>
       </c>
@@ -5478,35 +5716,36 @@
       <c r="G70" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="H70" s="11"/>
+      <c r="K70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K70" s="3">
-        <v>1</v>
-      </c>
       <c r="L70" s="3">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3">
         <v>2</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>510</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>510</v>
       </c>
-      <c r="Q70" s="3" t="s">
+      <c r="R70" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="R70" s="3">
-        <v>3</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>3</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="s">
         <v>208</v>
       </c>
@@ -5522,29 +5761,30 @@
       <c r="G71" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="H71" s="11"/>
+      <c r="K71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
       <c r="L71" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71" s="3">
+        <v>3</v>
+      </c>
+      <c r="N71" s="3">
         <v>1530</v>
       </c>
-      <c r="O71" s="3">
-        <v>0</v>
-      </c>
       <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
         <v>1530</v>
       </c>
-      <c r="S71" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C72" s="13" t="s">
         <v>209</v>
       </c>
@@ -5560,35 +5800,35 @@
       <c r="G72" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K72" s="3">
-        <v>1</v>
-      </c>
       <c r="L72" s="3">
         <v>1</v>
       </c>
       <c r="M72" s="3">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>255</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="R72" s="3">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C73" s="13" t="s">
         <v>209</v>
       </c>
@@ -5604,35 +5844,35 @@
       <c r="G73" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K73" s="3">
-        <v>1</v>
-      </c>
       <c r="L73" s="3">
+        <v>1</v>
+      </c>
+      <c r="M73" s="3">
         <v>2</v>
       </c>
-      <c r="M73" s="3">
+      <c r="N73" s="3">
         <v>600</v>
       </c>
-      <c r="O73" s="3">
-        <v>0</v>
-      </c>
       <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
         <v>765</v>
       </c>
-      <c r="Q73" s="3" t="s">
+      <c r="R73" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="R73" s="3">
-        <v>3</v>
-      </c>
-      <c r="S73" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>3</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C74" s="13" t="s">
         <v>209</v>
       </c>
@@ -5648,29 +5888,29 @@
       <c r="G74" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
       <c r="L74" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M74" s="3">
+        <v>3</v>
+      </c>
+      <c r="N74" s="3">
         <v>1800</v>
       </c>
-      <c r="O74" s="3">
-        <v>0</v>
-      </c>
       <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
         <v>2295</v>
       </c>
-      <c r="S74" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
         <v>210</v>
       </c>
@@ -5686,35 +5926,36 @@
       <c r="G75" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="H75" s="12"/>
+      <c r="K75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K75" s="3">
-        <v>1</v>
-      </c>
       <c r="L75" s="3">
         <v>1</v>
       </c>
       <c r="M75" s="3">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3">
         <v>170</v>
       </c>
-      <c r="O75" s="3">
-        <v>0</v>
-      </c>
       <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
         <v>170</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="R75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R75" s="3">
-        <v>3</v>
-      </c>
-      <c r="S75" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>3</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C76" s="13" t="s">
         <v>210</v>
       </c>
@@ -5730,35 +5971,36 @@
       <c r="G76" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="H76" s="12"/>
+      <c r="K76" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K76" s="3">
-        <v>1</v>
-      </c>
       <c r="L76" s="3">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
         <v>2</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>510</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>510</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="R76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R76" s="3">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
         <v>210</v>
       </c>
@@ -5774,29 +6016,30 @@
       <c r="G77" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="H77" s="12"/>
+      <c r="K77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K77" s="3">
-        <v>1</v>
-      </c>
       <c r="L77" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77" s="3">
+        <v>3</v>
+      </c>
+      <c r="N77" s="3">
         <v>1530</v>
       </c>
-      <c r="O77" s="3">
-        <v>0</v>
-      </c>
       <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
         <v>1530</v>
       </c>
-      <c r="S77" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C78" s="13" t="s">
         <v>211</v>
       </c>
@@ -5812,35 +6055,36 @@
       <c r="G78" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="H78" s="11"/>
+      <c r="K78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K78" s="3">
-        <v>1</v>
-      </c>
       <c r="L78" s="3">
         <v>1</v>
       </c>
       <c r="M78" s="3">
+        <v>1</v>
+      </c>
+      <c r="N78" s="3">
         <v>150</v>
       </c>
-      <c r="O78" s="3">
-        <v>0</v>
-      </c>
       <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
         <v>127</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="R78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R78" s="3">
-        <v>3</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S78" s="3">
+        <v>3</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C79" s="13" t="s">
         <v>211</v>
       </c>
@@ -5856,35 +6100,36 @@
       <c r="G79" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="H79" s="11"/>
+      <c r="K79" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K79" s="3">
-        <v>1</v>
-      </c>
       <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
         <v>2</v>
       </c>
-      <c r="M79" s="3">
+      <c r="N79" s="3">
         <v>450</v>
       </c>
-      <c r="O79" s="3">
-        <v>0</v>
-      </c>
       <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3">
         <v>382</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="R79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R79" s="3">
-        <v>3</v>
-      </c>
-      <c r="S79" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S79" s="3">
+        <v>3</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C80" s="13" t="s">
         <v>211</v>
       </c>
@@ -5900,29 +6145,30 @@
       <c r="G80" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="H80" s="11"/>
+      <c r="K80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K80" s="3">
-        <v>1</v>
-      </c>
       <c r="L80" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" s="3">
+        <v>3</v>
+      </c>
+      <c r="N80" s="3">
         <v>1350</v>
       </c>
-      <c r="O80" s="3">
-        <v>0</v>
-      </c>
       <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
         <v>1147</v>
       </c>
-      <c r="S80" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C81" s="13" t="s">
         <v>212</v>
       </c>
@@ -5938,35 +6184,36 @@
       <c r="G81" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="H81" s="11"/>
+      <c r="K81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K81" s="3">
-        <v>1</v>
-      </c>
       <c r="L81" s="3">
         <v>1</v>
       </c>
       <c r="M81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81" s="3">
         <v>150</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>127</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="R81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="R81" s="3">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C82" s="13" t="s">
         <v>212</v>
       </c>
@@ -5982,35 +6229,36 @@
       <c r="G82" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="H82" s="11"/>
+      <c r="K82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K82" s="3">
-        <v>1</v>
-      </c>
       <c r="L82" s="3">
+        <v>1</v>
+      </c>
+      <c r="M82" s="3">
         <v>2</v>
       </c>
-      <c r="M82" s="3">
+      <c r="N82" s="3">
         <v>450</v>
       </c>
-      <c r="O82" s="3">
-        <v>0</v>
-      </c>
       <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
         <v>382</v>
       </c>
-      <c r="Q82" s="3" t="s">
+      <c r="R82" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R82" s="3">
-        <v>3</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S82" s="3">
+        <v>3</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
         <v>212</v>
       </c>
@@ -6026,29 +6274,30 @@
       <c r="G83" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="H83" s="11"/>
+      <c r="K83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K83" s="3">
-        <v>1</v>
-      </c>
       <c r="L83" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M83" s="3">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>1350</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1147</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C84" s="13" t="s">
         <v>214</v>
       </c>
@@ -6064,35 +6313,35 @@
       <c r="G84" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K84" s="3">
-        <v>1</v>
-      </c>
       <c r="L84" s="3">
         <v>1</v>
       </c>
       <c r="M84" s="3">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3">
         <v>150</v>
       </c>
-      <c r="O84" s="3">
-        <v>0</v>
-      </c>
       <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
         <v>127</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="R84" s="3">
-        <v>3</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>3</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C85" s="13" t="s">
         <v>214</v>
       </c>
@@ -6108,35 +6357,35 @@
       <c r="G85" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K85" s="3">
-        <v>1</v>
-      </c>
       <c r="L85" s="3">
+        <v>1</v>
+      </c>
+      <c r="M85" s="3">
         <v>2</v>
       </c>
-      <c r="M85" s="3">
+      <c r="N85" s="3">
         <v>450</v>
       </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
       <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
         <v>382</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="R85" s="3">
-        <v>3</v>
-      </c>
-      <c r="S85" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>3</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C86" s="13" t="s">
         <v>214</v>
       </c>
@@ -6152,32 +6401,32 @@
       <c r="G86" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K86" s="3">
-        <v>1</v>
-      </c>
       <c r="L86" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86" s="3">
+        <v>3</v>
+      </c>
+      <c r="N86" s="3">
         <v>1350</v>
       </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
       <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
         <v>1147</v>
       </c>
-      <c r="S86" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>178</v>
       </c>
@@ -6197,39 +6446,40 @@
       <c r="G88" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="J88" s="3" t="str">
-        <f t="shared" ref="J88:J111" si="2">"Unit_"&amp;D88</f>
+      <c r="H88" s="11"/>
+      <c r="I88" s="7"/>
+      <c r="K88" s="3" t="str">
+        <f t="shared" ref="K88:K111" si="2">"Unit_"&amp;D88</f>
         <v>Unit_TestTow1_1</v>
       </c>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
       <c r="L88" s="3">
         <v>1</v>
       </c>
       <c r="M88" s="3">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3">
         <v>200</v>
       </c>
-      <c r="O88" s="3">
-        <v>0</v>
-      </c>
       <c r="P88" s="3">
-        <f>INT(M88*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <f>INT(N88*0.7)</f>
         <v>140</v>
       </c>
-      <c r="Q88" s="3" t="str">
+      <c r="R88" s="3" t="str">
         <f>D89</f>
         <v>TestTow1_2</v>
       </c>
-      <c r="R88" s="3">
-        <v>3</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>3</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>178</v>
       </c>
@@ -6249,38 +6499,39 @@
       <c r="G89" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J89" s="3" t="str">
+      <c r="H89" s="11"/>
+      <c r="K89" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow1_2</v>
       </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
       <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="M89" s="3">
         <v>2</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <f>INT(P88*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <f>INT(Q88*3)</f>
         <v>420</v>
       </c>
-      <c r="Q89" s="3" t="str">
+      <c r="R89" s="3" t="str">
         <f>D90</f>
         <v>TestTow1_3</v>
       </c>
-      <c r="R89" s="3">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>178</v>
       </c>
@@ -6300,31 +6551,32 @@
       <c r="G90" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J90" s="3" t="str">
+      <c r="H90" s="11"/>
+      <c r="K90" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow1_3</v>
       </c>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
       <c r="L90" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M90" s="3">
+        <v>3</v>
+      </c>
+      <c r="N90" s="3">
         <v>200</v>
       </c>
-      <c r="O90" s="3">
-        <v>0</v>
-      </c>
       <c r="P90" s="3">
-        <f>INT(P89*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <f>INT(Q89*3)</f>
         <v>1260</v>
       </c>
-      <c r="S90" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>179</v>
       </c>
@@ -6344,38 +6596,38 @@
       <c r="G91" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J91" s="3" t="str">
+      <c r="K91" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow2_1</v>
       </c>
-      <c r="K91" s="3">
-        <v>1</v>
-      </c>
       <c r="L91" s="3">
         <v>1</v>
       </c>
       <c r="M91" s="3">
+        <v>1</v>
+      </c>
+      <c r="N91" s="3">
         <v>180</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <f>INT(M91*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <f>INT(N91*0.7)</f>
         <v>126</v>
       </c>
-      <c r="Q91" s="3" t="str">
+      <c r="R91" s="3" t="str">
         <f>D92</f>
         <v>TestTow2_2</v>
       </c>
-      <c r="R91" s="3">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>179</v>
       </c>
@@ -6395,38 +6647,38 @@
       <c r="G92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J92" s="3" t="str">
+      <c r="K92" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow2_2</v>
       </c>
-      <c r="K92" s="3">
-        <v>1</v>
-      </c>
       <c r="L92" s="3">
+        <v>1</v>
+      </c>
+      <c r="M92" s="3">
         <v>2</v>
       </c>
-      <c r="M92" s="3">
+      <c r="N92" s="3">
         <v>180</v>
       </c>
-      <c r="O92" s="3">
-        <v>0</v>
-      </c>
       <c r="P92" s="3">
-        <f>INT(P91*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <f>INT(Q91*3)</f>
         <v>378</v>
       </c>
-      <c r="Q92" s="3" t="str">
+      <c r="R92" s="3" t="str">
         <f>D93</f>
         <v>TestTow2_3</v>
       </c>
-      <c r="R92" s="3">
-        <v>3</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>3</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>179</v>
       </c>
@@ -6446,31 +6698,31 @@
       <c r="G93" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J93" s="3" t="str">
+      <c r="K93" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow2_3</v>
       </c>
-      <c r="K93" s="3">
-        <v>1</v>
-      </c>
       <c r="L93" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93" s="3">
+        <v>3</v>
+      </c>
+      <c r="N93" s="3">
         <v>180</v>
       </c>
-      <c r="O93" s="3">
-        <v>0</v>
-      </c>
       <c r="P93" s="3">
-        <f>INT(P92*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <f>INT(Q92*3)</f>
         <v>1134</v>
       </c>
-      <c r="S93" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>180</v>
       </c>
@@ -6490,38 +6742,39 @@
       <c r="G94" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J94" s="3" t="str">
+      <c r="H94" s="11"/>
+      <c r="K94" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow3_1</v>
       </c>
-      <c r="K94" s="3">
-        <v>1</v>
-      </c>
       <c r="L94" s="3">
         <v>1</v>
       </c>
       <c r="M94" s="3">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3">
         <v>180</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <f>INT(M94*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <f>INT(N94*0.7)</f>
         <v>126</v>
       </c>
-      <c r="Q94" s="3" t="str">
+      <c r="R94" s="3" t="str">
         <f>D95</f>
         <v>TestTow3_2</v>
       </c>
-      <c r="R94" s="3">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>180</v>
       </c>
@@ -6541,38 +6794,39 @@
       <c r="G95" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J95" s="3" t="str">
+      <c r="H95" s="11"/>
+      <c r="K95" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow3_2</v>
       </c>
-      <c r="K95" s="3">
-        <v>1</v>
-      </c>
       <c r="L95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
         <v>2</v>
       </c>
-      <c r="M95" s="3">
+      <c r="N95" s="3">
         <v>180</v>
       </c>
-      <c r="O95" s="3">
-        <v>0</v>
-      </c>
       <c r="P95" s="3">
-        <f>INT(P94*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3">
+        <f>INT(Q94*3)</f>
         <v>378</v>
       </c>
-      <c r="Q95" s="3" t="str">
+      <c r="R95" s="3" t="str">
         <f>D96</f>
         <v>TestTow3_3</v>
       </c>
-      <c r="R95" s="3">
-        <v>3</v>
-      </c>
-      <c r="S95" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S95" s="3">
+        <v>3</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>180</v>
       </c>
@@ -6592,31 +6846,32 @@
       <c r="G96" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J96" s="3" t="str">
+      <c r="H96" s="11"/>
+      <c r="K96" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow3_3</v>
       </c>
-      <c r="K96" s="3">
-        <v>1</v>
-      </c>
       <c r="L96" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M96" s="3">
+        <v>3</v>
+      </c>
+      <c r="N96" s="3">
         <v>180</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
-        <f>INT(P95*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <f>INT(Q95*3)</f>
         <v>1134</v>
       </c>
-      <c r="S96" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>181</v>
       </c>
@@ -6636,38 +6891,38 @@
       <c r="G97" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J97" s="3" t="str">
+      <c r="K97" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow4_1</v>
       </c>
-      <c r="K97" s="3">
-        <v>1</v>
-      </c>
       <c r="L97" s="3">
         <v>1</v>
       </c>
       <c r="M97" s="3">
+        <v>1</v>
+      </c>
+      <c r="N97" s="3">
         <v>180</v>
       </c>
-      <c r="O97" s="3">
-        <v>0</v>
-      </c>
       <c r="P97" s="3">
-        <f>INT(M97*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <f>INT(N97*0.7)</f>
         <v>126</v>
       </c>
-      <c r="Q97" s="3" t="str">
+      <c r="R97" s="3" t="str">
         <f>D98</f>
         <v>TestTow4_2</v>
       </c>
-      <c r="R97" s="3">
-        <v>3</v>
-      </c>
-      <c r="S97" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>3</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>181</v>
       </c>
@@ -6687,38 +6942,38 @@
       <c r="G98" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J98" s="3" t="str">
+      <c r="K98" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow4_2</v>
       </c>
-      <c r="K98" s="3">
-        <v>1</v>
-      </c>
       <c r="L98" s="3">
+        <v>1</v>
+      </c>
+      <c r="M98" s="3">
         <v>2</v>
       </c>
-      <c r="M98" s="3">
+      <c r="N98" s="3">
         <v>180</v>
       </c>
-      <c r="O98" s="3">
-        <v>0</v>
-      </c>
       <c r="P98" s="3">
-        <f>INT(P97*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <f>INT(Q97*3)</f>
         <v>378</v>
       </c>
-      <c r="Q98" s="3" t="str">
+      <c r="R98" s="3" t="str">
         <f>D99</f>
         <v>TestTow4_3</v>
       </c>
-      <c r="R98" s="3">
-        <v>3</v>
-      </c>
-      <c r="S98" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>3</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>181</v>
       </c>
@@ -6738,31 +6993,31 @@
       <c r="G99" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J99" s="3" t="str">
+      <c r="K99" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow4_3</v>
       </c>
-      <c r="K99" s="3">
-        <v>1</v>
-      </c>
       <c r="L99" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M99" s="3">
+        <v>3</v>
+      </c>
+      <c r="N99" s="3">
         <v>180</v>
       </c>
-      <c r="O99" s="3">
-        <v>0</v>
-      </c>
       <c r="P99" s="3">
-        <f>INT(P98*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <f>INT(Q98*3)</f>
         <v>1134</v>
       </c>
-      <c r="S99" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>182</v>
       </c>
@@ -6782,38 +7037,39 @@
       <c r="G100" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J100" s="3" t="str">
+      <c r="H100" s="11"/>
+      <c r="K100" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow5_1</v>
       </c>
-      <c r="K100" s="3">
-        <v>1</v>
-      </c>
       <c r="L100" s="3">
         <v>1</v>
       </c>
       <c r="M100" s="3">
+        <v>1</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <f>INT(M100*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <f>INT(N100*0.7)</f>
         <v>140</v>
       </c>
-      <c r="Q100" s="3" t="str">
+      <c r="R100" s="3" t="str">
         <f>D101</f>
         <v>TestTow5_2</v>
       </c>
-      <c r="R100" s="3">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>182</v>
       </c>
@@ -6833,38 +7089,39 @@
       <c r="G101" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J101" s="3" t="str">
+      <c r="H101" s="11"/>
+      <c r="K101" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow5_2</v>
       </c>
-      <c r="K101" s="3">
-        <v>1</v>
-      </c>
       <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3">
         <v>2</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
-        <f>INT(P100*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <f>INT(Q100*3)</f>
         <v>420</v>
       </c>
-      <c r="Q101" s="3" t="str">
+      <c r="R101" s="3" t="str">
         <f>D102</f>
         <v>TestTow5_3</v>
       </c>
-      <c r="R101" s="3">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>182</v>
       </c>
@@ -6884,31 +7141,32 @@
       <c r="G102" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J102" s="3" t="str">
+      <c r="H102" s="11"/>
+      <c r="K102" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow5_3</v>
       </c>
-      <c r="K102" s="3">
-        <v>1</v>
-      </c>
       <c r="L102" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M102" s="3">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <f>INT(P101*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <f>INT(Q101*3)</f>
         <v>1260</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T102" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>183</v>
       </c>
@@ -6928,38 +7186,39 @@
       <c r="G103" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J103" s="3" t="str">
+      <c r="H103" s="11"/>
+      <c r="K103" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow6_1</v>
       </c>
-      <c r="K103" s="3">
-        <v>1</v>
-      </c>
       <c r="L103" s="3">
         <v>1</v>
       </c>
       <c r="M103" s="3">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3">
         <v>250</v>
       </c>
-      <c r="O103" s="3">
-        <v>0</v>
-      </c>
       <c r="P103" s="3">
-        <f>INT(M103*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="3">
+        <f>INT(N103*0.7)</f>
         <v>175</v>
       </c>
-      <c r="Q103" s="3" t="str">
+      <c r="R103" s="3" t="str">
         <f>D104</f>
         <v>TestTow6_2</v>
       </c>
-      <c r="R103" s="3">
-        <v>3</v>
-      </c>
-      <c r="S103" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S103" s="3">
+        <v>3</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>183</v>
       </c>
@@ -6979,38 +7238,39 @@
       <c r="G104" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J104" s="3" t="str">
+      <c r="H104" s="11"/>
+      <c r="K104" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow6_2</v>
       </c>
-      <c r="K104" s="3">
-        <v>1</v>
-      </c>
       <c r="L104" s="3">
+        <v>1</v>
+      </c>
+      <c r="M104" s="3">
         <v>2</v>
       </c>
-      <c r="M104" s="3">
+      <c r="N104" s="3">
         <v>250</v>
       </c>
-      <c r="O104" s="3">
-        <v>0</v>
-      </c>
       <c r="P104" s="3">
-        <f>INT(P103*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="3">
+        <f>INT(Q103*3)</f>
         <v>525</v>
       </c>
-      <c r="Q104" s="3" t="str">
+      <c r="R104" s="3" t="str">
         <f>D105</f>
         <v>TestTow6_3</v>
       </c>
-      <c r="R104" s="3">
-        <v>3</v>
-      </c>
-      <c r="S104" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S104" s="3">
+        <v>3</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>183</v>
       </c>
@@ -7030,31 +7290,32 @@
       <c r="G105" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J105" s="3" t="str">
+      <c r="H105" s="11"/>
+      <c r="K105" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow6_3</v>
       </c>
-      <c r="K105" s="3">
-        <v>1</v>
-      </c>
       <c r="L105" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M105" s="3">
+        <v>3</v>
+      </c>
+      <c r="N105" s="3">
         <v>250</v>
       </c>
-      <c r="O105" s="3">
-        <v>0</v>
-      </c>
       <c r="P105" s="3">
-        <f>INT(P104*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="3">
+        <f>INT(Q104*3)</f>
         <v>1575</v>
       </c>
-      <c r="S105" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T105" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>184</v>
       </c>
@@ -7074,38 +7335,39 @@
       <c r="G106" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J106" s="3" t="str">
+      <c r="H106" s="11"/>
+      <c r="K106" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow7_1</v>
       </c>
-      <c r="K106" s="3">
-        <v>1</v>
-      </c>
       <c r="L106" s="3">
         <v>1</v>
       </c>
       <c r="M106" s="3">
+        <v>1</v>
+      </c>
+      <c r="N106" s="3">
         <v>200</v>
       </c>
-      <c r="O106" s="3">
-        <v>0</v>
-      </c>
       <c r="P106" s="3">
-        <f>INT(M106*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="3">
+        <f>INT(N106*0.7)</f>
         <v>140</v>
       </c>
-      <c r="Q106" s="3" t="str">
+      <c r="R106" s="3" t="str">
         <f>D107</f>
         <v>TestTow7_2</v>
       </c>
-      <c r="R106" s="3">
-        <v>3</v>
-      </c>
-      <c r="S106" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S106" s="3">
+        <v>3</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>184</v>
       </c>
@@ -7125,38 +7387,39 @@
       <c r="G107" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="J107" s="3" t="str">
+      <c r="H107" s="11"/>
+      <c r="K107" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow7_2</v>
       </c>
-      <c r="K107" s="3">
-        <v>1</v>
-      </c>
       <c r="L107" s="3">
+        <v>1</v>
+      </c>
+      <c r="M107" s="3">
         <v>2</v>
       </c>
-      <c r="M107" s="3">
+      <c r="N107" s="3">
         <v>200</v>
       </c>
-      <c r="O107" s="3">
-        <v>0</v>
-      </c>
       <c r="P107" s="3">
-        <f>INT(P106*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="3">
+        <f>INT(Q106*3)</f>
         <v>420</v>
       </c>
-      <c r="Q107" s="3" t="str">
+      <c r="R107" s="3" t="str">
         <f>D108</f>
         <v>TestTow7_3</v>
       </c>
-      <c r="R107" s="3">
-        <v>3</v>
-      </c>
-      <c r="S107" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S107" s="3">
+        <v>3</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>184</v>
       </c>
@@ -7176,31 +7439,32 @@
       <c r="G108" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="J108" s="3" t="str">
+      <c r="H108" s="11"/>
+      <c r="K108" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow7_3</v>
       </c>
-      <c r="K108" s="3">
-        <v>1</v>
-      </c>
       <c r="L108" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M108" s="3">
+        <v>3</v>
+      </c>
+      <c r="N108" s="3">
         <v>200</v>
       </c>
-      <c r="O108" s="3">
-        <v>0</v>
-      </c>
       <c r="P108" s="3">
-        <f>INT(P107*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="3">
+        <f>INT(Q107*3)</f>
         <v>1260</v>
       </c>
-      <c r="S108" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T108" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>185</v>
       </c>
@@ -7220,38 +7484,39 @@
       <c r="G109" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="J109" s="3" t="str">
+      <c r="H109" s="12"/>
+      <c r="K109" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow8_1</v>
       </c>
-      <c r="K109" s="3">
-        <v>1</v>
-      </c>
       <c r="L109" s="3">
         <v>1</v>
       </c>
       <c r="M109" s="3">
+        <v>1</v>
+      </c>
+      <c r="N109" s="3">
         <v>200</v>
       </c>
-      <c r="O109" s="3">
-        <v>0</v>
-      </c>
       <c r="P109" s="3">
-        <f>INT(M109*0.7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3">
+        <f>INT(N109*0.7)</f>
         <v>140</v>
       </c>
-      <c r="Q109" s="3" t="str">
+      <c r="R109" s="3" t="str">
         <f>D110</f>
         <v>TestTow8_2</v>
       </c>
-      <c r="R109" s="3">
-        <v>3</v>
-      </c>
-      <c r="S109" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S109" s="3">
+        <v>3</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>185</v>
       </c>
@@ -7271,38 +7536,39 @@
       <c r="G110" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="J110" s="3" t="str">
+      <c r="H110" s="12"/>
+      <c r="K110" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow8_2</v>
       </c>
-      <c r="K110" s="3">
-        <v>1</v>
-      </c>
       <c r="L110" s="3">
+        <v>1</v>
+      </c>
+      <c r="M110" s="3">
         <v>2</v>
       </c>
-      <c r="M110" s="3">
+      <c r="N110" s="3">
         <v>200</v>
       </c>
-      <c r="O110" s="3">
-        <v>0</v>
-      </c>
       <c r="P110" s="3">
-        <f>INT(P109*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3">
+        <f>INT(Q109*3)</f>
         <v>420</v>
       </c>
-      <c r="Q110" s="3" t="str">
+      <c r="R110" s="3" t="str">
         <f>D111</f>
         <v>TestTow8_3</v>
       </c>
-      <c r="R110" s="3">
-        <v>3</v>
-      </c>
-      <c r="S110" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S110" s="3">
+        <v>3</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>185</v>
       </c>
@@ -7322,27 +7588,28 @@
       <c r="G111" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J111" s="3" t="str">
+      <c r="H111" s="12"/>
+      <c r="K111" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow8_3</v>
       </c>
-      <c r="K111" s="3">
-        <v>1</v>
-      </c>
       <c r="L111" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M111" s="3">
+        <v>3</v>
+      </c>
+      <c r="N111" s="3">
         <v>200</v>
       </c>
-      <c r="O111" s="3">
-        <v>0</v>
-      </c>
       <c r="P111" s="3">
-        <f>INT(P110*3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3">
+        <f>INT(Q110*3)</f>
         <v>1260</v>
       </c>
-      <c r="S111" s="3" t="s">
+      <c r="T111" s="3" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/TowerDefense/TowerCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\TowerDefense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A76F2-F2B5-49D9-B277-5C0CD5FCD0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF03931-BF3F-41AB-BE2E-5E97E5D64FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="283">
   <si>
     <t>##var</t>
   </si>
@@ -874,6 +874,39 @@
   </si>
   <si>
     <t>Video_Poision</t>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在UI面板中展示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShowInBattleDeckUI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockConditionBase</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>unLockCondition</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockByPVE</t>
+  </si>
+  <si>
+    <t>UnLockDefault</t>
+  </si>
+  <si>
+    <t>UnLockSoon</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
@@ -1154,6 +1187,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1261,6 +1297,7 @@
     <sheetNames>
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
+      <sheetName val="技能"/>
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
@@ -1338,16 +1375,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速单体，能应对各种情况</v>
+            <v>快速单体，2级连发，3级暴击</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>180</v>
+            <v>90</v>
           </cell>
           <cell r="I2">
-            <v>648</v>
+            <v>324</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -1359,12 +1396,15 @@
             <v>9</v>
           </cell>
           <cell r="M2" t="str">
-            <v>3级暴击率/爆伤</v>
+            <v>3级暴击率/爆伤/23级连发数</v>
           </cell>
           <cell r="N2">
             <v>0.15</v>
           </cell>
           <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="P2">
             <v>2</v>
           </cell>
         </row>
@@ -1385,25 +1425,31 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速群体，能应对各种情况</v>
+            <v>快速群体，2级3次高爆弹，3级全高爆弹</v>
           </cell>
           <cell r="G3">
-            <v>17</v>
+            <v>25</v>
           </cell>
           <cell r="H3">
-            <v>61</v>
+            <v>54</v>
           </cell>
           <cell r="I3">
-            <v>220</v>
+            <v>324</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
           </cell>
           <cell r="K3">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="L3">
             <v>9</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>2级高爆倍率</v>
+          </cell>
+          <cell r="N3">
+            <v>3</v>
           </cell>
         </row>
         <row r="4">
@@ -1423,7 +1469,7 @@
             <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>直线群体，高级后可灼烧</v>
+            <v>直线点燃，2级扇形，3级永久点燃</v>
           </cell>
           <cell r="G4">
             <v>17</v>
@@ -1438,7 +1484,7 @@
             <v>0.3</v>
           </cell>
           <cell r="K4">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="L4">
             <v>9</v>
@@ -1447,7 +1493,7 @@
             <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
           </cell>
           <cell r="N4">
-            <v>0.5</v>
+            <v>0.3</v>
           </cell>
           <cell r="O4">
             <v>10</v>
@@ -1456,7 +1502,7 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.5</v>
+            <v>0.7</v>
           </cell>
         </row>
         <row r="5">
@@ -1476,16 +1522,16 @@
             <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>圆形群体</v>
+            <v>圆形群体，2级冰雾减速，3级破甲</v>
           </cell>
           <cell r="G5">
             <v>7</v>
           </cell>
           <cell r="H5">
-            <v>25</v>
+            <v>22</v>
           </cell>
           <cell r="I5">
-            <v>90</v>
+            <v>72</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -1497,10 +1543,16 @@
             <v>9</v>
           </cell>
           <cell r="M5" t="str">
-            <v>远处增伤率</v>
+            <v>远处增伤率/2级减速率/3级减甲价率</v>
           </cell>
           <cell r="N5">
             <v>0.06</v>
+          </cell>
+          <cell r="O5">
+            <v>0.1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.2</v>
           </cell>
         </row>
         <row r="6">
@@ -1520,19 +1572,19 @@
             <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>慢速单体，单发伤害高</v>
+            <v>慢速单体，2级2连发，3级3连发</v>
           </cell>
           <cell r="G6">
-            <v>480</v>
+            <v>600</v>
           </cell>
           <cell r="H6">
-            <v>1728</v>
+            <v>1080</v>
           </cell>
           <cell r="I6">
-            <v>3110</v>
+            <v>2592</v>
           </cell>
           <cell r="J6">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K6">
             <v>1</v>
@@ -1541,10 +1593,13 @@
             <v>9</v>
           </cell>
           <cell r="M6" t="str">
-            <v>3级目标</v>
+            <v>2级目标/3级目标</v>
           </cell>
           <cell r="N6">
             <v>2</v>
+          </cell>
+          <cell r="O6">
+            <v>3</v>
           </cell>
         </row>
         <row r="7">
@@ -1564,7 +1619,7 @@
             <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成，单体</v>
+            <v>高处加成，2级3次眩晕，3级2连</v>
           </cell>
           <cell r="G7">
             <v>373</v>
@@ -1585,7 +1640,7 @@
             <v>7.5</v>
           </cell>
           <cell r="M7" t="str">
-            <v>低处增伤率，3级目标，加成高度</v>
+            <v>低处增伤率，3级目标，加成高度，眩晕时间</v>
           </cell>
           <cell r="N7">
             <v>0.1</v>
@@ -1605,25 +1660,25 @@
             <v>1</v>
           </cell>
           <cell r="C8">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D8">
             <v>100</v>
           </cell>
           <cell r="E8">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F8" t="str">
-            <v>减速</v>
+            <v>减速，2级2目标，3级3目标</v>
           </cell>
           <cell r="G8">
-            <v>33</v>
+            <v>27</v>
           </cell>
           <cell r="H8">
-            <v>118</v>
+            <v>48</v>
           </cell>
           <cell r="I8">
-            <v>427</v>
+            <v>116</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -1714,7 +1769,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速友军</v>
+            <v>加速友军，2级加攻击，3级大范围</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -1735,16 +1790,19 @@
             <v>7.5</v>
           </cell>
           <cell r="M10" t="str">
-            <v>CD减少lv1/2/3</v>
+            <v>CD减少lv1/2/3/23级加攻击</v>
           </cell>
           <cell r="N10">
             <v>0.3</v>
           </cell>
           <cell r="O10">
+            <v>0.4</v>
+          </cell>
+          <cell r="P10">
             <v>0.5</v>
           </cell>
-          <cell r="P10">
-            <v>0.6</v>
+          <cell r="Q10">
+            <v>0.2</v>
           </cell>
         </row>
         <row r="11">
@@ -1764,19 +1822,19 @@
             <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>单体，让敌人中毒</v>
+            <v>单体中毒，2级2目标，3级3目标</v>
           </cell>
           <cell r="G11">
-            <v>120</v>
+            <v>300</v>
           </cell>
           <cell r="H11">
-            <v>432</v>
+            <v>540</v>
           </cell>
           <cell r="I11">
-            <v>1555</v>
+            <v>1296</v>
           </cell>
           <cell r="J11">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="K11">
             <v>1</v>
@@ -1817,7 +1875,7 @@
             <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
+            <v>造成一次高额伤害，2级减速，3级眩晕，</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
@@ -1838,13 +1896,16 @@
             <v>7.5</v>
           </cell>
           <cell r="M12" t="str">
-            <v>伤害/眩晕</v>
+            <v>伤害/眩晕/2级减速率</v>
           </cell>
           <cell r="N12">
             <v>2000</v>
           </cell>
           <cell r="O12">
             <v>3</v>
+          </cell>
+          <cell r="P12">
+            <v>0.5</v>
           </cell>
         </row>
         <row r="13">
@@ -1855,25 +1916,25 @@
             <v>1</v>
           </cell>
           <cell r="C13">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D13">
             <v>100</v>
           </cell>
           <cell r="E13">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F13" t="str">
-            <v>攻击偷金币</v>
+            <v>攻击偷金币，2级远距离，3级偷2此</v>
           </cell>
           <cell r="G13">
-            <v>50</v>
+            <v>40</v>
           </cell>
           <cell r="H13">
-            <v>180</v>
+            <v>144</v>
           </cell>
           <cell r="I13">
-            <v>648</v>
+            <v>518</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1894,7 +1955,7 @@
             <v>4</v>
           </cell>
           <cell r="P13">
-            <v>15</v>
+            <v>8</v>
           </cell>
           <cell r="Q13">
             <v>0.5</v>
@@ -1917,19 +1978,19 @@
             <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线群体，打远处伤害高</v>
+            <v>抛物线群体，2级大范围 ，3级2连发</v>
           </cell>
           <cell r="G14">
-            <v>104</v>
+            <v>130</v>
           </cell>
           <cell r="H14">
-            <v>374</v>
+            <v>468</v>
           </cell>
           <cell r="I14">
-            <v>1347</v>
+            <v>842</v>
           </cell>
           <cell r="J14">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K14">
             <v>3</v>
@@ -1938,10 +1999,13 @@
             <v>9</v>
           </cell>
           <cell r="M14" t="str">
-            <v>远处增伤率lv1/2/3</v>
+            <v>远处增伤率lv1/2/3/3级目标数</v>
           </cell>
           <cell r="N14">
             <v>0.06</v>
+          </cell>
+          <cell r="O14">
+            <v>2</v>
           </cell>
         </row>
         <row r="15">
@@ -1961,19 +2025,19 @@
             <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>扇形群体，可击退敌人</v>
+            <v>扇形击退，2级远距离，3级眩晕</v>
           </cell>
           <cell r="G15">
-            <v>373</v>
+            <v>467</v>
           </cell>
           <cell r="H15">
-            <v>1342</v>
+            <v>1681</v>
           </cell>
           <cell r="I15">
-            <v>4834</v>
+            <v>6052</v>
           </cell>
           <cell r="J15">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K15">
             <v>3</v>
@@ -2008,19 +2072,19 @@
             <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>直线群体，子弹可穿透</v>
+            <v>直线穿透，2级加粗，3级超长</v>
           </cell>
           <cell r="G16">
-            <v>160</v>
+            <v>200</v>
           </cell>
           <cell r="H16">
-            <v>576</v>
+            <v>720</v>
           </cell>
           <cell r="I16">
-            <v>2073</v>
+            <v>2592</v>
           </cell>
           <cell r="J16">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K16">
             <v>3</v>
@@ -2052,162 +2116,82 @@
             <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>同时发射多弹道，可单可群</v>
+            <v>同时发射多弹道，2级加量，3级加范围</v>
           </cell>
           <cell r="G17">
-            <v>187</v>
+            <v>467</v>
           </cell>
           <cell r="H17">
-            <v>673</v>
+            <v>630</v>
           </cell>
           <cell r="I17">
-            <v>1615</v>
+            <v>2269</v>
           </cell>
           <cell r="J17">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K17">
             <v>1</v>
           </cell>
           <cell r="L17">
-            <v>9</v>
+            <v>7.5</v>
           </cell>
           <cell r="M17" t="str">
-            <v>1、2级弹药/3级弹药</v>
+            <v>1级弹药/2级弹药/3级弹药</v>
           </cell>
           <cell r="N17">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="O17">
-            <v>9</v>
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>破甲弹</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>时空结界</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>净化药水</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>强化子弹</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="D24" t="str">
-            <v>弩箭塔</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>快速单体，能应对各种情况</v>
+          <cell r="A24" t="str">
+            <v>雷电领域</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25" t="str">
-            <v>加农炮</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>快速群体，能应对各种情况</v>
+          <cell r="A25" t="str">
+            <v>哥布林召唤</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>直线群体，高级后可灼烧</v>
+          <cell r="A26" t="str">
+            <v>地狱烈焰</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>圆形群体</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>慢速单体，单发伤害高</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>高处加成，单体</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>冰魔塔</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>减速</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>生产金币</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>加速友军</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>单体，让敌人中毒</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>攻击偷金币</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>火箭塔</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>抛物线群体，打远处伤害高</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>扇形群体，可击退敌人</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>水晶</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>直线群体，子弹可穿透</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>同时发射多弹道，可单可群</v>
+          <cell r="A27" t="str">
+            <v>黑洞</v>
           </cell>
         </row>
       </sheetData>
@@ -2216,6 +2200,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2479,11 +2464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V19" sqref="D19:V19"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2493,19 +2478,21 @@
     <col min="4" max="5" width="17.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="49.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="4.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="3" customWidth="1"/>
-    <col min="15" max="16" width="4.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.75" style="3" customWidth="1"/>
-    <col min="18" max="19" width="10.875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="20.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="3" customWidth="1"/>
+    <col min="11" max="12" width="9.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="4.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="4.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="3" customWidth="1"/>
+    <col min="20" max="21" width="10.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="23.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2526,47 +2513,53 @@
       <c r="H1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2577,8 +2570,8 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2589,9 +2582,11 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2612,23 +2607,23 @@
       <c r="H3" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>21</v>
@@ -2637,22 +2632,28 @@
         <v>22</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="W3" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2664,8 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -2675,9 +2676,11 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="17"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
@@ -2698,50 +2701,56 @@
       <c r="H5" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="W5" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
@@ -2754,45 +2763,53 @@
       <c r="G6" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7"/>
-      <c r="K6" s="3" t="s">
+      <c r="H6" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="M6" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
       <c r="N6" s="3">
-        <f>VLOOKUP(V6,[1]防御塔!$A:$Q,4,FALSE)*3^(W6-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <f>VLOOKUP(X6,[1]防御塔!$A:$Q,4,FALSE)*3^(Y6-1)</f>
         <v>100</v>
       </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <f>N6*0.8</f>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <f>P6*0.8</f>
         <v>80</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="3">
-        <v>3</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>48</v>
+      <c r="U6" s="3">
+        <v>3</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
@@ -2805,44 +2822,52 @@
       <c r="G7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="K7" s="3" t="s">
+      <c r="H7" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="3">
-        <f>VLOOKUP(V7,[1]防御塔!$A:$Q,4,FALSE)*3^(W7-1)</f>
+      <c r="P7" s="3">
+        <f>VLOOKUP(X7,[1]防御塔!$A:$Q,4,FALSE)*3^(Y7-1)</f>
         <v>300</v>
       </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <f t="shared" ref="Q7:Q53" si="0">N7*0.8</f>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" ref="S7:S53" si="0">P7*0.8</f>
         <v>240</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="3">
-        <v>3</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>48</v>
+      <c r="U7" s="3">
+        <v>3</v>
       </c>
       <c r="V7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W7" s="13">
+      <c r="Y7" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>49</v>
       </c>
@@ -2855,38 +2880,46 @@
       <c r="G8" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="K8" s="3" t="s">
+      <c r="H8" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3</v>
-      </c>
       <c r="N8" s="3">
-        <f>VLOOKUP(V8,[1]防御塔!$A:$Q,4,FALSE)*3^(W8-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <f>VLOOKUP(X8,[1]防御塔!$A:$Q,4,FALSE)*3^(Y8-1)</f>
         <v>900</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="W8" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>50</v>
       </c>
@@ -2899,43 +2932,52 @@
       <c r="G9" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="H9" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
       <c r="N9" s="3">
-        <f>VLOOKUP(V9,[1]防御塔!$A:$Q,4,FALSE)*3^(W9-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <f>VLOOKUP(X9,[1]防御塔!$A:$Q,4,FALSE)*3^(Y9-1)</f>
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="3">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>48</v>
+      <c r="U9" s="3">
+        <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="W9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>52</v>
       </c>
@@ -2948,43 +2990,52 @@
       <c r="G10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="H10" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <v>2</v>
       </c>
-      <c r="N10" s="3">
-        <f>VLOOKUP(V10,[1]防御塔!$A:$Q,4,FALSE)*3^(W10-1)</f>
+      <c r="P10" s="3">
+        <f>VLOOKUP(X10,[1]防御塔!$A:$Q,4,FALSE)*3^(Y10-1)</f>
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="3">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>48</v>
+      <c r="U10" s="3">
+        <v>3</v>
       </c>
       <c r="V10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="W10" s="13">
+      <c r="Y10" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
@@ -2997,37 +3048,46 @@
       <c r="G11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="H11" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
       <c r="N11" s="3">
-        <f>VLOOKUP(V11,[1]防御塔!$A:$Q,4,FALSE)*3^(W11-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <f>VLOOKUP(X11,[1]防御塔!$A:$Q,4,FALSE)*3^(Y11-1)</f>
         <v>900</v>
       </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="W11" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y11" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
@@ -3040,44 +3100,52 @@
       <c r="G12" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="K12" s="3" t="s">
+      <c r="H12" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
       <c r="N12" s="3">
-        <f>VLOOKUP(V12,[1]防御塔!$A:$Q,4,FALSE)*3^(W12-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <f>VLOOKUP(X12,[1]防御塔!$A:$Q,4,FALSE)*3^(Y12-1)</f>
         <v>400</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="3">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>48</v>
+      <c r="U12" s="3">
+        <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="W12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
@@ -3090,44 +3158,52 @@
       <c r="G13" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="K13" s="3" t="s">
+      <c r="H13" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
         <v>2</v>
       </c>
-      <c r="N13" s="3">
-        <f>VLOOKUP(V13,[1]防御塔!$A:$Q,4,FALSE)*3^(W13-1)</f>
+      <c r="P13" s="3">
+        <f>VLOOKUP(X13,[1]防御塔!$A:$Q,4,FALSE)*3^(Y13-1)</f>
         <v>1200</v>
       </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="3">
-        <v>3</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>48</v>
+      <c r="U13" s="3">
+        <v>3</v>
       </c>
       <c r="V13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="W13" s="13">
+      <c r="Y13" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>56</v>
       </c>
@@ -3140,38 +3216,46 @@
       <c r="G14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="K14" s="3" t="s">
+      <c r="H14" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3</v>
-      </c>
       <c r="N14" s="3">
-        <f>VLOOKUP(V14,[1]防御塔!$A:$Q,4,FALSE)*3^(W14-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <f>VLOOKUP(X14,[1]防御塔!$A:$Q,4,FALSE)*3^(Y14-1)</f>
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="W14" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
@@ -3184,43 +3268,52 @@
       <c r="G15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="H15" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
       <c r="N15" s="3">
-        <f>VLOOKUP(V15,[1]防御塔!$A:$Q,4,FALSE)*3^(W15-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <f>VLOOKUP(X15,[1]防御塔!$A:$Q,4,FALSE)*3^(Y15-1)</f>
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="3">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>48</v>
+      <c r="U15" s="3">
+        <v>3</v>
       </c>
       <c r="V15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="W15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>58</v>
       </c>
@@ -3236,43 +3329,49 @@
       <c r="H16" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="3">
-        <f>VLOOKUP(V16,[1]防御塔!$A:$Q,4,FALSE)*3^(W16-1)</f>
+      <c r="P16" s="3">
+        <f>VLOOKUP(X16,[1]防御塔!$A:$Q,4,FALSE)*3^(Y16-1)</f>
         <v>600</v>
       </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S16" s="3">
-        <v>3</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>48</v>
+      <c r="U16" s="3">
+        <v>3</v>
       </c>
       <c r="V16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="W16" s="13">
+      <c r="Y16" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -3285,37 +3384,46 @@
       <c r="G17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="H17" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3</v>
-      </c>
       <c r="N17" s="3">
-        <f>VLOOKUP(V17,[1]防御塔!$A:$Q,4,FALSE)*3^(W17-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <f>VLOOKUP(X17,[1]防御塔!$A:$Q,4,FALSE)*3^(Y17-1)</f>
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="W17" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
@@ -3328,44 +3436,52 @@
       <c r="G18" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="K18" s="3" t="s">
+      <c r="H18" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
       <c r="N18" s="3">
-        <f>VLOOKUP(V18,[1]防御塔!$A:$Q,4,FALSE)*3^(W18-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <f>VLOOKUP(X18,[1]防御塔!$A:$Q,4,FALSE)*3^(Y18-1)</f>
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S18" s="3">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>48</v>
+      <c r="U18" s="3">
+        <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="W18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
@@ -3378,44 +3494,52 @@
       <c r="G19" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="K19" s="3" t="s">
+      <c r="H19" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
         <v>2</v>
       </c>
-      <c r="N19" s="3">
-        <f>VLOOKUP(V19,[1]防御塔!$A:$Q,4,FALSE)*3^(W19-1)</f>
+      <c r="P19" s="3">
+        <f>VLOOKUP(X19,[1]防御塔!$A:$Q,4,FALSE)*3^(Y19-1)</f>
         <v>600</v>
       </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S19" s="3">
-        <v>3</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>48</v>
+      <c r="U19" s="3">
+        <v>3</v>
       </c>
       <c r="V19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="W19" s="13">
+      <c r="Y19" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
@@ -3428,38 +3552,46 @@
       <c r="G20" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="K20" s="3" t="s">
+      <c r="H20" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3</v>
-      </c>
       <c r="N20" s="3">
-        <f>VLOOKUP(V20,[1]防御塔!$A:$Q,4,FALSE)*3^(W20-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <f>VLOOKUP(X20,[1]防御塔!$A:$Q,4,FALSE)*3^(Y20-1)</f>
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="W20" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>66</v>
       </c>
@@ -3475,43 +3607,49 @@
       <c r="H21" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
       <c r="N21" s="3">
-        <f>VLOOKUP(V21,[1]防御塔!$A:$Q,4,FALSE)*3^(W21-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3">
+        <f>VLOOKUP(X21,[1]防御塔!$A:$Q,4,FALSE)*3^(Y21-1)</f>
         <v>400</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="3">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>48</v>
+      <c r="U21" s="3">
+        <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="W21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>68</v>
       </c>
@@ -3524,44 +3662,52 @@
       <c r="G22" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="K22" s="3" t="s">
+      <c r="H22" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <v>2</v>
       </c>
-      <c r="N22" s="3">
-        <f>VLOOKUP(V22,[1]防御塔!$A:$Q,4,FALSE)*3^(W22-1)</f>
+      <c r="P22" s="3">
+        <f>VLOOKUP(X22,[1]防御塔!$A:$Q,4,FALSE)*3^(Y22-1)</f>
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="3">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>48</v>
+      <c r="U22" s="3">
+        <v>3</v>
       </c>
       <c r="V22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="W22" s="13">
+      <c r="Y22" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
@@ -3574,38 +3720,46 @@
       <c r="G23" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="K23" s="3" t="s">
+      <c r="H23" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I23" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
       <c r="N23" s="3">
-        <f>VLOOKUP(V23,[1]防御塔!$A:$Q,4,FALSE)*3^(W23-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
+        <f>VLOOKUP(X23,[1]防御塔!$A:$Q,4,FALSE)*3^(Y23-1)</f>
         <v>3600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="W23" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
@@ -3618,44 +3772,52 @@
       <c r="G24" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="K24" s="3" t="s">
+      <c r="H24" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
       <c r="N24" s="3">
-        <f>VLOOKUP(V24,[1]防御塔!$A:$Q,4,FALSE)*3^(W24-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <f>VLOOKUP(X24,[1]防御塔!$A:$Q,4,FALSE)*3^(Y24-1)</f>
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S24" s="3">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>48</v>
+      <c r="U24" s="3">
+        <v>3</v>
       </c>
       <c r="V24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="W24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
@@ -3668,44 +3830,52 @@
       <c r="G25" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="K25" s="3" t="s">
+      <c r="H25" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <v>2</v>
       </c>
-      <c r="N25" s="3">
-        <f>VLOOKUP(V25,[1]防御塔!$A:$Q,4,FALSE)*3^(W25-1)</f>
+      <c r="P25" s="3">
+        <f>VLOOKUP(X25,[1]防御塔!$A:$Q,4,FALSE)*3^(Y25-1)</f>
         <v>300</v>
       </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S25" s="3">
-        <v>3</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>48</v>
+      <c r="U25" s="3">
+        <v>3</v>
       </c>
       <c r="V25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="W25" s="13">
+      <c r="Y25" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
@@ -3718,38 +3888,46 @@
       <c r="G26" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="K26" s="3" t="s">
+      <c r="H26" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3</v>
-      </c>
       <c r="N26" s="3">
-        <f>VLOOKUP(V26,[1]防御塔!$A:$Q,4,FALSE)*3^(W26-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
+        <f>VLOOKUP(X26,[1]防御塔!$A:$Q,4,FALSE)*3^(Y26-1)</f>
         <v>900</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="W26" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
         <v>78</v>
       </c>
@@ -3762,44 +3940,52 @@
       <c r="G27" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="K27" s="3" t="s">
+      <c r="H27" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
       <c r="N27" s="3">
-        <f>VLOOKUP(V27,[1]防御塔!$A:$Q,4,FALSE)*3^(W27-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3">
+        <f>VLOOKUP(X27,[1]防御塔!$A:$Q,4,FALSE)*3^(Y27-1)</f>
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="S27" s="3">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>48</v>
+      <c r="U27" s="3">
+        <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="W27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>81</v>
       </c>
@@ -3812,44 +3998,52 @@
       <c r="G28" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="K28" s="3" t="s">
+      <c r="H28" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>2</v>
       </c>
-      <c r="N28" s="3">
-        <f>VLOOKUP(V28,[1]防御塔!$A:$Q,4,FALSE)*3^(W28-1)</f>
+      <c r="P28" s="3">
+        <f>VLOOKUP(X28,[1]防御塔!$A:$Q,4,FALSE)*3^(Y28-1)</f>
         <v>300</v>
       </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="3">
-        <v>3</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>48</v>
+      <c r="U28" s="3">
+        <v>3</v>
       </c>
       <c r="V28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X28" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="W28" s="13">
+      <c r="Y28" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
         <v>83</v>
       </c>
@@ -3862,38 +4056,46 @@
       <c r="G29" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="K29" s="3" t="s">
+      <c r="H29" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I29" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <v>3</v>
-      </c>
       <c r="N29" s="3">
-        <f>VLOOKUP(V29,[1]防御塔!$A:$Q,4,FALSE)*3^(W29-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
+        <f>VLOOKUP(X29,[1]防御塔!$A:$Q,4,FALSE)*3^(Y29-1)</f>
         <v>900</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="V29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="W29" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
         <v>97</v>
       </c>
@@ -3906,44 +4108,52 @@
       <c r="G30" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="K30" s="3" t="s">
+      <c r="H30" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
       <c r="N30" s="3">
-        <f>VLOOKUP(V30,[1]防御塔!$A:$Q,4,FALSE)*3^(W30-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <f>VLOOKUP(X30,[1]防御塔!$A:$Q,4,FALSE)*3^(Y30-1)</f>
         <v>200</v>
       </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S30" s="3">
-        <v>3</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V30" s="13" t="s">
+      <c r="U30" s="3">
+        <v>3</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X30" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="W30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
         <v>99</v>
       </c>
@@ -3956,44 +4166,52 @@
       <c r="G31" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="K31" s="3" t="s">
+      <c r="H31" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
         <v>2</v>
       </c>
-      <c r="N31" s="3">
-        <f>VLOOKUP(V31,[1]防御塔!$A:$Q,4,FALSE)*3^(W31-1)</f>
+      <c r="P31" s="3">
+        <f>VLOOKUP(X31,[1]防御塔!$A:$Q,4,FALSE)*3^(Y31-1)</f>
         <v>600</v>
       </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="S31" s="3">
-        <v>3</v>
-      </c>
-      <c r="T31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V31" s="13" t="s">
+      <c r="U31" s="3">
+        <v>3</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X31" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="W31" s="3">
+      <c r="Y31" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
@@ -4006,38 +4224,46 @@
       <c r="G32" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="K32" s="3" t="s">
+      <c r="H32" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3</v>
-      </c>
       <c r="N32" s="3">
-        <f>VLOOKUP(V32,[1]防御塔!$A:$Q,4,FALSE)*3^(W32-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <f>VLOOKUP(X32,[1]防御塔!$A:$Q,4,FALSE)*3^(Y32-1)</f>
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V32" s="13" t="s">
+      <c r="V32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X32" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="W32" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>154</v>
       </c>
@@ -4050,44 +4276,52 @@
       <c r="G33" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="K33" s="3" t="s">
+      <c r="H33" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1</v>
-      </c>
       <c r="N33" s="3">
-        <f>VLOOKUP(V33,[1]防御塔!$A:$Q,4,FALSE)*3^(W33-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3">
+        <f>VLOOKUP(X33,[1]防御塔!$A:$Q,4,FALSE)*3^(Y33-1)</f>
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S33" s="3">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V33" s="13" t="s">
+      <c r="U33" s="3">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X33" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="W33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>156</v>
       </c>
@@ -4100,44 +4334,52 @@
       <c r="G34" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="K34" s="3" t="s">
+      <c r="H34" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
         <v>2</v>
       </c>
-      <c r="N34" s="3">
-        <f>VLOOKUP(V34,[1]防御塔!$A:$Q,4,FALSE)*3^(W34-1)</f>
+      <c r="P34" s="3">
+        <f>VLOOKUP(X34,[1]防御塔!$A:$Q,4,FALSE)*3^(Y34-1)</f>
         <v>300</v>
       </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="S34" s="3">
-        <v>3</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="13" t="s">
+      <c r="U34" s="3">
+        <v>3</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X34" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="W34" s="3">
+      <c r="Y34" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>158</v>
       </c>
@@ -4150,38 +4392,46 @@
       <c r="G35" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="K35" s="3" t="s">
+      <c r="H35" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3</v>
-      </c>
       <c r="N35" s="3">
-        <f>VLOOKUP(V35,[1]防御塔!$A:$Q,4,FALSE)*3^(W35-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
+        <f>VLOOKUP(X35,[1]防御塔!$A:$Q,4,FALSE)*3^(Y35-1)</f>
         <v>900</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V35" s="13" t="s">
+      <c r="V35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="W35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>232</v>
       </c>
@@ -4194,45 +4444,53 @@
       <c r="G36" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="K36" s="3" t="s">
+      <c r="H36" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1</v>
-      </c>
       <c r="N36" s="3">
-        <f>VLOOKUP(V36,[1]防御塔!$A:$Q,4,FALSE)*3^(W36-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <f>VLOOKUP(X36,[1]防御塔!$A:$Q,4,FALSE)*3^(Y36-1)</f>
         <v>70</v>
       </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="S36" s="3">
-        <v>3</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U36"/>
-      <c r="V36" s="13" t="s">
+      <c r="U36" s="3">
+        <v>3</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W36"/>
+      <c r="X36" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="W36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>234</v>
       </c>
@@ -4245,45 +4503,53 @@
       <c r="G37" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="K37" s="3" t="s">
+      <c r="H37" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
         <v>2</v>
       </c>
-      <c r="N37" s="3">
-        <f>VLOOKUP(V37,[1]防御塔!$A:$Q,4,FALSE)*3^(W37-1)</f>
+      <c r="P37" s="3">
+        <f>VLOOKUP(X37,[1]防御塔!$A:$Q,4,FALSE)*3^(Y37-1)</f>
         <v>210</v>
       </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="S37" s="3">
-        <v>3</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U37"/>
-      <c r="V37" s="13" t="s">
+      <c r="U37" s="3">
+        <v>3</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37"/>
+      <c r="X37" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="W37" s="3">
+      <c r="Y37" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>236</v>
       </c>
@@ -4296,39 +4562,47 @@
       <c r="G38" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="K38" s="3" t="s">
+      <c r="H38" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3">
-        <v>3</v>
-      </c>
       <c r="N38" s="3">
-        <f>VLOOKUP(V38,[1]防御塔!$A:$Q,4,FALSE)*3^(W38-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>3</v>
+      </c>
+      <c r="P38" s="3">
+        <f>VLOOKUP(X38,[1]防御塔!$A:$Q,4,FALSE)*3^(Y38-1)</f>
         <v>630</v>
       </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
-      <c r="T38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U38"/>
-      <c r="V38" s="13" t="s">
+      <c r="V38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W38"/>
+      <c r="X38" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="W38" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="D39" s="3" t="s">
         <v>85</v>
@@ -4342,47 +4616,55 @@
       <c r="G39" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39" s="3" t="s">
+      <c r="H39" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I39" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1</v>
-      </c>
       <c r="N39" s="3">
-        <f>VLOOKUP(V39,[1]防御塔!$A:$Q,4,FALSE)*3^(W39-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3">
+        <f>VLOOKUP(X39,[1]防御塔!$A:$Q,4,FALSE)*3^(Y39-1)</f>
         <v>400</v>
       </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S39" s="3">
-        <v>3</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U39"/>
-      <c r="V39" s="13" t="s">
+      <c r="U39" s="3">
+        <v>3</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W39"/>
+      <c r="X39" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="W39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="D40" s="3" t="s">
         <v>87</v>
@@ -4396,47 +4678,55 @@
       <c r="G40" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" s="3" t="s">
+      <c r="H40" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
         <v>2</v>
       </c>
-      <c r="N40" s="3">
-        <f>VLOOKUP(V40,[1]防御塔!$A:$Q,4,FALSE)*3^(W40-1)</f>
+      <c r="P40" s="3">
+        <f>VLOOKUP(X40,[1]防御塔!$A:$Q,4,FALSE)*3^(Y40-1)</f>
         <v>1200</v>
       </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S40" s="3">
-        <v>3</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U40"/>
-      <c r="V40" s="13" t="s">
+      <c r="U40" s="3">
+        <v>3</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W40"/>
+      <c r="X40" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="W40" s="3">
+      <c r="Y40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="D41" s="3" t="s">
         <v>89</v>
@@ -4450,41 +4740,49 @@
       <c r="G41" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" s="3" t="s">
+      <c r="H41" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
-        <v>3</v>
-      </c>
       <c r="N41" s="3">
-        <f>VLOOKUP(V41,[1]防御塔!$A:$Q,4,FALSE)*3^(W41-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
+        <f>VLOOKUP(X41,[1]防御塔!$A:$Q,4,FALSE)*3^(Y41-1)</f>
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U41"/>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41"/>
+      <c r="X41" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="W41" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="D42" s="3" t="s">
         <v>133</v>
@@ -4498,47 +4796,55 @@
       <c r="G42" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42" s="3" t="s">
+      <c r="H42" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I42" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1</v>
-      </c>
       <c r="N42" s="3">
-        <f>VLOOKUP(V42,[1]防御塔!$A:$Q,4,FALSE)*3^(W42-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
+        <f>VLOOKUP(X42,[1]防御塔!$A:$Q,4,FALSE)*3^(Y42-1)</f>
         <v>200</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S42" s="3">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U42"/>
-      <c r="V42" s="13" t="s">
+      <c r="U42" s="3">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W42"/>
+      <c r="X42" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="W42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="D43" s="3" t="s">
         <v>134</v>
@@ -4552,47 +4858,55 @@
       <c r="G43" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43" s="3" t="s">
+      <c r="H43" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
         <v>2</v>
       </c>
-      <c r="N43" s="3">
-        <f>VLOOKUP(V43,[1]防御塔!$A:$Q,4,FALSE)*3^(W43-1)</f>
+      <c r="P43" s="3">
+        <f>VLOOKUP(X43,[1]防御塔!$A:$Q,4,FALSE)*3^(Y43-1)</f>
         <v>600</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S43" s="3">
-        <v>3</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U43"/>
-      <c r="V43" s="13" t="s">
+      <c r="U43" s="3">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W43"/>
+      <c r="X43" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="D44" s="3" t="s">
         <v>135</v>
@@ -4606,41 +4920,49 @@
       <c r="G44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44" s="3" t="s">
+      <c r="H44" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3</v>
-      </c>
       <c r="N44" s="3">
-        <f>VLOOKUP(V44,[1]防御塔!$A:$Q,4,FALSE)*3^(W44-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3">
+        <f>VLOOKUP(X44,[1]防御塔!$A:$Q,4,FALSE)*3^(Y44-1)</f>
         <v>1800</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U44"/>
-      <c r="V44" s="13" t="s">
+      <c r="V44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W44"/>
+      <c r="X44" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="W44" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="D45" s="3" t="s">
         <v>166</v>
@@ -4654,47 +4976,55 @@
       <c r="G45" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45" s="3" t="s">
+      <c r="H45" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I45" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1</v>
-      </c>
       <c r="N45" s="3">
-        <f>VLOOKUP(V45,[1]防御塔!$A:$Q,4,FALSE)*3^(W45-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1</v>
+      </c>
+      <c r="P45" s="3">
+        <f>VLOOKUP(X45,[1]防御塔!$A:$Q,4,FALSE)*3^(Y45-1)</f>
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S45" s="3">
-        <v>3</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U45"/>
-      <c r="V45" s="13" t="s">
+      <c r="U45" s="3">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W45"/>
+      <c r="X45" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="W45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="D46" s="3" t="s">
         <v>168</v>
@@ -4708,47 +5038,55 @@
       <c r="G46" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46" s="3" t="s">
+      <c r="H46" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
         <v>2</v>
       </c>
-      <c r="N46" s="3">
-        <f>VLOOKUP(V46,[1]防御塔!$A:$Q,4,FALSE)*3^(W46-1)</f>
+      <c r="P46" s="3">
+        <f>VLOOKUP(X46,[1]防御塔!$A:$Q,4,FALSE)*3^(Y46-1)</f>
         <v>600</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S46" s="3">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U46"/>
-      <c r="V46" s="13" t="s">
+      <c r="U46" s="3">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W46"/>
+      <c r="X46" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="D47" s="3" t="s">
         <v>170</v>
@@ -4762,41 +5100,49 @@
       <c r="G47" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47" s="3" t="s">
+      <c r="H47" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3">
-        <v>3</v>
-      </c>
       <c r="N47" s="3">
-        <f>VLOOKUP(V47,[1]防御塔!$A:$Q,4,FALSE)*3^(W47-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
+        <f>VLOOKUP(X47,[1]防御塔!$A:$Q,4,FALSE)*3^(Y47-1)</f>
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U47"/>
-      <c r="V47" s="13" t="s">
+      <c r="V47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47"/>
+      <c r="X47" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="W47" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="D48" s="3" t="s">
         <v>241</v>
@@ -4810,47 +5156,55 @@
       <c r="G48" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48" s="3" t="s">
+      <c r="H48" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1</v>
-      </c>
       <c r="N48" s="3">
-        <f>VLOOKUP(V48,[1]防御塔!$A:$Q,4,FALSE)*3^(W48-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3">
+        <f>VLOOKUP(X48,[1]防御塔!$A:$Q,4,FALSE)*3^(Y48-1)</f>
         <v>400</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="S48" s="3">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U48"/>
-      <c r="V48" s="13" t="s">
+      <c r="U48" s="3">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W48"/>
+      <c r="X48" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="W48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="D49" s="3" t="s">
         <v>242</v>
@@ -4864,47 +5218,55 @@
       <c r="G49" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49" s="3" t="s">
+      <c r="H49" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
         <v>2</v>
       </c>
-      <c r="N49" s="3">
-        <f>VLOOKUP(V49,[1]防御塔!$A:$Q,4,FALSE)*3^(W49-1)</f>
+      <c r="P49" s="3">
+        <f>VLOOKUP(X49,[1]防御塔!$A:$Q,4,FALSE)*3^(Y49-1)</f>
         <v>1200</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S49" s="3">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U49"/>
-      <c r="V49" s="13" t="s">
+      <c r="U49" s="3">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W49"/>
+      <c r="X49" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="D50" s="3" t="s">
         <v>243</v>
@@ -4918,41 +5280,49 @@
       <c r="G50" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50" s="3" t="s">
+      <c r="H50" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3">
-        <v>3</v>
-      </c>
       <c r="N50" s="3">
-        <f>VLOOKUP(V50,[1]防御塔!$A:$Q,4,FALSE)*3^(W50-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
+        <v>3</v>
+      </c>
+      <c r="P50" s="3">
+        <f>VLOOKUP(X50,[1]防御塔!$A:$Q,4,FALSE)*3^(Y50-1)</f>
         <v>3600</v>
       </c>
-      <c r="P50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="T50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U50"/>
-      <c r="V50" s="13" t="s">
+      <c r="V50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50"/>
+      <c r="X50" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="W50" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
         <v>91</v>
       </c>
@@ -4965,44 +5335,52 @@
       <c r="G51" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="K51" s="3" t="s">
+      <c r="H51" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L51" s="3">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3">
-        <v>1</v>
-      </c>
       <c r="N51" s="3">
-        <f>VLOOKUP(V51,[1]防御塔!$A:$Q,4,FALSE)*3^(W51-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>1</v>
+      </c>
+      <c r="P51" s="3">
+        <f>VLOOKUP(X51,[1]防御塔!$A:$Q,4,FALSE)*3^(Y51-1)</f>
         <v>200</v>
       </c>
-      <c r="P51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="S51" s="3">
-        <v>3</v>
-      </c>
-      <c r="T51" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V51" s="13" t="s">
+      <c r="U51" s="3">
+        <v>3</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X51" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="W51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D52" s="3" t="s">
         <v>93</v>
       </c>
@@ -5015,44 +5393,52 @@
       <c r="G52" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="K52" s="3" t="s">
+      <c r="H52" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
         <v>2</v>
       </c>
-      <c r="N52" s="3">
-        <f>VLOOKUP(V52,[1]防御塔!$A:$Q,4,FALSE)*3^(W52-1)</f>
+      <c r="P52" s="3">
+        <f>VLOOKUP(X52,[1]防御塔!$A:$Q,4,FALSE)*3^(Y52-1)</f>
         <v>600</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="S52" s="3">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V52" s="13" t="s">
+      <c r="U52" s="3">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X52" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
         <v>95</v>
       </c>
@@ -5065,44 +5451,54 @@
       <c r="G53" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="12"/>
-      <c r="K53" s="3" t="s">
+      <c r="H53" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L53" s="3">
-        <v>1</v>
-      </c>
-      <c r="M53" s="3">
-        <v>3</v>
-      </c>
       <c r="N53" s="3">
-        <f>VLOOKUP(V53,[1]防御塔!$A:$Q,4,FALSE)*3^(W53-1)</f>
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>3</v>
+      </c>
+      <c r="P53" s="3">
+        <f>VLOOKUP(X53,[1]防御塔!$A:$Q,4,FALSE)*3^(Y53-1)</f>
         <v>1800</v>
       </c>
-      <c r="P53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="T53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V53" s="13" t="s">
+      <c r="V53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X53" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="W53" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C54" s="13"/>
       <c r="F54" s="14"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>40</v>
       </c>
@@ -5119,33 +5515,39 @@
       <c r="G55" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K55" s="3">
         <v>5</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N55" s="3">
+      <c r="P55" s="3">
         <v>200</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="V55" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C57" s="13" t="s">
         <v>204</v>
       </c>
@@ -5161,35 +5563,41 @@
       <c r="G57" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="I57" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L57" s="3">
-        <v>1</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1</v>
-      </c>
       <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3">
         <v>170</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>170</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S57" s="3">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C58" s="13" t="s">
         <v>204</v>
       </c>
@@ -5205,35 +5613,41 @@
       <c r="G58" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="I58" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
         <v>2</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>510</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>510</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S58" s="3">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C59" s="13" t="s">
         <v>204</v>
       </c>
@@ -5249,29 +5663,35 @@
       <c r="G59" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="I59" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3</v>
-      </c>
       <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>1530</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>1530</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C60" s="13" t="s">
         <v>205</v>
       </c>
@@ -5288,35 +5708,41 @@
         <v>190</v>
       </c>
       <c r="H60" s="12"/>
-      <c r="K60" s="3" t="s">
+      <c r="I60" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L60" s="3">
-        <v>1</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1</v>
-      </c>
       <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1</v>
+      </c>
+      <c r="P60" s="3">
         <v>170</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>170</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="S60" s="3">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C61" s="13" t="s">
         <v>205</v>
       </c>
@@ -5333,35 +5759,41 @@
         <v>191</v>
       </c>
       <c r="H61" s="12"/>
-      <c r="K61" s="3" t="s">
+      <c r="I61" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="3">
-        <v>1</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
         <v>2</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>510</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>510</v>
       </c>
-      <c r="R61" s="3" t="s">
+      <c r="T61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S61" s="3">
-        <v>3</v>
-      </c>
-      <c r="T61" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>3</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C62" s="13" t="s">
         <v>205</v>
       </c>
@@ -5378,29 +5810,35 @@
         <v>192</v>
       </c>
       <c r="H62" s="12"/>
-      <c r="K62" s="3" t="s">
+      <c r="I62" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3</v>
-      </c>
       <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>1530</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>1530</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C63" s="13" t="s">
         <v>206</v>
       </c>
@@ -5417,35 +5855,41 @@
         <v>190</v>
       </c>
       <c r="H63" s="11"/>
-      <c r="K63" s="3" t="s">
+      <c r="I63" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L63" s="3">
-        <v>1</v>
-      </c>
-      <c r="M63" s="3">
-        <v>1</v>
-      </c>
       <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1</v>
+      </c>
+      <c r="P63" s="3">
         <v>200</v>
       </c>
-      <c r="P63" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="3">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
         <v>255</v>
       </c>
-      <c r="R63" s="3" t="s">
+      <c r="T63" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="S63" s="3">
-        <v>3</v>
-      </c>
-      <c r="T63" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>3</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C64" s="13" t="s">
         <v>206</v>
       </c>
@@ -5462,35 +5906,41 @@
         <v>191</v>
       </c>
       <c r="H64" s="11"/>
-      <c r="K64" s="3" t="s">
+      <c r="I64" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-      <c r="M64" s="3">
+      <c r="N64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3">
         <v>2</v>
       </c>
-      <c r="N64" s="3">
+      <c r="P64" s="3">
         <v>600</v>
       </c>
-      <c r="P64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
         <v>765</v>
       </c>
-      <c r="R64" s="3" t="s">
+      <c r="T64" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="S64" s="3">
-        <v>3</v>
-      </c>
-      <c r="T64" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>3</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C65" s="13" t="s">
         <v>206</v>
       </c>
@@ -5507,29 +5957,35 @@
         <v>192</v>
       </c>
       <c r="H65" s="11"/>
-      <c r="K65" s="3" t="s">
+      <c r="I65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-      <c r="M65" s="3">
-        <v>3</v>
-      </c>
       <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3">
+        <v>3</v>
+      </c>
+      <c r="P65" s="3">
         <v>1800</v>
       </c>
-      <c r="P65" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="3">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
         <v>2295</v>
       </c>
-      <c r="T65" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V65" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" s="13" t="s">
         <v>207</v>
       </c>
@@ -5545,35 +6001,41 @@
       <c r="G66" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="I66" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1</v>
-      </c>
       <c r="N66" s="3">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1</v>
+      </c>
+      <c r="P66" s="3">
         <v>170</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>170</v>
       </c>
-      <c r="R66" s="3" t="s">
+      <c r="T66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S66" s="3">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C67" s="13" t="s">
         <v>207</v>
       </c>
@@ -5589,35 +6051,41 @@
       <c r="G67" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="I67" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L67" s="3">
-        <v>1</v>
-      </c>
-      <c r="M67" s="3">
+      <c r="N67" s="3">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3">
         <v>2</v>
       </c>
-      <c r="N67" s="3">
+      <c r="P67" s="3">
         <v>510</v>
       </c>
-      <c r="P67" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="3">
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
         <v>510</v>
       </c>
-      <c r="R67" s="3" t="s">
+      <c r="T67" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S67" s="3">
-        <v>3</v>
-      </c>
-      <c r="T67" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3">
+        <v>3</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C68" s="13" t="s">
         <v>207</v>
       </c>
@@ -5633,29 +6101,35 @@
       <c r="G68" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="I68" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L68" s="3">
-        <v>1</v>
-      </c>
-      <c r="M68" s="3">
-        <v>3</v>
-      </c>
       <c r="N68" s="3">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3">
+        <v>3</v>
+      </c>
+      <c r="P68" s="3">
         <v>1530</v>
       </c>
-      <c r="P68" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="3">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
         <v>1530</v>
       </c>
-      <c r="T68" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V68" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" s="13" t="s">
         <v>208</v>
       </c>
@@ -5672,35 +6146,41 @@
         <v>190</v>
       </c>
       <c r="H69" s="11"/>
-      <c r="K69" s="3" t="s">
+      <c r="I69" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
-      <c r="M69" s="3">
-        <v>1</v>
-      </c>
       <c r="N69" s="3">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3">
+        <v>1</v>
+      </c>
+      <c r="P69" s="3">
         <v>170</v>
       </c>
-      <c r="P69" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="3">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
         <v>170</v>
       </c>
-      <c r="R69" s="3" t="s">
+      <c r="T69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S69" s="3">
-        <v>3</v>
-      </c>
-      <c r="T69" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>3</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C70" s="13" t="s">
         <v>208</v>
       </c>
@@ -5717,35 +6197,41 @@
         <v>191</v>
       </c>
       <c r="H70" s="11"/>
-      <c r="K70" s="3" t="s">
+      <c r="I70" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L70" s="3">
-        <v>1</v>
-      </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
         <v>2</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>510</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>510</v>
       </c>
-      <c r="R70" s="3" t="s">
+      <c r="T70" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S70" s="3">
-        <v>3</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>3</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C71" s="13" t="s">
         <v>208</v>
       </c>
@@ -5762,29 +6248,35 @@
         <v>192</v>
       </c>
       <c r="H71" s="11"/>
-      <c r="K71" s="3" t="s">
+      <c r="I71" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L71" s="3">
-        <v>1</v>
-      </c>
-      <c r="M71" s="3">
-        <v>3</v>
-      </c>
       <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>3</v>
+      </c>
+      <c r="P71" s="3">
         <v>1530</v>
       </c>
-      <c r="P71" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="3">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
         <v>1530</v>
       </c>
-      <c r="T71" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V71" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C72" s="13" t="s">
         <v>209</v>
       </c>
@@ -5800,35 +6292,41 @@
       <c r="G72" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="I72" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L72" s="3">
-        <v>1</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1</v>
-      </c>
       <c r="N72" s="3">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3">
+        <v>1</v>
+      </c>
+      <c r="P72" s="3">
         <v>200</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>255</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="S72" s="3">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C73" s="13" t="s">
         <v>209</v>
       </c>
@@ -5844,35 +6342,41 @@
       <c r="G73" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="I73" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
-      <c r="M73" s="3">
+      <c r="N73" s="3">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3">
         <v>2</v>
       </c>
-      <c r="N73" s="3">
+      <c r="P73" s="3">
         <v>600</v>
       </c>
-      <c r="P73" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="3">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
         <v>765</v>
       </c>
-      <c r="R73" s="3" t="s">
+      <c r="T73" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="S73" s="3">
-        <v>3</v>
-      </c>
-      <c r="T73" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>3</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C74" s="13" t="s">
         <v>209</v>
       </c>
@@ -5888,29 +6392,35 @@
       <c r="G74" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="I74" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L74" s="3">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3">
-        <v>3</v>
-      </c>
       <c r="N74" s="3">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <v>3</v>
+      </c>
+      <c r="P74" s="3">
         <v>1800</v>
       </c>
-      <c r="P74" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="3">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
         <v>2295</v>
       </c>
-      <c r="T74" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V74" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C75" s="13" t="s">
         <v>210</v>
       </c>
@@ -5927,35 +6437,41 @@
         <v>190</v>
       </c>
       <c r="H75" s="12"/>
-      <c r="K75" s="3" t="s">
+      <c r="I75" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L75" s="3">
-        <v>1</v>
-      </c>
-      <c r="M75" s="3">
-        <v>1</v>
-      </c>
       <c r="N75" s="3">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1</v>
+      </c>
+      <c r="P75" s="3">
         <v>170</v>
       </c>
-      <c r="P75" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="3">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
         <v>170</v>
       </c>
-      <c r="R75" s="3" t="s">
+      <c r="T75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="S75" s="3">
-        <v>3</v>
-      </c>
-      <c r="T75" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>3</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C76" s="13" t="s">
         <v>210</v>
       </c>
@@ -5972,35 +6488,41 @@
         <v>191</v>
       </c>
       <c r="H76" s="12"/>
-      <c r="K76" s="3" t="s">
+      <c r="I76" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L76" s="3">
-        <v>1</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3">
         <v>2</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>510</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>510</v>
       </c>
-      <c r="R76" s="3" t="s">
+      <c r="T76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="S76" s="3">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C77" s="13" t="s">
         <v>210</v>
       </c>
@@ -6017,29 +6539,35 @@
         <v>192</v>
       </c>
       <c r="H77" s="12"/>
-      <c r="K77" s="3" t="s">
+      <c r="I77" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L77" s="3">
-        <v>1</v>
-      </c>
-      <c r="M77" s="3">
-        <v>3</v>
-      </c>
       <c r="N77" s="3">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3">
+        <v>3</v>
+      </c>
+      <c r="P77" s="3">
         <v>1530</v>
       </c>
-      <c r="P77" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="3">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
         <v>1530</v>
       </c>
-      <c r="T77" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V77" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C78" s="13" t="s">
         <v>211</v>
       </c>
@@ -6056,35 +6584,41 @@
         <v>190</v>
       </c>
       <c r="H78" s="11"/>
-      <c r="K78" s="3" t="s">
+      <c r="I78" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L78" s="3">
-        <v>1</v>
-      </c>
-      <c r="M78" s="3">
-        <v>1</v>
-      </c>
       <c r="N78" s="3">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3">
+        <v>1</v>
+      </c>
+      <c r="P78" s="3">
         <v>150</v>
       </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3">
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
         <v>127</v>
       </c>
-      <c r="R78" s="3" t="s">
+      <c r="T78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S78" s="3">
-        <v>3</v>
-      </c>
-      <c r="T78" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U78" s="3">
+        <v>3</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C79" s="13" t="s">
         <v>211</v>
       </c>
@@ -6101,35 +6635,41 @@
         <v>191</v>
       </c>
       <c r="H79" s="11"/>
-      <c r="K79" s="3" t="s">
+      <c r="I79" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L79" s="3">
-        <v>1</v>
-      </c>
-      <c r="M79" s="3">
+      <c r="N79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3">
         <v>2</v>
       </c>
-      <c r="N79" s="3">
+      <c r="P79" s="3">
         <v>450</v>
       </c>
-      <c r="P79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="3">
+      <c r="R79" s="3">
+        <v>0</v>
+      </c>
+      <c r="S79" s="3">
         <v>382</v>
       </c>
-      <c r="R79" s="3" t="s">
+      <c r="T79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="S79" s="3">
-        <v>3</v>
-      </c>
-      <c r="T79" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U79" s="3">
+        <v>3</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C80" s="13" t="s">
         <v>211</v>
       </c>
@@ -6146,29 +6686,35 @@
         <v>192</v>
       </c>
       <c r="H80" s="11"/>
-      <c r="K80" s="3" t="s">
+      <c r="I80" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L80" s="3">
-        <v>1</v>
-      </c>
-      <c r="M80" s="3">
-        <v>3</v>
-      </c>
       <c r="N80" s="3">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3">
+        <v>3</v>
+      </c>
+      <c r="P80" s="3">
         <v>1350</v>
       </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3">
         <v>1147</v>
       </c>
-      <c r="T80" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C81" s="13" t="s">
         <v>212</v>
       </c>
@@ -6185,35 +6731,41 @@
         <v>190</v>
       </c>
       <c r="H81" s="11"/>
-      <c r="K81" s="3" t="s">
+      <c r="I81" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L81" s="3">
-        <v>1</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1</v>
-      </c>
       <c r="N81" s="3">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1</v>
+      </c>
+      <c r="P81" s="3">
         <v>150</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>127</v>
       </c>
-      <c r="R81" s="3" t="s">
+      <c r="T81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="S81" s="3">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C82" s="13" t="s">
         <v>212</v>
       </c>
@@ -6230,35 +6782,41 @@
         <v>191</v>
       </c>
       <c r="H82" s="11"/>
-      <c r="K82" s="3" t="s">
+      <c r="I82" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L82" s="3">
-        <v>1</v>
-      </c>
-      <c r="M82" s="3">
+      <c r="N82" s="3">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3">
         <v>2</v>
       </c>
-      <c r="N82" s="3">
+      <c r="P82" s="3">
         <v>450</v>
       </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3">
         <v>382</v>
       </c>
-      <c r="R82" s="3" t="s">
+      <c r="T82" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="S82" s="3">
-        <v>3</v>
-      </c>
-      <c r="T82" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3">
+        <v>3</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C83" s="13" t="s">
         <v>212</v>
       </c>
@@ -6275,29 +6833,35 @@
         <v>192</v>
       </c>
       <c r="H83" s="11"/>
-      <c r="K83" s="3" t="s">
+      <c r="I83" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3</v>
-      </c>
       <c r="N83" s="3">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>1350</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>1147</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C84" s="13" t="s">
         <v>214</v>
       </c>
@@ -6313,35 +6877,41 @@
       <c r="G84" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="I84" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M84" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L84" s="3">
-        <v>1</v>
-      </c>
-      <c r="M84" s="3">
-        <v>1</v>
-      </c>
       <c r="N84" s="3">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3">
+        <v>1</v>
+      </c>
+      <c r="P84" s="3">
         <v>150</v>
       </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
         <v>127</v>
       </c>
-      <c r="R84" s="3" t="s">
+      <c r="T84" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S84" s="3">
-        <v>3</v>
-      </c>
-      <c r="T84" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>3</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C85" s="13" t="s">
         <v>214</v>
       </c>
@@ -6357,35 +6927,41 @@
       <c r="G85" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="I85" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L85" s="3">
-        <v>1</v>
-      </c>
-      <c r="M85" s="3">
+      <c r="N85" s="3">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3">
         <v>2</v>
       </c>
-      <c r="N85" s="3">
+      <c r="P85" s="3">
         <v>450</v>
       </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
         <v>382</v>
       </c>
-      <c r="R85" s="3" t="s">
+      <c r="T85" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="S85" s="3">
-        <v>3</v>
-      </c>
-      <c r="T85" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>3</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C86" s="13" t="s">
         <v>214</v>
       </c>
@@ -6401,32 +6977,38 @@
       <c r="G86" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="I86" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M86" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
-      <c r="M86" s="3">
-        <v>3</v>
-      </c>
       <c r="N86" s="3">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3">
+        <v>3</v>
+      </c>
+      <c r="P86" s="3">
         <v>1350</v>
       </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
         <v>1147</v>
       </c>
-      <c r="T86" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V86" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>178</v>
       </c>
@@ -6447,39 +7029,45 @@
         <v>190</v>
       </c>
       <c r="H88" s="11"/>
-      <c r="I88" s="7"/>
-      <c r="K88" s="3" t="str">
-        <f t="shared" ref="K88:K111" si="2">"Unit_"&amp;D88</f>
+      <c r="I88" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="M88" s="3" t="str">
+        <f t="shared" ref="M88:M111" si="2">"Unit_"&amp;D88</f>
         <v>Unit_TestTow1_1</v>
       </c>
-      <c r="L88" s="3">
-        <v>1</v>
-      </c>
-      <c r="M88" s="3">
-        <v>1</v>
-      </c>
       <c r="N88" s="3">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3">
+        <v>1</v>
+      </c>
+      <c r="P88" s="3">
         <v>200</v>
       </c>
-      <c r="P88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="3">
-        <f>INT(N88*0.7)</f>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <f>INT(P88*0.7)</f>
         <v>140</v>
       </c>
-      <c r="R88" s="3" t="str">
+      <c r="T88" s="3" t="str">
         <f>D89</f>
         <v>TestTow1_2</v>
       </c>
-      <c r="S88" s="3">
-        <v>3</v>
-      </c>
-      <c r="T88" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>3</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>178</v>
       </c>
@@ -6500,38 +7088,44 @@
         <v>191</v>
       </c>
       <c r="H89" s="11"/>
-      <c r="K89" s="3" t="str">
+      <c r="I89" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M89" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow1_2</v>
       </c>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3">
         <v>2</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <f>INT(Q88*3)</f>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <f>INT(S88*3)</f>
         <v>420</v>
       </c>
-      <c r="R89" s="3" t="str">
+      <c r="T89" s="3" t="str">
         <f>D90</f>
         <v>TestTow1_3</v>
       </c>
-      <c r="S89" s="3">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>178</v>
       </c>
@@ -6552,31 +7146,37 @@
         <v>192</v>
       </c>
       <c r="H90" s="11"/>
-      <c r="K90" s="3" t="str">
+      <c r="I90" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M90" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow1_3</v>
       </c>
-      <c r="L90" s="3">
-        <v>1</v>
-      </c>
-      <c r="M90" s="3">
-        <v>3</v>
-      </c>
       <c r="N90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3">
+        <v>3</v>
+      </c>
+      <c r="P90" s="3">
         <v>200</v>
       </c>
-      <c r="P90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="3">
-        <f>INT(Q89*3)</f>
+      <c r="R90" s="3">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <f>INT(S89*3)</f>
         <v>1260</v>
       </c>
-      <c r="T90" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V90" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>179</v>
       </c>
@@ -6596,38 +7196,44 @@
       <c r="G91" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K91" s="3" t="str">
+      <c r="I91" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M91" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow2_1</v>
       </c>
-      <c r="L91" s="3">
-        <v>1</v>
-      </c>
-      <c r="M91" s="3">
-        <v>1</v>
-      </c>
       <c r="N91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3">
+        <v>1</v>
+      </c>
+      <c r="P91" s="3">
         <v>180</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <f>INT(N91*0.7)</f>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <f>INT(P91*0.7)</f>
         <v>126</v>
       </c>
-      <c r="R91" s="3" t="str">
+      <c r="T91" s="3" t="str">
         <f>D92</f>
         <v>TestTow2_2</v>
       </c>
-      <c r="S91" s="3">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>179</v>
       </c>
@@ -6647,38 +7253,44 @@
       <c r="G92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K92" s="3" t="str">
+      <c r="I92" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M92" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow2_2</v>
       </c>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
-      <c r="M92" s="3">
+      <c r="N92" s="3">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3">
         <v>2</v>
       </c>
-      <c r="N92" s="3">
+      <c r="P92" s="3">
         <v>180</v>
       </c>
-      <c r="P92" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="3">
-        <f>INT(Q91*3)</f>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <f>INT(S91*3)</f>
         <v>378</v>
       </c>
-      <c r="R92" s="3" t="str">
+      <c r="T92" s="3" t="str">
         <f>D93</f>
         <v>TestTow2_3</v>
       </c>
-      <c r="S92" s="3">
-        <v>3</v>
-      </c>
-      <c r="T92" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>3</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>179</v>
       </c>
@@ -6698,31 +7310,37 @@
       <c r="G93" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K93" s="3" t="str">
+      <c r="I93" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M93" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow2_3</v>
       </c>
-      <c r="L93" s="3">
-        <v>1</v>
-      </c>
-      <c r="M93" s="3">
-        <v>3</v>
-      </c>
       <c r="N93" s="3">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3">
+        <v>3</v>
+      </c>
+      <c r="P93" s="3">
         <v>180</v>
       </c>
-      <c r="P93" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="3">
-        <f>INT(Q92*3)</f>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <f>INT(S92*3)</f>
         <v>1134</v>
       </c>
-      <c r="T93" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V93" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>180</v>
       </c>
@@ -6743,38 +7361,44 @@
         <v>190</v>
       </c>
       <c r="H94" s="11"/>
-      <c r="K94" s="3" t="str">
+      <c r="I94" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M94" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow3_1</v>
       </c>
-      <c r="L94" s="3">
-        <v>1</v>
-      </c>
-      <c r="M94" s="3">
-        <v>1</v>
-      </c>
       <c r="N94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3">
+        <v>1</v>
+      </c>
+      <c r="P94" s="3">
         <v>180</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <f>INT(N94*0.7)</f>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <f>INT(P94*0.7)</f>
         <v>126</v>
       </c>
-      <c r="R94" s="3" t="str">
+      <c r="T94" s="3" t="str">
         <f>D95</f>
         <v>TestTow3_2</v>
       </c>
-      <c r="S94" s="3">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>180</v>
       </c>
@@ -6795,38 +7419,44 @@
         <v>191</v>
       </c>
       <c r="H95" s="11"/>
-      <c r="K95" s="3" t="str">
+      <c r="I95" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M95" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow3_2</v>
       </c>
-      <c r="L95" s="3">
-        <v>1</v>
-      </c>
-      <c r="M95" s="3">
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3">
         <v>2</v>
       </c>
-      <c r="N95" s="3">
+      <c r="P95" s="3">
         <v>180</v>
       </c>
-      <c r="P95" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="3">
-        <f>INT(Q94*3)</f>
+      <c r="R95" s="3">
+        <v>0</v>
+      </c>
+      <c r="S95" s="3">
+        <f>INT(S94*3)</f>
         <v>378</v>
       </c>
-      <c r="R95" s="3" t="str">
+      <c r="T95" s="3" t="str">
         <f>D96</f>
         <v>TestTow3_3</v>
       </c>
-      <c r="S95" s="3">
-        <v>3</v>
-      </c>
-      <c r="T95" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3">
+        <v>3</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>180</v>
       </c>
@@ -6847,31 +7477,37 @@
         <v>192</v>
       </c>
       <c r="H96" s="11"/>
-      <c r="K96" s="3" t="str">
+      <c r="I96" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M96" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow3_3</v>
       </c>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
-      <c r="M96" s="3">
-        <v>3</v>
-      </c>
       <c r="N96" s="3">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3">
+        <v>3</v>
+      </c>
+      <c r="P96" s="3">
         <v>180</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <f>INT(Q95*3)</f>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <f>INT(S95*3)</f>
         <v>1134</v>
       </c>
-      <c r="T96" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V96" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>181</v>
       </c>
@@ -6891,38 +7527,44 @@
       <c r="G97" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K97" s="3" t="str">
+      <c r="I97" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M97" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow4_1</v>
       </c>
-      <c r="L97" s="3">
-        <v>1</v>
-      </c>
-      <c r="M97" s="3">
-        <v>1</v>
-      </c>
       <c r="N97" s="3">
+        <v>1</v>
+      </c>
+      <c r="O97" s="3">
+        <v>1</v>
+      </c>
+      <c r="P97" s="3">
         <v>180</v>
       </c>
-      <c r="P97" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="3">
-        <f>INT(N97*0.7)</f>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <f>INT(P97*0.7)</f>
         <v>126</v>
       </c>
-      <c r="R97" s="3" t="str">
+      <c r="T97" s="3" t="str">
         <f>D98</f>
         <v>TestTow4_2</v>
       </c>
-      <c r="S97" s="3">
-        <v>3</v>
-      </c>
-      <c r="T97" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>3</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>181</v>
       </c>
@@ -6942,38 +7584,44 @@
       <c r="G98" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K98" s="3" t="str">
+      <c r="I98" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M98" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow4_2</v>
       </c>
-      <c r="L98" s="3">
-        <v>1</v>
-      </c>
-      <c r="M98" s="3">
+      <c r="N98" s="3">
+        <v>1</v>
+      </c>
+      <c r="O98" s="3">
         <v>2</v>
       </c>
-      <c r="N98" s="3">
+      <c r="P98" s="3">
         <v>180</v>
       </c>
-      <c r="P98" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="3">
-        <f>INT(Q97*3)</f>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <f>INT(S97*3)</f>
         <v>378</v>
       </c>
-      <c r="R98" s="3" t="str">
+      <c r="T98" s="3" t="str">
         <f>D99</f>
         <v>TestTow4_3</v>
       </c>
-      <c r="S98" s="3">
-        <v>3</v>
-      </c>
-      <c r="T98" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>3</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>181</v>
       </c>
@@ -6993,31 +7641,37 @@
       <c r="G99" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K99" s="3" t="str">
+      <c r="I99" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M99" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow4_3</v>
       </c>
-      <c r="L99" s="3">
-        <v>1</v>
-      </c>
-      <c r="M99" s="3">
-        <v>3</v>
-      </c>
       <c r="N99" s="3">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3">
+        <v>3</v>
+      </c>
+      <c r="P99" s="3">
         <v>180</v>
       </c>
-      <c r="P99" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="3">
-        <f>INT(Q98*3)</f>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <f>INT(S98*3)</f>
         <v>1134</v>
       </c>
-      <c r="T99" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V99" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>182</v>
       </c>
@@ -7038,38 +7692,44 @@
         <v>190</v>
       </c>
       <c r="H100" s="11"/>
-      <c r="K100" s="3" t="str">
+      <c r="I100" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M100" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow5_1</v>
       </c>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
-      <c r="M100" s="3">
-        <v>1</v>
-      </c>
       <c r="N100" s="3">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <f>INT(N100*0.7)</f>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <f>INT(P100*0.7)</f>
         <v>140</v>
       </c>
-      <c r="R100" s="3" t="str">
+      <c r="T100" s="3" t="str">
         <f>D101</f>
         <v>TestTow5_2</v>
       </c>
-      <c r="S100" s="3">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>182</v>
       </c>
@@ -7090,38 +7750,44 @@
         <v>191</v>
       </c>
       <c r="H101" s="11"/>
-      <c r="K101" s="3" t="str">
+      <c r="I101" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M101" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow5_2</v>
       </c>
-      <c r="L101" s="3">
-        <v>1</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3">
         <v>2</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <f>INT(Q100*3)</f>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <f>INT(S100*3)</f>
         <v>420</v>
       </c>
-      <c r="R101" s="3" t="str">
+      <c r="T101" s="3" t="str">
         <f>D102</f>
         <v>TestTow5_3</v>
       </c>
-      <c r="S101" s="3">
-        <v>3</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>3</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>182</v>
       </c>
@@ -7142,31 +7808,37 @@
         <v>192</v>
       </c>
       <c r="H102" s="11"/>
-      <c r="K102" s="3" t="str">
+      <c r="I102" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M102" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow5_3</v>
       </c>
-      <c r="L102" s="3">
-        <v>1</v>
-      </c>
-      <c r="M102" s="3">
-        <v>3</v>
-      </c>
       <c r="N102" s="3">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <f>INT(Q101*3)</f>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <f>INT(S101*3)</f>
         <v>1260</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V102" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>183</v>
       </c>
@@ -7187,38 +7859,44 @@
         <v>190</v>
       </c>
       <c r="H103" s="11"/>
-      <c r="K103" s="3" t="str">
+      <c r="I103" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M103" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow6_1</v>
       </c>
-      <c r="L103" s="3">
-        <v>1</v>
-      </c>
-      <c r="M103" s="3">
-        <v>1</v>
-      </c>
       <c r="N103" s="3">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3">
+        <v>1</v>
+      </c>
+      <c r="P103" s="3">
         <v>250</v>
       </c>
-      <c r="P103" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="3">
-        <f>INT(N103*0.7)</f>
+      <c r="R103" s="3">
+        <v>0</v>
+      </c>
+      <c r="S103" s="3">
+        <f>INT(P103*0.7)</f>
         <v>175</v>
       </c>
-      <c r="R103" s="3" t="str">
+      <c r="T103" s="3" t="str">
         <f>D104</f>
         <v>TestTow6_2</v>
       </c>
-      <c r="S103" s="3">
-        <v>3</v>
-      </c>
-      <c r="T103" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U103" s="3">
+        <v>3</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>183</v>
       </c>
@@ -7239,38 +7917,44 @@
         <v>191</v>
       </c>
       <c r="H104" s="11"/>
-      <c r="K104" s="3" t="str">
+      <c r="I104" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M104" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow6_2</v>
       </c>
-      <c r="L104" s="3">
-        <v>1</v>
-      </c>
-      <c r="M104" s="3">
+      <c r="N104" s="3">
+        <v>1</v>
+      </c>
+      <c r="O104" s="3">
         <v>2</v>
       </c>
-      <c r="N104" s="3">
+      <c r="P104" s="3">
         <v>250</v>
       </c>
-      <c r="P104" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="3">
-        <f>INT(Q103*3)</f>
+      <c r="R104" s="3">
+        <v>0</v>
+      </c>
+      <c r="S104" s="3">
+        <f>INT(S103*3)</f>
         <v>525</v>
       </c>
-      <c r="R104" s="3" t="str">
+      <c r="T104" s="3" t="str">
         <f>D105</f>
         <v>TestTow6_3</v>
       </c>
-      <c r="S104" s="3">
-        <v>3</v>
-      </c>
-      <c r="T104" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U104" s="3">
+        <v>3</v>
+      </c>
+      <c r="V104" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>183</v>
       </c>
@@ -7291,31 +7975,37 @@
         <v>192</v>
       </c>
       <c r="H105" s="11"/>
-      <c r="K105" s="3" t="str">
+      <c r="I105" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M105" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow6_3</v>
       </c>
-      <c r="L105" s="3">
-        <v>1</v>
-      </c>
-      <c r="M105" s="3">
-        <v>3</v>
-      </c>
       <c r="N105" s="3">
+        <v>1</v>
+      </c>
+      <c r="O105" s="3">
+        <v>3</v>
+      </c>
+      <c r="P105" s="3">
         <v>250</v>
       </c>
-      <c r="P105" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="3">
-        <f>INT(Q104*3)</f>
+      <c r="R105" s="3">
+        <v>0</v>
+      </c>
+      <c r="S105" s="3">
+        <f>INT(S104*3)</f>
         <v>1575</v>
       </c>
-      <c r="T105" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V105" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>184</v>
       </c>
@@ -7336,38 +8026,44 @@
         <v>190</v>
       </c>
       <c r="H106" s="11"/>
-      <c r="K106" s="3" t="str">
+      <c r="I106" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M106" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow7_1</v>
       </c>
-      <c r="L106" s="3">
-        <v>1</v>
-      </c>
-      <c r="M106" s="3">
-        <v>1</v>
-      </c>
       <c r="N106" s="3">
+        <v>1</v>
+      </c>
+      <c r="O106" s="3">
+        <v>1</v>
+      </c>
+      <c r="P106" s="3">
         <v>200</v>
       </c>
-      <c r="P106" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="3">
-        <f>INT(N106*0.7)</f>
+      <c r="R106" s="3">
+        <v>0</v>
+      </c>
+      <c r="S106" s="3">
+        <f>INT(P106*0.7)</f>
         <v>140</v>
       </c>
-      <c r="R106" s="3" t="str">
+      <c r="T106" s="3" t="str">
         <f>D107</f>
         <v>TestTow7_2</v>
       </c>
-      <c r="S106" s="3">
-        <v>3</v>
-      </c>
-      <c r="T106" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U106" s="3">
+        <v>3</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>184</v>
       </c>
@@ -7388,38 +8084,44 @@
         <v>191</v>
       </c>
       <c r="H107" s="11"/>
-      <c r="K107" s="3" t="str">
+      <c r="I107" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M107" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow7_2</v>
       </c>
-      <c r="L107" s="3">
-        <v>1</v>
-      </c>
-      <c r="M107" s="3">
+      <c r="N107" s="3">
+        <v>1</v>
+      </c>
+      <c r="O107" s="3">
         <v>2</v>
       </c>
-      <c r="N107" s="3">
+      <c r="P107" s="3">
         <v>200</v>
       </c>
-      <c r="P107" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="3">
-        <f>INT(Q106*3)</f>
+      <c r="R107" s="3">
+        <v>0</v>
+      </c>
+      <c r="S107" s="3">
+        <f>INT(S106*3)</f>
         <v>420</v>
       </c>
-      <c r="R107" s="3" t="str">
+      <c r="T107" s="3" t="str">
         <f>D108</f>
         <v>TestTow7_3</v>
       </c>
-      <c r="S107" s="3">
-        <v>3</v>
-      </c>
-      <c r="T107" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U107" s="3">
+        <v>3</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>184</v>
       </c>
@@ -7440,31 +8142,37 @@
         <v>192</v>
       </c>
       <c r="H108" s="11"/>
-      <c r="K108" s="3" t="str">
+      <c r="I108" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M108" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow7_3</v>
       </c>
-      <c r="L108" s="3">
-        <v>1</v>
-      </c>
-      <c r="M108" s="3">
-        <v>3</v>
-      </c>
       <c r="N108" s="3">
+        <v>1</v>
+      </c>
+      <c r="O108" s="3">
+        <v>3</v>
+      </c>
+      <c r="P108" s="3">
         <v>200</v>
       </c>
-      <c r="P108" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="3">
-        <f>INT(Q107*3)</f>
+      <c r="R108" s="3">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3">
+        <f>INT(S107*3)</f>
         <v>1260</v>
       </c>
-      <c r="T108" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V108" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>185</v>
       </c>
@@ -7485,38 +8193,44 @@
         <v>190</v>
       </c>
       <c r="H109" s="12"/>
-      <c r="K109" s="3" t="str">
+      <c r="I109" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M109" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow8_1</v>
       </c>
-      <c r="L109" s="3">
-        <v>1</v>
-      </c>
-      <c r="M109" s="3">
-        <v>1</v>
-      </c>
       <c r="N109" s="3">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3">
+        <v>1</v>
+      </c>
+      <c r="P109" s="3">
         <v>200</v>
       </c>
-      <c r="P109" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="3">
-        <f>INT(N109*0.7)</f>
+      <c r="R109" s="3">
+        <v>0</v>
+      </c>
+      <c r="S109" s="3">
+        <f>INT(P109*0.7)</f>
         <v>140</v>
       </c>
-      <c r="R109" s="3" t="str">
+      <c r="T109" s="3" t="str">
         <f>D110</f>
         <v>TestTow8_2</v>
       </c>
-      <c r="S109" s="3">
-        <v>3</v>
-      </c>
-      <c r="T109" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U109" s="3">
+        <v>3</v>
+      </c>
+      <c r="V109" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>185</v>
       </c>
@@ -7537,38 +8251,44 @@
         <v>191</v>
       </c>
       <c r="H110" s="12"/>
-      <c r="K110" s="3" t="str">
+      <c r="I110" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M110" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow8_2</v>
       </c>
-      <c r="L110" s="3">
-        <v>1</v>
-      </c>
-      <c r="M110" s="3">
+      <c r="N110" s="3">
+        <v>1</v>
+      </c>
+      <c r="O110" s="3">
         <v>2</v>
       </c>
-      <c r="N110" s="3">
+      <c r="P110" s="3">
         <v>200</v>
       </c>
-      <c r="P110" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="3">
-        <f>INT(Q109*3)</f>
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3">
+        <f>INT(S109*3)</f>
         <v>420</v>
       </c>
-      <c r="R110" s="3" t="str">
+      <c r="T110" s="3" t="str">
         <f>D111</f>
         <v>TestTow8_3</v>
       </c>
-      <c r="S110" s="3">
-        <v>3</v>
-      </c>
-      <c r="T110" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U110" s="3">
+        <v>3</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>185</v>
       </c>
@@ -7589,27 +8309,33 @@
         <v>192</v>
       </c>
       <c r="H111" s="12"/>
-      <c r="K111" s="3" t="str">
+      <c r="I111" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M111" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Unit_TestTow8_3</v>
       </c>
-      <c r="L111" s="3">
-        <v>1</v>
-      </c>
-      <c r="M111" s="3">
-        <v>3</v>
-      </c>
       <c r="N111" s="3">
+        <v>1</v>
+      </c>
+      <c r="O111" s="3">
+        <v>3</v>
+      </c>
+      <c r="P111" s="3">
         <v>200</v>
       </c>
-      <c r="P111" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="3">
-        <f>INT(Q110*3)</f>
+      <c r="R111" s="3">
+        <v>0</v>
+      </c>
+      <c r="S111" s="3">
+        <f>INT(S110*3)</f>
         <v>1260</v>
       </c>
-      <c r="T111" s="3" t="s">
+      <c r="V111" s="3" t="s">
         <v>48</v>
       </c>
     </row>
